--- a/Rapport/Planning GANTT & Pert.xlsx
+++ b/Rapport/Planning GANTT & Pert.xlsx
@@ -4,20 +4,19 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="20115" windowHeight="7995"/>
+    <workbookView xWindow="240" yWindow="135" windowWidth="20115" windowHeight="7935"/>
   </bookViews>
   <sheets>
     <sheet name="Gantt" sheetId="1" r:id="rId1"/>
     <sheet name="Gantt (2)" sheetId="4" r:id="rId2"/>
     <sheet name="Pert" sheetId="2" r:id="rId3"/>
-    <sheet name="Feuil3" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="65">
   <si>
     <t>14/01</t>
   </si>
@@ -169,9 +168,6 @@
     <t>H, J, M</t>
   </si>
   <si>
-    <t>Définir et valider le domaine</t>
-  </si>
-  <si>
     <t>Collecter les données</t>
   </si>
   <si>
@@ -185,6 +181,36 @@
   </si>
   <si>
     <t>Valoriser les données</t>
+  </si>
+  <si>
+    <t>2h</t>
+  </si>
+  <si>
+    <t>4h</t>
+  </si>
+  <si>
+    <t>Choix du sujet</t>
+  </si>
+  <si>
+    <t>Préparation du BE</t>
+  </si>
+  <si>
+    <t>Analyse semantique</t>
+  </si>
+  <si>
+    <t>Peuplement de la BD</t>
+  </si>
+  <si>
+    <t>partie tétra avec marie</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bd </t>
+  </si>
+  <si>
+    <t>croisement</t>
+  </si>
+  <si>
+    <t>analyses</t>
   </si>
 </sst>
 </file>
@@ -207,7 +233,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -232,8 +258,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="15">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -441,11 +473,87 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
@@ -502,13 +610,42 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="4" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="4" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="4" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="5" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="5" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -6606,73 +6743,28 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>4763</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>47624</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>200021</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>166687</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>559595</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>333375</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="1025" name="Rectangle 1"/>
+        <xdr:cNvPr id="5" name="Rectangle 1"/>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="1528763" y="631030"/>
-          <a:ext cx="757237" cy="119063"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent5">
-            <a:lumMod val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:miter lim="800000"/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>2383</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>223836</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>759620</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>342899</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="Rectangle 1"/>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="1990727" y="807242"/>
-          <a:ext cx="757237" cy="119063"/>
+          <a:off x="3155157" y="5272084"/>
+          <a:ext cx="9894094" cy="133354"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6694,560 +6786,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>4763</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>202406</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>321469</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="Rectangle 1"/>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="3517107" y="6119812"/>
-          <a:ext cx="757237" cy="119063"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent5"/>
-        </a:solidFill>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:miter lim="800000"/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>2382</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>200021</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>380992</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>321466</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="Rectangle 1"/>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="5038726" y="6117427"/>
-          <a:ext cx="4569618" cy="121445"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent5"/>
-        </a:solidFill>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:miter lim="800000"/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>2381</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>202403</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>750094</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>321466</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="Rectangle 1"/>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="10372725" y="6119809"/>
-          <a:ext cx="1509713" cy="119063"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent5"/>
-        </a:solidFill>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:miter lim="800000"/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>2366</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>211930</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>759603</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>330993</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="7" name="Rectangle 1"/>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="2752710" y="1581149"/>
-          <a:ext cx="757237" cy="119063"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent5"/>
-        </a:solidFill>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:miter lim="800000"/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>5</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>221449</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>757242</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>340512</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="8" name="Rectangle 1"/>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="1988349" y="1197762"/>
-          <a:ext cx="757237" cy="119063"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent5"/>
-        </a:solidFill>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:miter lim="800000"/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>2328</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>223835</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>759565</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>342898</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="9" name="Rectangle 1"/>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="4276672" y="1200148"/>
-          <a:ext cx="757237" cy="119063"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent5"/>
-        </a:solidFill>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:miter lim="800000"/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>209544</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>757209</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>333375</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="10" name="Rectangle 1"/>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="3512344" y="1959763"/>
-          <a:ext cx="757209" cy="123831"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent5"/>
-        </a:solidFill>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:miter lim="800000"/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:endParaRPr lang="fr-FR"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>759598</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>207166</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>373807</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>330997</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="12" name="Rectangle 1"/>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="5033942" y="1957385"/>
-          <a:ext cx="376209" cy="123831"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent5"/>
-        </a:solidFill>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:miter lim="800000"/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:endParaRPr lang="fr-FR"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>376212</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>216686</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>2327</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>340517</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="13" name="Rectangle 1"/>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="5412556" y="2347905"/>
-          <a:ext cx="376209" cy="123831"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent5"/>
-        </a:solidFill>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:miter lim="800000"/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:endParaRPr lang="fr-FR"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>4732</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>214300</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>380941</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>338131</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="14" name="Rectangle 1"/>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="5791170" y="2726519"/>
-          <a:ext cx="376209" cy="123831"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent5"/>
-        </a:solidFill>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:miter lim="800000"/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:endParaRPr lang="fr-FR"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>369094</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>214312</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>364331</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>333375</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="15" name="Rectangle 1"/>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="6155532" y="3107531"/>
-          <a:ext cx="757237" cy="119063"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent5"/>
-        </a:solidFill>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:miter lim="800000"/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>392898</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>214308</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>388135</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>333371</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="16" name="Rectangle 1"/>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="6941336" y="3488527"/>
-          <a:ext cx="757237" cy="119063"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent5"/>
-        </a:solidFill>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:miter lim="800000"/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>380992</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>214308</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
       <xdr:colOff>757201</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>338139</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -7288,455 +6836,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>759611</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>202405</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>333374</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="18" name="Rectangle 1"/>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="8070049" y="4238624"/>
-          <a:ext cx="1502576" cy="130969"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent5"/>
-        </a:solidFill>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:miter lim="800000"/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>202410</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>333375</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="21" name="Rectangle 1"/>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="9572625" y="4619629"/>
-          <a:ext cx="762000" cy="130965"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent5"/>
-        </a:solidFill>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:miter lim="800000"/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>759622</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>200024</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>759622</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>330989</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="22" name="Rectangle 1"/>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="9570247" y="4998243"/>
-          <a:ext cx="762000" cy="130965"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent5"/>
-        </a:solidFill>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:miter lim="800000"/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>2382</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>214324</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>750095</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>333387</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="24" name="Rectangle 1"/>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="10337007" y="5393543"/>
-          <a:ext cx="1509713" cy="119063"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent5"/>
-        </a:solidFill>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:miter lim="800000"/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>4</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>211938</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>747717</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>331001</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="25" name="Rectangle 1"/>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="10334629" y="5772157"/>
-          <a:ext cx="1509713" cy="119063"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent5"/>
-        </a:solidFill>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:miter lim="800000"/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>4705</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>47615</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>761942</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>166678</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="26" name="Rectangle 1"/>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="4279049" y="1023928"/>
-          <a:ext cx="757237" cy="119063"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent5">
-            <a:lumMod val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:miter lim="800000"/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>2375</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>45237</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>759612</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>164300</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="27" name="Rectangle 1"/>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="1990719" y="1021550"/>
-          <a:ext cx="757237" cy="119063"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent5">
-            <a:lumMod val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:miter lim="800000"/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>761981</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>42851</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>757218</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>161914</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="28" name="Rectangle 1"/>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="2750325" y="1412070"/>
-          <a:ext cx="757237" cy="119063"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent5">
-            <a:lumMod val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:miter lim="800000"/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>757238</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>166688</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="29" name="Rectangle 1"/>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="3512345" y="1797844"/>
-          <a:ext cx="757237" cy="119063"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent5">
-            <a:lumMod val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:miter lim="800000"/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>759620</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>45245</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>4763</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>164308</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="30" name="Rectangle 1"/>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="5033964" y="1795464"/>
-          <a:ext cx="757237" cy="119063"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent5">
-            <a:lumMod val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:miter lim="800000"/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>8</xdr:row>
       <xdr:rowOff>47624</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>757237</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
       <xdr:rowOff>166687</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -7773,28 +6881,28 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>9528</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>45238</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>11907</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>45242</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>4765</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>164301</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>154781</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="32" name="Rectangle 1"/>
+        <xdr:cNvPr id="45" name="Rectangle 1"/>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="5795966" y="2557457"/>
-          <a:ext cx="757237" cy="119063"/>
+          <a:off x="3167063" y="5117305"/>
+          <a:ext cx="9906000" cy="109539"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7818,28 +6926,28 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>7134</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>42852</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>4752</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>47620</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>178594</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>583405</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>166687</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="33" name="Rectangle 1"/>
+        <xdr:cNvPr id="46" name="Rectangle 1"/>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="6555572" y="2936071"/>
-          <a:ext cx="1135866" cy="135742"/>
+          <a:off x="1993096" y="797714"/>
+          <a:ext cx="1162059" cy="119067"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7863,28 +6971,71 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>32</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>47616</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2383</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>223833</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>392906</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>166687</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>345281</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="34" name="Rectangle 1"/>
+        <xdr:cNvPr id="47" name="Rectangle 1"/>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="6548470" y="3321835"/>
-          <a:ext cx="1154874" cy="119071"/>
+          <a:off x="1990727" y="973927"/>
+          <a:ext cx="1164429" cy="121448"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent5"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>7121</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>59518</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>2359</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>178581</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="48" name="Rectangle 1"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2578871" y="1202518"/>
+          <a:ext cx="578644" cy="119063"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7908,313 +7059,34 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>378614</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>45246</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>4741</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>235730</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>754823</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>169077</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>581003</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>354793</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="36" name="Rectangle 1"/>
+        <xdr:cNvPr id="49" name="Rectangle 1"/>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="7689052" y="3700465"/>
-          <a:ext cx="376209" cy="123831"/>
+          <a:off x="2576491" y="1378730"/>
+          <a:ext cx="576262" cy="119063"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:schemeClr val="accent5">
-            <a:lumMod val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:miter lim="800000"/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:endParaRPr lang="fr-FR"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>45242</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>4762</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>154781</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="37" name="Rectangle 1"/>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="8072438" y="4081461"/>
-          <a:ext cx="742949" cy="109539"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent5">
-            <a:lumMod val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:miter lim="800000"/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>45242</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>164305</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="38" name="Rectangle 1"/>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="8072438" y="4081461"/>
-          <a:ext cx="757237" cy="119063"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent5">
-            <a:lumMod val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:miter lim="800000"/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>42860</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>4762</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>161923</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="40" name="Rectangle 1"/>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="8820150" y="4841079"/>
-          <a:ext cx="757237" cy="119063"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent5">
-            <a:lumMod val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:miter lim="800000"/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>733425</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>52386</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>752475</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>171449</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="41" name="Rectangle 1"/>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="8805863" y="4469605"/>
-          <a:ext cx="757237" cy="119063"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent5">
-            <a:lumMod val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:miter lim="800000"/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>11907</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>45255</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>759620</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>164318</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="42" name="Rectangle 1"/>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="9584532" y="5224474"/>
-          <a:ext cx="1509713" cy="119063"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent5">
-            <a:lumMod val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:miter lim="800000"/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>757237</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>52385</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>752474</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>171448</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="43" name="Rectangle 1"/>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="11091862" y="5612604"/>
-          <a:ext cx="757237" cy="119063"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent5">
-            <a:lumMod val="50000"/>
-          </a:schemeClr>
+          <a:schemeClr val="accent5"/>
         </a:solidFill>
         <a:ln w="9525">
           <a:solidFill>
@@ -8231,72 +7103,27 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>4763</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>47627</xdr:rowOff>
+      <xdr:colOff>7107</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>47604</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>166690</xdr:rowOff>
+      <xdr:colOff>2346</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>166667</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="44" name="Rectangle 1"/>
+        <xdr:cNvPr id="50" name="Rectangle 1"/>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="3517107" y="5988846"/>
-          <a:ext cx="757237" cy="119063"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent5">
-            <a:lumMod val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:miter lim="800000"/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>2382</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>45242</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>738188</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>154781</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="45" name="Rectangle 1"/>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="5038726" y="5986461"/>
-          <a:ext cx="6796087" cy="109539"/>
+          <a:off x="3221795" y="1583510"/>
+          <a:ext cx="578645" cy="119063"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -10496,169 +9323,195 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:W17"/>
+  <dimension ref="A1:W13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" customWidth="1"/>
+    <col min="1" max="1" width="12.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18.42578125" customWidth="1"/>
-    <col min="7" max="7" width="11.28515625" customWidth="1"/>
-    <col min="11" max="11" width="11.140625" customWidth="1"/>
-    <col min="13" max="19" width="11.42578125" customWidth="1"/>
+    <col min="3" max="21" width="8.7109375" customWidth="1"/>
     <col min="23" max="23" width="28.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="R1" s="26"/>
+    <row r="1" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:23" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="23"/>
+      <c r="C2" s="28">
+        <v>42023</v>
+      </c>
+      <c r="D2" s="28">
+        <v>42030</v>
+      </c>
+      <c r="E2" s="8">
+        <v>42033</v>
+      </c>
+      <c r="F2" s="8">
+        <v>42037</v>
+      </c>
+      <c r="G2" s="8">
+        <v>42040</v>
+      </c>
+      <c r="H2" s="8">
+        <v>42041</v>
+      </c>
+      <c r="I2" s="8">
+        <v>42044</v>
+      </c>
+      <c r="J2" s="8">
+        <v>42058</v>
+      </c>
+      <c r="K2" s="8">
+        <v>42059</v>
+      </c>
+      <c r="L2" s="8">
+        <v>42062</v>
+      </c>
+      <c r="M2" s="8">
+        <v>42065</v>
+      </c>
+      <c r="N2" s="8">
+        <v>42069</v>
+      </c>
+      <c r="O2" s="8">
+        <v>42044</v>
+      </c>
+      <c r="P2" s="8">
+        <v>42073</v>
+      </c>
+      <c r="Q2" s="8">
+        <v>42076</v>
+      </c>
+      <c r="R2" s="8">
+        <v>42080</v>
+      </c>
+      <c r="S2" s="8">
+        <v>42083</v>
+      </c>
+      <c r="T2" s="8">
+        <v>42087</v>
+      </c>
+      <c r="U2" s="9">
+        <v>42090</v>
+      </c>
     </row>
-    <row r="2" spans="2:23" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="23"/>
-      <c r="C2" s="8">
-        <v>42033</v>
-      </c>
-      <c r="D2" s="8">
-        <v>42037</v>
-      </c>
-      <c r="E2" s="8">
-        <v>42040</v>
-      </c>
-      <c r="F2" s="8">
-        <v>42041</v>
-      </c>
-      <c r="G2" s="8">
-        <v>42044</v>
-      </c>
-      <c r="H2" s="8">
-        <v>42058</v>
-      </c>
-      <c r="I2" s="8">
-        <v>42062</v>
-      </c>
-      <c r="J2" s="8">
-        <v>42065</v>
-      </c>
-      <c r="K2" s="8">
-        <v>42069</v>
-      </c>
-      <c r="L2" s="8">
-        <v>42072</v>
-      </c>
-      <c r="M2" s="8">
-        <v>42073</v>
-      </c>
-      <c r="N2" s="8">
-        <v>42076</v>
-      </c>
-      <c r="O2" s="8">
-        <v>42079</v>
-      </c>
-      <c r="P2" s="8">
-        <v>42070</v>
-      </c>
-      <c r="Q2" s="8">
-        <v>42083</v>
-      </c>
-      <c r="R2" s="8">
-        <v>42086</v>
-      </c>
-      <c r="S2" s="8">
-        <v>42087</v>
-      </c>
-      <c r="T2" s="8">
-        <v>42090</v>
-      </c>
-      <c r="U2" s="9">
-        <v>42093</v>
+    <row r="3" spans="1:23" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="24"/>
+      <c r="C3" s="27" t="s">
+        <v>55</v>
+      </c>
+      <c r="D3" s="27" t="s">
+        <v>55</v>
+      </c>
+      <c r="E3" s="29" t="s">
+        <v>55</v>
+      </c>
+      <c r="F3" s="29" t="s">
+        <v>55</v>
+      </c>
+      <c r="G3" s="29" t="s">
+        <v>55</v>
+      </c>
+      <c r="H3" s="29" t="s">
+        <v>55</v>
+      </c>
+      <c r="I3" s="29" t="s">
+        <v>55</v>
+      </c>
+      <c r="J3" s="33" t="s">
+        <v>56</v>
+      </c>
+      <c r="K3" s="29" t="s">
+        <v>55</v>
+      </c>
+      <c r="L3" s="29" t="s">
+        <v>55</v>
+      </c>
+      <c r="M3" s="33" t="s">
+        <v>56</v>
+      </c>
+      <c r="N3" s="33" t="s">
+        <v>56</v>
+      </c>
+      <c r="O3" s="33" t="s">
+        <v>56</v>
+      </c>
+      <c r="P3" s="29" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q3" s="33" t="s">
+        <v>56</v>
+      </c>
+      <c r="R3" s="33" t="s">
+        <v>56</v>
+      </c>
+      <c r="S3" s="33" t="s">
+        <v>56</v>
+      </c>
+      <c r="T3" s="29" t="s">
+        <v>55</v>
+      </c>
+      <c r="U3" s="34" t="s">
+        <v>56</v>
       </c>
     </row>
-    <row r="3" spans="2:23" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="5" t="s">
+    <row r="4" spans="1:23" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="C4" s="30"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="31"/>
+      <c r="F4" s="31"/>
+      <c r="G4" s="31"/>
+      <c r="H4" s="31"/>
+      <c r="I4" s="31"/>
+      <c r="J4" s="31"/>
+      <c r="K4" s="31"/>
+      <c r="L4" s="31"/>
+      <c r="M4" s="31"/>
+      <c r="N4" s="31"/>
+      <c r="O4" s="31"/>
+      <c r="P4" s="31"/>
+      <c r="Q4" s="31"/>
+      <c r="R4" s="31"/>
+      <c r="S4" s="31"/>
+      <c r="T4" s="31"/>
+      <c r="U4" s="32"/>
+    </row>
+    <row r="5" spans="1:23" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C5" s="30"/>
+      <c r="D5" s="30"/>
+      <c r="E5" s="31"/>
+      <c r="F5" s="31"/>
+      <c r="G5" s="31"/>
+      <c r="H5" s="31"/>
+      <c r="I5" s="31"/>
+      <c r="J5" s="31"/>
+      <c r="K5" s="31"/>
+      <c r="L5" s="31"/>
+      <c r="M5" s="31"/>
+      <c r="N5" s="31"/>
+      <c r="O5" s="31"/>
+      <c r="P5" s="31"/>
+      <c r="Q5" s="31"/>
+      <c r="R5" s="31"/>
+      <c r="S5" s="31"/>
+      <c r="T5" s="31"/>
+      <c r="U5" s="32"/>
+    </row>
+    <row r="6" spans="1:23" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
-      <c r="M3" s="1"/>
-      <c r="N3" s="1"/>
-      <c r="O3" s="1"/>
-      <c r="P3" s="1"/>
-      <c r="Q3" s="1"/>
-      <c r="R3" s="1"/>
-      <c r="S3" s="1"/>
-      <c r="T3" s="1"/>
-      <c r="U3" s="2"/>
-    </row>
-    <row r="4" spans="2:23" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
-      <c r="M4" s="1"/>
-      <c r="N4" s="1"/>
-      <c r="O4" s="1"/>
-      <c r="P4" s="1"/>
-      <c r="Q4" s="1"/>
-      <c r="R4" s="1"/>
-      <c r="S4" s="1"/>
-      <c r="T4" s="1"/>
-      <c r="U4" s="2"/>
-      <c r="W4" s="12" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" spans="2:23" ht="30" x14ac:dyDescent="0.25">
-      <c r="B5" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
-      <c r="L5" s="1"/>
-      <c r="M5" s="1"/>
-      <c r="N5" s="1"/>
-      <c r="O5" s="1"/>
-      <c r="P5" s="1"/>
-      <c r="Q5" s="1"/>
-      <c r="R5" s="1"/>
-      <c r="S5" s="1"/>
-      <c r="T5" s="1"/>
-      <c r="U5" s="2"/>
-      <c r="W5" s="13" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
+      <c r="C6" s="25"/>
+      <c r="D6" s="25"/>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
@@ -10676,13 +9529,19 @@
       <c r="S6" s="1"/>
       <c r="T6" s="1"/>
       <c r="U6" s="2"/>
+      <c r="W6" s="12" t="s">
+        <v>18</v>
+      </c>
     </row>
-    <row r="7" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:23" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="35" t="s">
+        <v>61</v>
+      </c>
       <c r="B7" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
+        <v>51</v>
+      </c>
+      <c r="C7" s="25"/>
+      <c r="D7" s="25"/>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
@@ -10700,13 +9559,19 @@
       <c r="S7" s="1"/>
       <c r="T7" s="1"/>
       <c r="U7" s="2"/>
+      <c r="W7" s="13" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="8" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:23" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>62</v>
+      </c>
       <c r="B8" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
+        <v>52</v>
+      </c>
+      <c r="C8" s="25"/>
+      <c r="D8" s="25"/>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
@@ -10725,10 +9590,15 @@
       <c r="T8" s="1"/>
       <c r="U8" s="2"/>
     </row>
-    <row r="9" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B9" s="5"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
+    <row r="9" spans="1:23" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>63</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="C9" s="25"/>
+      <c r="D9" s="25"/>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
@@ -10747,10 +9617,15 @@
       <c r="T9" s="1"/>
       <c r="U9" s="2"/>
     </row>
-    <row r="10" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B10" s="5"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
+    <row r="10" spans="1:23" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>64</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="C10" s="25"/>
+      <c r="D10" s="25"/>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
@@ -10769,10 +9644,12 @@
       <c r="T10" s="1"/>
       <c r="U10" s="2"/>
     </row>
-    <row r="11" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B11" s="5"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
+    <row r="11" spans="1:23" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="C11" s="25"/>
+      <c r="D11" s="25"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
@@ -10791,10 +9668,12 @@
       <c r="T11" s="1"/>
       <c r="U11" s="2"/>
     </row>
-    <row r="12" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="5"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
+    <row r="12" spans="1:23" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="C12" s="25"/>
+      <c r="D12" s="25"/>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
@@ -10813,119 +9692,34 @@
       <c r="T12" s="1"/>
       <c r="U12" s="2"/>
     </row>
-    <row r="13" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="5"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
-      <c r="L13" s="1"/>
-      <c r="M13" s="1"/>
-      <c r="N13" s="1"/>
-      <c r="O13" s="1"/>
-      <c r="P13" s="1"/>
-      <c r="Q13" s="1"/>
-      <c r="R13" s="1"/>
-      <c r="S13" s="1"/>
-      <c r="T13" s="1"/>
-      <c r="U13" s="2"/>
-    </row>
-    <row r="14" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="5"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
-      <c r="J14" s="1"/>
-      <c r="K14" s="1"/>
-      <c r="L14" s="1"/>
-      <c r="M14" s="1"/>
-      <c r="N14" s="1"/>
-      <c r="O14" s="1"/>
-      <c r="P14" s="1"/>
-      <c r="Q14" s="1"/>
-      <c r="R14" s="1"/>
-      <c r="S14" s="1"/>
-      <c r="T14" s="1"/>
-      <c r="U14" s="2"/>
-    </row>
-    <row r="15" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="5"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
-      <c r="J15" s="1"/>
-      <c r="K15" s="1"/>
-      <c r="L15" s="1"/>
-      <c r="M15" s="1"/>
-      <c r="N15" s="1"/>
-      <c r="O15" s="1"/>
-      <c r="P15" s="1"/>
-      <c r="Q15" s="1"/>
-      <c r="R15" s="1"/>
-      <c r="S15" s="1"/>
-      <c r="T15" s="1"/>
-      <c r="U15" s="2"/>
-    </row>
-    <row r="16" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="14"/>
-      <c r="C16" s="15"/>
-      <c r="D16" s="15"/>
-      <c r="E16" s="15"/>
-      <c r="F16" s="15"/>
-      <c r="G16" s="15"/>
-      <c r="H16" s="15"/>
-      <c r="I16" s="15"/>
-      <c r="J16" s="15"/>
-      <c r="K16" s="15"/>
-      <c r="L16" s="15"/>
-      <c r="M16" s="15"/>
-      <c r="N16" s="15"/>
-      <c r="O16" s="15"/>
-      <c r="P16" s="15"/>
-      <c r="Q16" s="15"/>
-      <c r="R16" s="15"/>
-      <c r="S16" s="15"/>
-      <c r="T16" s="15"/>
-      <c r="U16" s="16"/>
-    </row>
-    <row r="17" spans="2:21" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="6" t="s">
+    <row r="13" spans="1:23" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
-      <c r="I17" s="3"/>
-      <c r="J17" s="3"/>
-      <c r="K17" s="3"/>
-      <c r="L17" s="3"/>
-      <c r="M17" s="3"/>
-      <c r="N17" s="3"/>
-      <c r="O17" s="3"/>
-      <c r="P17" s="3"/>
-      <c r="Q17" s="3"/>
-      <c r="R17" s="3"/>
-      <c r="S17" s="3"/>
-      <c r="T17" s="3"/>
-      <c r="U17" s="4"/>
+      <c r="C13" s="26"/>
+      <c r="D13" s="26"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="3"/>
+      <c r="L13" s="3"/>
+      <c r="M13" s="3"/>
+      <c r="N13" s="3"/>
+      <c r="O13" s="3"/>
+      <c r="P13" s="3"/>
+      <c r="Q13" s="3"/>
+      <c r="R13" s="3"/>
+      <c r="S13" s="3"/>
+      <c r="T13" s="3"/>
+      <c r="U13" s="4"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B2:B3"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -10936,7 +9730,7 @@
   <dimension ref="B1:Q18"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="Q14" sqref="Q14"/>
+      <selection activeCell="K1" sqref="K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10951,7 +9745,7 @@
   <sheetData>
     <row r="1" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B2" s="24"/>
+      <c r="B2" s="23"/>
       <c r="C2" s="7" t="s">
         <v>0</v>
       </c>
@@ -10993,7 +9787,7 @@
       </c>
     </row>
     <row r="3" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B3" s="25"/>
+      <c r="B3" s="24"/>
       <c r="C3" s="10" t="s">
         <v>1</v>
       </c>
@@ -11323,8 +10117,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:D17"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11514,16 +10308,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/Rapport/Planning GANTT & Pert.xlsx
+++ b/Rapport/Planning GANTT & Pert.xlsx
@@ -8,15 +8,16 @@
   </bookViews>
   <sheets>
     <sheet name="Gantt" sheetId="1" r:id="rId1"/>
-    <sheet name="Gantt (2)" sheetId="4" r:id="rId2"/>
-    <sheet name="Pert" sheetId="2" r:id="rId3"/>
+    <sheet name="Pert" sheetId="5" r:id="rId2"/>
+    <sheet name="Gantt (2)" sheetId="4" r:id="rId3"/>
+    <sheet name="Pert (2)" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="77">
   <si>
     <t>14/01</t>
   </si>
@@ -168,21 +169,6 @@
     <t>H, J, M</t>
   </si>
   <si>
-    <t>Collecter les données</t>
-  </si>
-  <si>
-    <t>Extraire les données</t>
-  </si>
-  <si>
-    <t>Administer les données</t>
-  </si>
-  <si>
-    <t>Exploiter les données</t>
-  </si>
-  <si>
-    <t>Valoriser les données</t>
-  </si>
-  <si>
     <t>2h</t>
   </si>
   <si>
@@ -201,16 +187,67 @@
     <t>Peuplement de la BD</t>
   </si>
   <si>
-    <t>partie tétra avec marie</t>
+    <t>pour tetra et l'analyse sem</t>
   </si>
   <si>
-    <t xml:space="preserve">bd </t>
+    <t>Nettoyage des données</t>
   </si>
   <si>
-    <t>croisement</t>
+    <t>partie tétra avec marie + cassie et marine avec blog</t>
   </si>
   <si>
-    <t>analyses</t>
+    <t>Contrôle qualité</t>
+  </si>
+  <si>
+    <t>Croisements sous Tétralogie</t>
+  </si>
+  <si>
+    <t>Analyses statistiques</t>
+  </si>
+  <si>
+    <t>Requêtage</t>
+  </si>
+  <si>
+    <t>Collecte des données</t>
+  </si>
+  <si>
+    <t>Définition du schéma de la BD</t>
+  </si>
+  <si>
+    <t>A - Préparation du BE</t>
+  </si>
+  <si>
+    <t>B - Choix du sujet</t>
+  </si>
+  <si>
+    <t>C - Collecte des données</t>
+  </si>
+  <si>
+    <t>D - Nettoyage des données</t>
+  </si>
+  <si>
+    <t>E - Croisements sous Tétralogie</t>
+  </si>
+  <si>
+    <t>F - Analyses statistiques</t>
+  </si>
+  <si>
+    <t>G - Définition du schéma de la BD</t>
+  </si>
+  <si>
+    <t>H - Peuplement de la BD</t>
+  </si>
+  <si>
+    <t>I - Requêtage</t>
+  </si>
+  <si>
+    <t>J - Analyse semantique</t>
+  </si>
+  <si>
+    <t>K - Contrôle qualité</t>
+  </si>
+  <si>
+    <t>L - Rédaction rapport</t>
   </si>
 </sst>
 </file>
@@ -265,7 +302,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="21">
+  <borders count="22">
     <border>
       <left/>
       <right/>
@@ -549,11 +586,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
@@ -607,12 +655,6 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -646,6 +688,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1407,7 +1467,2313 @@
 </dgm:colorsDef>
 </file>
 
+<file path=xl/diagrams/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<dgm:colorsDef xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" uniqueId="urn:microsoft.com/office/officeart/2005/8/colors/accent1_2">
+  <dgm:title val=""/>
+  <dgm:desc val=""/>
+  <dgm:catLst>
+    <dgm:cat type="accent1" pri="11200"/>
+  </dgm:catLst>
+  <dgm:styleLbl name="node0">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="alignNode1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="node1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="lnNode1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="vennNode1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:alpha val="50000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="node2">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="node3">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="node4">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgImgPlace1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="50000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="alignImgPlace1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="50000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="bgImgPlace1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="50000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="sibTrans2D1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="60000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="60000"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgSibTrans2D1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="60000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="60000"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="bgSibTrans2D1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="60000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="60000"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="sibTrans1D1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="tx1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="callout">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="50000"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="tx1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="asst0">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="asst1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="asst2">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="asst3">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="asst4">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans2D1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="60000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="60000"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans2D2">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans2D3">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans2D4">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans1D1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:shade val="60000"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="tx1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans1D2">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:shade val="60000"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="tx1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans1D3">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:shade val="80000"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="tx1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans1D4">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:shade val="80000"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="tx1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAcc1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1">
+        <a:alpha val="90000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="conFgAcc1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1">
+        <a:alpha val="90000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="alignAcc1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1">
+        <a:alpha val="90000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="trAlignAcc1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1">
+        <a:alpha val="40000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="bgAcc1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1">
+        <a:alpha val="90000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="solidFgAcc1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="solidAlignAcc1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="solidBgAcc1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAccFollowNode1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:alpha val="90000"/>
+        <a:tint val="40000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:alpha val="90000"/>
+        <a:tint val="40000"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="alignAccFollowNode1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:alpha val="90000"/>
+        <a:tint val="40000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:alpha val="90000"/>
+        <a:tint val="40000"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="bgAccFollowNode1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:alpha val="90000"/>
+        <a:tint val="40000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:alpha val="90000"/>
+        <a:tint val="40000"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAcc0">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1">
+        <a:alpha val="90000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAcc2">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1">
+        <a:alpha val="90000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAcc3">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1">
+        <a:alpha val="90000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAcc4">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1">
+        <a:alpha val="90000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="bgShp">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="40000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="dkBgShp">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:shade val="80000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="trBgShp">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="50000"/>
+        <a:alpha val="40000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgShp">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="60000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="revTx">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1">
+        <a:alpha val="0"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="dk1">
+        <a:alpha val="0"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="tx1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+</dgm:colorsDef>
+</file>
+
 <file path=xl/diagrams/data1.xml><?xml version="1.0" encoding="utf-8"?>
+<dgm:dataModel xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <dgm:ptLst>
+    <dgm:pt modelId="{B1A1975D-F6EE-4F6A-B0B9-A84F8E4437BA}" type="doc">
+      <dgm:prSet loTypeId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2" loCatId="hierarchy" qsTypeId="urn:microsoft.com/office/officeart/2005/8/quickstyle/simple1" qsCatId="simple" csTypeId="urn:microsoft.com/office/officeart/2005/8/colors/accent1_2" csCatId="accent1" phldr="1"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{3B511561-540D-4D60-9012-6B5F66859F0A}">
+      <dgm:prSet phldrT="[Texte]"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="fr-FR"/>
+            <a:t>Méthode rédaction rapport</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="fr-FR"/>
+          </a:br>
+          <a:r>
+            <a:rPr lang="fr-FR"/>
+            <a:t>Début : 14-janv</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="fr-FR"/>
+          </a:br>
+          <a:r>
+            <a:rPr lang="fr-FR"/>
+            <a:t>Durée : 3</a:t>
+          </a:r>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{F1CD7E7E-13BB-49DA-9082-073E3A45CC40}" type="parTrans" cxnId="{210227EB-D0A5-4A0A-A175-10AA1EA2C8CC}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{4002C46B-D68C-41CA-BFBF-E13B957324C3}" type="sibTrans" cxnId="{210227EB-D0A5-4A0A-A175-10AA1EA2C8CC}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{776D0BEC-47DE-4E6B-ADE1-7FE8B40E2E09}">
+      <dgm:prSet phldrT="[Texte]"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="fr-FR"/>
+            <a:t>Choix du projet</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="fr-FR"/>
+          </a:br>
+          <a:r>
+            <a:rPr lang="fr-FR"/>
+            <a:t>Début : 14-janv</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="fr-FR"/>
+          </a:br>
+          <a:r>
+            <a:rPr lang="fr-FR"/>
+            <a:t>Durée : 1</a:t>
+          </a:r>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{995A764C-4ED4-4A5F-8606-353224B7E370}" type="parTrans" cxnId="{75A107A9-AA02-44AC-B77E-EFEB95AD7BCF}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{A47A1ADE-BF3F-45B8-B55F-6650BDBA2419}" type="sibTrans" cxnId="{75A107A9-AA02-44AC-B77E-EFEB95AD7BCF}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{134B85BD-3620-48EB-B95B-84B5AF5ACB30}">
+      <dgm:prSet phldrT="[Texte]"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="fr-FR"/>
+            <a:t>Réalisation schéma E/A</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="fr-FR"/>
+          </a:br>
+          <a:r>
+            <a:rPr lang="fr-FR"/>
+            <a:t>Début : 16-janv</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="fr-FR"/>
+          </a:br>
+          <a:r>
+            <a:rPr lang="fr-FR"/>
+            <a:t>Durée : 2</a:t>
+          </a:r>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{8EA272DD-2EBF-4EBB-943D-F53C51381DBA}" type="parTrans" cxnId="{706E6AB8-A775-4638-9FCE-80B033F10578}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{53B6C978-0244-4642-8D2B-14C7DF6A4737}" type="sibTrans" cxnId="{706E6AB8-A775-4638-9FCE-80B033F10578}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{18EBF0C1-73A1-45C7-ACD3-AF8F69B97D3D}">
+      <dgm:prSet phldrT="[Texte]"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="fr-FR"/>
+            <a:t>Rédaction rapport</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="fr-FR"/>
+          </a:br>
+          <a:r>
+            <a:rPr lang="fr-FR"/>
+            <a:t>Début : 21-janv</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="fr-FR"/>
+          </a:br>
+          <a:r>
+            <a:rPr lang="fr-FR"/>
+            <a:t>Durée : 20</a:t>
+          </a:r>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{44B93ED7-AF09-4CBA-8E44-6247F41AE32A}" type="parTrans" cxnId="{4209FBA6-3DDD-4030-AA7E-E478E38301EA}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{CFE38D19-4777-45E4-8E4E-EF735968B8A6}" type="sibTrans" cxnId="{4209FBA6-3DDD-4030-AA7E-E478E38301EA}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{B77806E4-5E41-4C6F-9442-D215D10C42E9}">
+      <dgm:prSet phldrT="[Texte]"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="fr-FR"/>
+            <a:t>MCD</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="fr-FR"/>
+          </a:br>
+          <a:r>
+            <a:rPr lang="fr-FR"/>
+            <a:t>Début : 21-janv</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="fr-FR"/>
+          </a:br>
+          <a:r>
+            <a:rPr lang="fr-FR"/>
+            <a:t>Durée : 4</a:t>
+          </a:r>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{607ACB9E-75FC-4DC8-82BC-D6E6C1DD98DE}" type="parTrans" cxnId="{979651A1-4273-4E7E-B0DC-BE96918F65C6}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{EBF090A8-395D-4D3F-8705-5004916A400A}" type="sibTrans" cxnId="{979651A1-4273-4E7E-B0DC-BE96918F65C6}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{F602673A-62DA-438F-8B6A-1C63CCD94BDF}">
+      <dgm:prSet phldrT="[Texte]"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="fr-FR"/>
+            <a:t>MLD</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="fr-FR"/>
+          </a:br>
+          <a:r>
+            <a:rPr lang="fr-FR"/>
+            <a:t>Début : 30-janv</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="fr-FR"/>
+          </a:br>
+          <a:r>
+            <a:rPr lang="fr-FR"/>
+            <a:t>Durée : 2</a:t>
+          </a:r>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{89C294FD-9D1C-44AE-B4CC-FCB48A67C5E0}" type="parTrans" cxnId="{EDB60A21-3DEA-42A4-BA0B-556B0A075C6D}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{7E337E4E-122A-4555-B7F7-736DF73CDA71}" type="sibTrans" cxnId="{EDB60A21-3DEA-42A4-BA0B-556B0A075C6D}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{29A52D27-0C72-4B86-BDF6-8986BD27A627}">
+      <dgm:prSet phldrT="[Texte]"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="fr-FR"/>
+            <a:t>MPD</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="fr-FR"/>
+          </a:br>
+          <a:r>
+            <a:rPr lang="fr-FR"/>
+            <a:t>Début : 30-janv</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="fr-FR"/>
+          </a:br>
+          <a:r>
+            <a:rPr lang="fr-FR"/>
+            <a:t>Durée : 2</a:t>
+          </a:r>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{7F1F80C3-D6A0-4E23-854A-0AED3AFE2338}" type="parTrans" cxnId="{D09D1F45-4F3A-428B-BBFC-5F0232C389B1}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{3493E9FE-BE95-4960-8C53-3186FB69163E}" type="sibTrans" cxnId="{D09D1F45-4F3A-428B-BBFC-5F0232C389B1}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{0EC93BCF-0FDE-4D2D-B892-4C27022C6195}">
+      <dgm:prSet phldrT="[Texte]"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="fr-FR"/>
+            <a:t>Insertion des contraintes</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="fr-FR"/>
+          </a:br>
+          <a:r>
+            <a:rPr lang="fr-FR"/>
+            <a:t>Début : 4-fev</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="fr-FR"/>
+          </a:br>
+          <a:r>
+            <a:rPr lang="fr-FR"/>
+            <a:t>Durée : 3</a:t>
+          </a:r>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{A5AB1326-B9F0-4261-891C-6A2BF0703C26}" type="parTrans" cxnId="{4CB1984C-411D-4A2B-9932-80F12CBE0726}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{B5AAA810-4CCB-4B6D-A409-A8C566D49893}" type="sibTrans" cxnId="{4CB1984C-411D-4A2B-9932-80F12CBE0726}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{5C7ED44A-FEB0-4B16-A584-289B57C52515}">
+      <dgm:prSet phldrT="[Texte]"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="fr-FR"/>
+            <a:t>Insertion des données</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="fr-FR"/>
+          </a:br>
+          <a:r>
+            <a:rPr lang="fr-FR"/>
+            <a:t>Début : 4-fev</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="fr-FR"/>
+          </a:br>
+          <a:r>
+            <a:rPr lang="fr-FR"/>
+            <a:t>Durée : 3</a:t>
+          </a:r>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{4161B1B0-37CD-4FB0-A1E4-AB964CEC2D39}" type="parTrans" cxnId="{E42A3688-26CD-4998-80F4-9A06406AEF19}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{A4C950D2-930A-4B17-AADC-A3640D06B40B}" type="sibTrans" cxnId="{E42A3688-26CD-4998-80F4-9A06406AEF19}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{0FB7C147-80F0-40B6-BCF8-0234456366D0}">
+      <dgm:prSet phldrT="[Texte]"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="fr-FR"/>
+            <a:t>MCT</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="fr-FR"/>
+          </a:br>
+          <a:r>
+            <a:rPr lang="fr-FR"/>
+            <a:t>Début : 13-fev</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="fr-FR"/>
+          </a:br>
+          <a:r>
+            <a:rPr lang="fr-FR"/>
+            <a:t>Durée : 2</a:t>
+          </a:r>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{854B2F6E-D979-4631-B36A-EB876E169C2A}" type="parTrans" cxnId="{0F231AB9-72F0-497F-98D0-7054457EF219}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{4CC8D2B3-8806-459D-B3F2-24B8007022DF}" type="sibTrans" cxnId="{0F231AB9-72F0-497F-98D0-7054457EF219}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{768E160C-522E-4B89-92F7-715AE39400B5}">
+      <dgm:prSet phldrT="[Texte]"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="fr-FR"/>
+            <a:t>MLT</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="fr-FR"/>
+          </a:br>
+          <a:r>
+            <a:rPr lang="fr-FR"/>
+            <a:t>Début : 13-fev</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="fr-FR"/>
+          </a:br>
+          <a:r>
+            <a:rPr lang="fr-FR"/>
+            <a:t>Durée : 2</a:t>
+          </a:r>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{B5ADEC2E-D8CE-4A44-A59A-3B7CE8BCCAE9}" type="parTrans" cxnId="{5D04529A-368C-45C0-B804-702F36411C68}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{BD8B459B-6D9D-4C6B-820C-8BC1D5EC314F}" type="sibTrans" cxnId="{5D04529A-368C-45C0-B804-702F36411C68}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{5531E4BA-D402-4979-B681-83057DF50F65}">
+      <dgm:prSet phldrT="[Texte]"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="fr-FR"/>
+            <a:t>MPT</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="fr-FR"/>
+          </a:br>
+          <a:r>
+            <a:rPr lang="fr-FR"/>
+            <a:t>Début : 14-fev</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="fr-FR"/>
+          </a:br>
+          <a:r>
+            <a:rPr lang="fr-FR"/>
+            <a:t>Durée : 4</a:t>
+          </a:r>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{1411A133-F459-42AB-BA96-8F674F6348E3}" type="parTrans" cxnId="{89950D4B-7EF0-4A35-9363-F16B00BC1EDC}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{973CCD46-1E97-4FCE-9041-80E4FCF61825}" type="sibTrans" cxnId="{89950D4B-7EF0-4A35-9363-F16B00BC1EDC}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{0E8035DB-CE5A-4BB8-ADBD-069EA0ED8D0B}">
+      <dgm:prSet phldrT="[Texte]"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="fr-FR"/>
+            <a:t>Réflexion procédures</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="fr-FR"/>
+          </a:br>
+          <a:r>
+            <a:rPr lang="fr-FR"/>
+            <a:t>Début : 6-fev</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="fr-FR"/>
+          </a:br>
+          <a:r>
+            <a:rPr lang="fr-FR"/>
+            <a:t>Durée : 1</a:t>
+          </a:r>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{566746CA-63BA-4C9B-A67F-EC9E3216E435}" type="parTrans" cxnId="{D8A3EB9B-E261-442E-AB63-DCE8C7730BB4}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{28A9D3BA-DCAD-4EAB-A1F9-2374F6109AC8}" type="sibTrans" cxnId="{D8A3EB9B-E261-442E-AB63-DCE8C7730BB4}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{3BE0EFDE-10D7-4D14-8542-603E1813DCBE}">
+      <dgm:prSet phldrT="[Texte]"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="fr-FR"/>
+            <a:t>Coder procédures</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="fr-FR"/>
+          </a:br>
+          <a:r>
+            <a:rPr lang="fr-FR"/>
+            <a:t>Début : 11-fev</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="fr-FR"/>
+          </a:br>
+          <a:r>
+            <a:rPr lang="fr-FR"/>
+            <a:t>Durée : 2</a:t>
+          </a:r>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{CE019054-3759-40ED-8E26-F0A61CEC1E08}" type="parTrans" cxnId="{28287890-02EE-403C-B101-2AAF106B28BF}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{F0EC321D-12B2-4E4C-8D3C-EE75D20E209F}" type="sibTrans" cxnId="{28287890-02EE-403C-B101-2AAF106B28BF}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{9E3D3546-BC47-44E3-9D79-E89C9B97704A}">
+      <dgm:prSet phldrT="[Texte]"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="fr-FR"/>
+            <a:t>Application Web</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="fr-FR"/>
+          </a:br>
+          <a:r>
+            <a:rPr lang="fr-FR"/>
+            <a:t>Début : 25-fev</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="fr-FR"/>
+          </a:br>
+          <a:r>
+            <a:rPr lang="fr-FR"/>
+            <a:t>Durée : 2</a:t>
+          </a:r>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{DCFD2C52-897E-4D3F-AACC-77B80F8F0AD2}" type="parTrans" cxnId="{26AA50AD-5C6E-4EB9-A870-02F900FD946F}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{7F41C496-6DE7-4D2D-9C0B-99188FE5D559}" type="sibTrans" cxnId="{26AA50AD-5C6E-4EB9-A870-02F900FD946F}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{D37BF067-FA63-40C9-A96C-A1D0BF8BA2EB}" type="pres">
+      <dgm:prSet presAssocID="{B1A1975D-F6EE-4F6A-B0B9-A84F8E4437BA}" presName="diagram" presStyleCnt="0">
+        <dgm:presLayoutVars>
+          <dgm:chPref val="1"/>
+          <dgm:dir/>
+          <dgm:animOne val="branch"/>
+          <dgm:animLvl val="lvl"/>
+          <dgm:resizeHandles val="exact"/>
+        </dgm:presLayoutVars>
+      </dgm:prSet>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{83E255F8-7C36-4FB5-8AE6-6E4CF3F0B89D}" type="pres">
+      <dgm:prSet presAssocID="{3B511561-540D-4D60-9012-6B5F66859F0A}" presName="root1" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{80BA89DD-5EE5-44E2-A103-0E52084D4145}" type="pres">
+      <dgm:prSet presAssocID="{3B511561-540D-4D60-9012-6B5F66859F0A}" presName="LevelOneTextNode" presStyleLbl="node0" presStyleIdx="0" presStyleCnt="2">
+        <dgm:presLayoutVars>
+          <dgm:chPref val="3"/>
+        </dgm:presLayoutVars>
+      </dgm:prSet>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{B681C0BC-5BEF-4DB8-BF50-3B081297BB68}" type="pres">
+      <dgm:prSet presAssocID="{3B511561-540D-4D60-9012-6B5F66859F0A}" presName="level2hierChild" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{D6A70E11-5D25-443F-9694-1E5BFDA45171}" type="pres">
+      <dgm:prSet presAssocID="{44B93ED7-AF09-4CBA-8E44-6247F41AE32A}" presName="conn2-1" presStyleLbl="parChTrans1D2" presStyleIdx="0" presStyleCnt="2"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{1A256CA1-F071-49F1-963C-5372D2A06396}" type="pres">
+      <dgm:prSet presAssocID="{44B93ED7-AF09-4CBA-8E44-6247F41AE32A}" presName="connTx" presStyleLbl="parChTrans1D2" presStyleIdx="0" presStyleCnt="2"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{D0AC582E-B979-4B25-80A7-E099CC928076}" type="pres">
+      <dgm:prSet presAssocID="{18EBF0C1-73A1-45C7-ACD3-AF8F69B97D3D}" presName="root2" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{1507B06C-5D98-48B4-BA05-490C7F303DEC}" type="pres">
+      <dgm:prSet presAssocID="{18EBF0C1-73A1-45C7-ACD3-AF8F69B97D3D}" presName="LevelTwoTextNode" presStyleLbl="node2" presStyleIdx="0" presStyleCnt="2" custLinFactNeighborX="88527">
+        <dgm:presLayoutVars>
+          <dgm:chPref val="3"/>
+        </dgm:presLayoutVars>
+      </dgm:prSet>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{F7871F3F-76A0-44A8-BB5D-1E5EEBC9ADD0}" type="pres">
+      <dgm:prSet presAssocID="{18EBF0C1-73A1-45C7-ACD3-AF8F69B97D3D}" presName="level3hierChild" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{4DE61D29-26D4-4F75-A52E-8A64166CB565}" type="pres">
+      <dgm:prSet presAssocID="{776D0BEC-47DE-4E6B-ADE1-7FE8B40E2E09}" presName="root1" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{523484C6-151E-4DF4-9AFB-1C19DFC859D2}" type="pres">
+      <dgm:prSet presAssocID="{776D0BEC-47DE-4E6B-ADE1-7FE8B40E2E09}" presName="LevelOneTextNode" presStyleLbl="node0" presStyleIdx="1" presStyleCnt="2">
+        <dgm:presLayoutVars>
+          <dgm:chPref val="3"/>
+        </dgm:presLayoutVars>
+      </dgm:prSet>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{E02B2B7C-181F-4B3A-AE58-6B63EF7EF768}" type="pres">
+      <dgm:prSet presAssocID="{776D0BEC-47DE-4E6B-ADE1-7FE8B40E2E09}" presName="level2hierChild" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{9FFDCA42-22D2-4A50-BF6F-47A44B7D806D}" type="pres">
+      <dgm:prSet presAssocID="{8EA272DD-2EBF-4EBB-943D-F53C51381DBA}" presName="conn2-1" presStyleLbl="parChTrans1D2" presStyleIdx="1" presStyleCnt="2"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{6B88C7CC-3ACA-4195-BB54-4D493131B3BA}" type="pres">
+      <dgm:prSet presAssocID="{8EA272DD-2EBF-4EBB-943D-F53C51381DBA}" presName="connTx" presStyleLbl="parChTrans1D2" presStyleIdx="1" presStyleCnt="2"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{5D5F162A-F0F6-48B1-BCF1-F84A13273B56}" type="pres">
+      <dgm:prSet presAssocID="{134B85BD-3620-48EB-B95B-84B5AF5ACB30}" presName="root2" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{3255085A-EA4C-464E-A12B-E265EAA6B927}" type="pres">
+      <dgm:prSet presAssocID="{134B85BD-3620-48EB-B95B-84B5AF5ACB30}" presName="LevelTwoTextNode" presStyleLbl="node2" presStyleIdx="1" presStyleCnt="2">
+        <dgm:presLayoutVars>
+          <dgm:chPref val="3"/>
+        </dgm:presLayoutVars>
+      </dgm:prSet>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{59169C00-3143-4A51-918E-F58600B214B4}" type="pres">
+      <dgm:prSet presAssocID="{134B85BD-3620-48EB-B95B-84B5AF5ACB30}" presName="level3hierChild" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{DA8672FA-9F10-4934-92F4-9B0E03E504AC}" type="pres">
+      <dgm:prSet presAssocID="{607ACB9E-75FC-4DC8-82BC-D6E6C1DD98DE}" presName="conn2-1" presStyleLbl="parChTrans1D3" presStyleIdx="0" presStyleCnt="1"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{EDFDE935-BFCE-4424-AB93-AA691740BB95}" type="pres">
+      <dgm:prSet presAssocID="{607ACB9E-75FC-4DC8-82BC-D6E6C1DD98DE}" presName="connTx" presStyleLbl="parChTrans1D3" presStyleIdx="0" presStyleCnt="1"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{15217014-ADB2-4539-A3A9-8C048104CD65}" type="pres">
+      <dgm:prSet presAssocID="{B77806E4-5E41-4C6F-9442-D215D10C42E9}" presName="root2" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{A98771A6-1065-426D-AB17-244C08354536}" type="pres">
+      <dgm:prSet presAssocID="{B77806E4-5E41-4C6F-9442-D215D10C42E9}" presName="LevelTwoTextNode" presStyleLbl="node3" presStyleIdx="0" presStyleCnt="1">
+        <dgm:presLayoutVars>
+          <dgm:chPref val="3"/>
+        </dgm:presLayoutVars>
+      </dgm:prSet>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{11FFBD11-4BEC-4B06-928B-8BD352E6B1F2}" type="pres">
+      <dgm:prSet presAssocID="{B77806E4-5E41-4C6F-9442-D215D10C42E9}" presName="level3hierChild" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{DB1231E3-4B3A-43E1-A60A-E362EA672D1D}" type="pres">
+      <dgm:prSet presAssocID="{89C294FD-9D1C-44AE-B4CC-FCB48A67C5E0}" presName="conn2-1" presStyleLbl="parChTrans1D4" presStyleIdx="0" presStyleCnt="10"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{25A47253-B623-4CF0-9753-CA45DCB14863}" type="pres">
+      <dgm:prSet presAssocID="{89C294FD-9D1C-44AE-B4CC-FCB48A67C5E0}" presName="connTx" presStyleLbl="parChTrans1D4" presStyleIdx="0" presStyleCnt="10"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{1F149E23-F7C7-47CE-9A69-1F93DFC3E2B8}" type="pres">
+      <dgm:prSet presAssocID="{F602673A-62DA-438F-8B6A-1C63CCD94BDF}" presName="root2" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{63F1F962-4995-42B6-8526-0700788F3DE4}" type="pres">
+      <dgm:prSet presAssocID="{F602673A-62DA-438F-8B6A-1C63CCD94BDF}" presName="LevelTwoTextNode" presStyleLbl="node4" presStyleIdx="0" presStyleCnt="10" custLinFactNeighborX="1213" custLinFactNeighborY="-48508">
+        <dgm:presLayoutVars>
+          <dgm:chPref val="3"/>
+        </dgm:presLayoutVars>
+      </dgm:prSet>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{CB6FC48F-9DE9-490E-BEAC-13B47672CB2E}" type="pres">
+      <dgm:prSet presAssocID="{F602673A-62DA-438F-8B6A-1C63CCD94BDF}" presName="level3hierChild" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{F5F7CDA6-8199-4DE5-9A64-4B4E2B197201}" type="pres">
+      <dgm:prSet presAssocID="{7F1F80C3-D6A0-4E23-854A-0AED3AFE2338}" presName="conn2-1" presStyleLbl="parChTrans1D4" presStyleIdx="1" presStyleCnt="10"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{7700C75A-0051-40BB-899E-A0D0389B2DCF}" type="pres">
+      <dgm:prSet presAssocID="{7F1F80C3-D6A0-4E23-854A-0AED3AFE2338}" presName="connTx" presStyleLbl="parChTrans1D4" presStyleIdx="1" presStyleCnt="10"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{D3D9F1B4-7206-4DD1-8DAF-67450FECBA9F}" type="pres">
+      <dgm:prSet presAssocID="{29A52D27-0C72-4B86-BDF6-8986BD27A627}" presName="root2" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{FF14BC1C-2E81-4272-8241-CAA23949FBF6}" type="pres">
+      <dgm:prSet presAssocID="{29A52D27-0C72-4B86-BDF6-8986BD27A627}" presName="LevelTwoTextNode" presStyleLbl="node4" presStyleIdx="1" presStyleCnt="10" custLinFactNeighborX="-1213" custLinFactNeighborY="-48508">
+        <dgm:presLayoutVars>
+          <dgm:chPref val="3"/>
+        </dgm:presLayoutVars>
+      </dgm:prSet>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{86018107-B67A-4E7A-9BC4-4E56347FDC2B}" type="pres">
+      <dgm:prSet presAssocID="{29A52D27-0C72-4B86-BDF6-8986BD27A627}" presName="level3hierChild" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{C7C260BE-DF41-4A4D-B509-3ACB58286E66}" type="pres">
+      <dgm:prSet presAssocID="{A5AB1326-B9F0-4261-891C-6A2BF0703C26}" presName="conn2-1" presStyleLbl="parChTrans1D4" presStyleIdx="2" presStyleCnt="10"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{013CDCB5-C919-4FE7-A85C-50BF29CDF56C}" type="pres">
+      <dgm:prSet presAssocID="{A5AB1326-B9F0-4261-891C-6A2BF0703C26}" presName="connTx" presStyleLbl="parChTrans1D4" presStyleIdx="2" presStyleCnt="10"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{FC811636-E055-4494-B81E-E746C1609497}" type="pres">
+      <dgm:prSet presAssocID="{0EC93BCF-0FDE-4D2D-B892-4C27022C6195}" presName="root2" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{3AB530FA-7695-47C2-849F-535E3DAEAE59}" type="pres">
+      <dgm:prSet presAssocID="{0EC93BCF-0FDE-4D2D-B892-4C27022C6195}" presName="LevelTwoTextNode" presStyleLbl="node4" presStyleIdx="2" presStyleCnt="10" custLinFactY="-6700" custLinFactNeighborY="-100000">
+        <dgm:presLayoutVars>
+          <dgm:chPref val="3"/>
+        </dgm:presLayoutVars>
+      </dgm:prSet>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{423B3D2E-2063-4D8F-9822-9F52BBA36011}" type="pres">
+      <dgm:prSet presAssocID="{0EC93BCF-0FDE-4D2D-B892-4C27022C6195}" presName="level3hierChild" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{3FE4E342-1165-4DB5-8749-DBAD9C170248}" type="pres">
+      <dgm:prSet presAssocID="{4161B1B0-37CD-4FB0-A1E4-AB964CEC2D39}" presName="conn2-1" presStyleLbl="parChTrans1D4" presStyleIdx="3" presStyleCnt="10"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{BAE746DB-C2F5-4E82-9CBF-90193F3B2091}" type="pres">
+      <dgm:prSet presAssocID="{4161B1B0-37CD-4FB0-A1E4-AB964CEC2D39}" presName="connTx" presStyleLbl="parChTrans1D4" presStyleIdx="3" presStyleCnt="10"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{5561D9C3-5EB9-4C41-AB15-00C8B5AACA58}" type="pres">
+      <dgm:prSet presAssocID="{5C7ED44A-FEB0-4B16-A584-289B57C52515}" presName="root2" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{1751D3B1-A05B-4672-8F9C-80DA03C9B1D9}" type="pres">
+      <dgm:prSet presAssocID="{5C7ED44A-FEB0-4B16-A584-289B57C52515}" presName="LevelTwoTextNode" presStyleLbl="node4" presStyleIdx="3" presStyleCnt="10" custLinFactY="-6700" custLinFactNeighborY="-100000">
+        <dgm:presLayoutVars>
+          <dgm:chPref val="3"/>
+        </dgm:presLayoutVars>
+      </dgm:prSet>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{044916E5-8D4A-4349-BDB5-F78877F72797}" type="pres">
+      <dgm:prSet presAssocID="{5C7ED44A-FEB0-4B16-A584-289B57C52515}" presName="level3hierChild" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{A1B406B5-8911-4317-AC33-8C3B0CE5E3B9}" type="pres">
+      <dgm:prSet presAssocID="{854B2F6E-D979-4631-B36A-EB876E169C2A}" presName="conn2-1" presStyleLbl="parChTrans1D4" presStyleIdx="4" presStyleCnt="10"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{09F54421-16F3-4413-ABD8-386DC3A85404}" type="pres">
+      <dgm:prSet presAssocID="{854B2F6E-D979-4631-B36A-EB876E169C2A}" presName="connTx" presStyleLbl="parChTrans1D4" presStyleIdx="4" presStyleCnt="10"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{5601AD14-1281-4268-B1B0-55DEB42FC01D}" type="pres">
+      <dgm:prSet presAssocID="{0FB7C147-80F0-40B6-BCF8-0234456366D0}" presName="root2" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{6C40B4ED-7BA3-445A-869A-110831F15CAE}" type="pres">
+      <dgm:prSet presAssocID="{0FB7C147-80F0-40B6-BCF8-0234456366D0}" presName="LevelTwoTextNode" presStyleLbl="node4" presStyleIdx="4" presStyleCnt="10">
+        <dgm:presLayoutVars>
+          <dgm:chPref val="3"/>
+        </dgm:presLayoutVars>
+      </dgm:prSet>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{709B0276-1C4E-4540-A922-9510D33F129C}" type="pres">
+      <dgm:prSet presAssocID="{0FB7C147-80F0-40B6-BCF8-0234456366D0}" presName="level3hierChild" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{494CF6FE-2591-4415-857B-F52A0F60951A}" type="pres">
+      <dgm:prSet presAssocID="{B5ADEC2E-D8CE-4A44-A59A-3B7CE8BCCAE9}" presName="conn2-1" presStyleLbl="parChTrans1D4" presStyleIdx="5" presStyleCnt="10"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{4B8C6EFF-8551-43DF-81E3-B6C157C2AC20}" type="pres">
+      <dgm:prSet presAssocID="{B5ADEC2E-D8CE-4A44-A59A-3B7CE8BCCAE9}" presName="connTx" presStyleLbl="parChTrans1D4" presStyleIdx="5" presStyleCnt="10"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{3CB0C17B-3361-415E-A8A2-1078EB680775}" type="pres">
+      <dgm:prSet presAssocID="{768E160C-522E-4B89-92F7-715AE39400B5}" presName="root2" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{89789CDF-20CF-4BBB-BBDF-CA9AFF58C425}" type="pres">
+      <dgm:prSet presAssocID="{768E160C-522E-4B89-92F7-715AE39400B5}" presName="LevelTwoTextNode" presStyleLbl="node4" presStyleIdx="5" presStyleCnt="10">
+        <dgm:presLayoutVars>
+          <dgm:chPref val="3"/>
+        </dgm:presLayoutVars>
+      </dgm:prSet>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{5E1F8CD0-9508-4427-A520-DB6B13D23D01}" type="pres">
+      <dgm:prSet presAssocID="{768E160C-522E-4B89-92F7-715AE39400B5}" presName="level3hierChild" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{B5F3DAA7-BFDA-4D58-B990-89950E30F0A8}" type="pres">
+      <dgm:prSet presAssocID="{1411A133-F459-42AB-BA96-8F674F6348E3}" presName="conn2-1" presStyleLbl="parChTrans1D4" presStyleIdx="6" presStyleCnt="10"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{F18C07D0-924F-4EE6-826F-DEBEEE5D176D}" type="pres">
+      <dgm:prSet presAssocID="{1411A133-F459-42AB-BA96-8F674F6348E3}" presName="connTx" presStyleLbl="parChTrans1D4" presStyleIdx="6" presStyleCnt="10"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{1310692E-32FD-4631-8F10-301E4F71A2E8}" type="pres">
+      <dgm:prSet presAssocID="{5531E4BA-D402-4979-B681-83057DF50F65}" presName="root2" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{28AE2CA2-293C-45A3-86F4-307002D9B041}" type="pres">
+      <dgm:prSet presAssocID="{5531E4BA-D402-4979-B681-83057DF50F65}" presName="LevelTwoTextNode" presStyleLbl="node4" presStyleIdx="6" presStyleCnt="10">
+        <dgm:presLayoutVars>
+          <dgm:chPref val="3"/>
+        </dgm:presLayoutVars>
+      </dgm:prSet>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{91FF2BED-5CE7-4ADA-AEBD-5A6C714B82F1}" type="pres">
+      <dgm:prSet presAssocID="{5531E4BA-D402-4979-B681-83057DF50F65}" presName="level3hierChild" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{304959C4-0F8C-455C-915A-8C9D5D24FD99}" type="pres">
+      <dgm:prSet presAssocID="{DCFD2C52-897E-4D3F-AACC-77B80F8F0AD2}" presName="conn2-1" presStyleLbl="parChTrans1D4" presStyleIdx="7" presStyleCnt="10"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{4281BE41-C03A-4CFC-B1DA-BE515A1BDD7F}" type="pres">
+      <dgm:prSet presAssocID="{DCFD2C52-897E-4D3F-AACC-77B80F8F0AD2}" presName="connTx" presStyleLbl="parChTrans1D4" presStyleIdx="7" presStyleCnt="10"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{F8A165AA-1874-4360-B912-DA7F7616F9E7}" type="pres">
+      <dgm:prSet presAssocID="{9E3D3546-BC47-44E3-9D79-E89C9B97704A}" presName="root2" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{DB95C6B5-8400-472C-A9DC-CF2D409C7D4A}" type="pres">
+      <dgm:prSet presAssocID="{9E3D3546-BC47-44E3-9D79-E89C9B97704A}" presName="LevelTwoTextNode" presStyleLbl="node4" presStyleIdx="7" presStyleCnt="10">
+        <dgm:presLayoutVars>
+          <dgm:chPref val="3"/>
+        </dgm:presLayoutVars>
+      </dgm:prSet>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{9EB93D29-D462-41A1-9125-6632C6D18110}" type="pres">
+      <dgm:prSet presAssocID="{9E3D3546-BC47-44E3-9D79-E89C9B97704A}" presName="level3hierChild" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{81ABC927-9622-442A-B8AD-72EB91444905}" type="pres">
+      <dgm:prSet presAssocID="{566746CA-63BA-4C9B-A67F-EC9E3216E435}" presName="conn2-1" presStyleLbl="parChTrans1D4" presStyleIdx="8" presStyleCnt="10"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{CA44C3B6-CE4C-47B0-9AFB-82116F5BD2A6}" type="pres">
+      <dgm:prSet presAssocID="{566746CA-63BA-4C9B-A67F-EC9E3216E435}" presName="connTx" presStyleLbl="parChTrans1D4" presStyleIdx="8" presStyleCnt="10"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{FE0029FB-20F3-4429-AF3C-5578CBD77AB5}" type="pres">
+      <dgm:prSet presAssocID="{0E8035DB-CE5A-4BB8-ADBD-069EA0ED8D0B}" presName="root2" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{BFE8769B-98C6-47D5-97B8-2BB5A4A4702B}" type="pres">
+      <dgm:prSet presAssocID="{0E8035DB-CE5A-4BB8-ADBD-069EA0ED8D0B}" presName="LevelTwoTextNode" presStyleLbl="node4" presStyleIdx="8" presStyleCnt="10" custLinFactNeighborY="75188">
+        <dgm:presLayoutVars>
+          <dgm:chPref val="3"/>
+        </dgm:presLayoutVars>
+      </dgm:prSet>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{BF2A2A67-D5FE-407C-8143-271B06C62922}" type="pres">
+      <dgm:prSet presAssocID="{0E8035DB-CE5A-4BB8-ADBD-069EA0ED8D0B}" presName="level3hierChild" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{5613D056-022B-4A6C-A781-177D3B75F647}" type="pres">
+      <dgm:prSet presAssocID="{CE019054-3759-40ED-8E26-F0A61CEC1E08}" presName="conn2-1" presStyleLbl="parChTrans1D4" presStyleIdx="9" presStyleCnt="10"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{B157A907-D573-427B-97FC-769E6E03B167}" type="pres">
+      <dgm:prSet presAssocID="{CE019054-3759-40ED-8E26-F0A61CEC1E08}" presName="connTx" presStyleLbl="parChTrans1D4" presStyleIdx="9" presStyleCnt="10"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{9BEF525F-A846-48BB-9D84-B936A84A7605}" type="pres">
+      <dgm:prSet presAssocID="{3BE0EFDE-10D7-4D14-8542-603E1813DCBE}" presName="root2" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{D107B190-A7EE-4946-86FF-406679EC3865}" type="pres">
+      <dgm:prSet presAssocID="{3BE0EFDE-10D7-4D14-8542-603E1813DCBE}" presName="LevelTwoTextNode" presStyleLbl="node4" presStyleIdx="9" presStyleCnt="10" custLinFactNeighborX="2425" custLinFactNeighborY="75188">
+        <dgm:presLayoutVars>
+          <dgm:chPref val="3"/>
+        </dgm:presLayoutVars>
+      </dgm:prSet>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{C81ACA67-D4E3-4C6B-A90E-59CD8E8B39BA}" type="pres">
+      <dgm:prSet presAssocID="{3BE0EFDE-10D7-4D14-8542-603E1813DCBE}" presName="level3hierChild" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+  </dgm:ptLst>
+  <dgm:cxnLst>
+    <dgm:cxn modelId="{C1AAB255-65E3-49AC-B106-C7A120FB8735}" type="presOf" srcId="{0FB7C147-80F0-40B6-BCF8-0234456366D0}" destId="{6C40B4ED-7BA3-445A-869A-110831F15CAE}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{312928E3-5BA2-40A8-B997-F10AE5D0F5A3}" type="presOf" srcId="{854B2F6E-D979-4631-B36A-EB876E169C2A}" destId="{09F54421-16F3-4413-ABD8-386DC3A85404}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{89950D4B-7EF0-4A35-9363-F16B00BC1EDC}" srcId="{768E160C-522E-4B89-92F7-715AE39400B5}" destId="{5531E4BA-D402-4979-B681-83057DF50F65}" srcOrd="0" destOrd="0" parTransId="{1411A133-F459-42AB-BA96-8F674F6348E3}" sibTransId="{973CCD46-1E97-4FCE-9041-80E4FCF61825}"/>
+    <dgm:cxn modelId="{B0A7FEE0-9602-473E-8B2B-C4EE4A0B0D3F}" type="presOf" srcId="{5531E4BA-D402-4979-B681-83057DF50F65}" destId="{28AE2CA2-293C-45A3-86F4-307002D9B041}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{E42A3688-26CD-4998-80F4-9A06406AEF19}" srcId="{0EC93BCF-0FDE-4D2D-B892-4C27022C6195}" destId="{5C7ED44A-FEB0-4B16-A584-289B57C52515}" srcOrd="0" destOrd="0" parTransId="{4161B1B0-37CD-4FB0-A1E4-AB964CEC2D39}" sibTransId="{A4C950D2-930A-4B17-AADC-A3640D06B40B}"/>
+    <dgm:cxn modelId="{A87B18AD-D9C9-425A-B165-5687804E3D91}" type="presOf" srcId="{607ACB9E-75FC-4DC8-82BC-D6E6C1DD98DE}" destId="{EDFDE935-BFCE-4424-AB93-AA691740BB95}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{566CFE44-0D2A-466D-8FD0-F55FCA5C923F}" type="presOf" srcId="{7F1F80C3-D6A0-4E23-854A-0AED3AFE2338}" destId="{F5F7CDA6-8199-4DE5-9A64-4B4E2B197201}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{ABF4B8AE-9BF3-4942-84F9-0C221DE42682}" type="presOf" srcId="{89C294FD-9D1C-44AE-B4CC-FCB48A67C5E0}" destId="{DB1231E3-4B3A-43E1-A60A-E362EA672D1D}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{706E6AB8-A775-4638-9FCE-80B033F10578}" srcId="{776D0BEC-47DE-4E6B-ADE1-7FE8B40E2E09}" destId="{134B85BD-3620-48EB-B95B-84B5AF5ACB30}" srcOrd="0" destOrd="0" parTransId="{8EA272DD-2EBF-4EBB-943D-F53C51381DBA}" sibTransId="{53B6C978-0244-4642-8D2B-14C7DF6A4737}"/>
+    <dgm:cxn modelId="{6948D17F-2163-4D93-8D44-C62B345056A0}" type="presOf" srcId="{44B93ED7-AF09-4CBA-8E44-6247F41AE32A}" destId="{D6A70E11-5D25-443F-9694-1E5BFDA45171}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{EDB60A21-3DEA-42A4-BA0B-556B0A075C6D}" srcId="{B77806E4-5E41-4C6F-9442-D215D10C42E9}" destId="{F602673A-62DA-438F-8B6A-1C63CCD94BDF}" srcOrd="0" destOrd="0" parTransId="{89C294FD-9D1C-44AE-B4CC-FCB48A67C5E0}" sibTransId="{7E337E4E-122A-4555-B7F7-736DF73CDA71}"/>
+    <dgm:cxn modelId="{4CB1984C-411D-4A2B-9932-80F12CBE0726}" srcId="{29A52D27-0C72-4B86-BDF6-8986BD27A627}" destId="{0EC93BCF-0FDE-4D2D-B892-4C27022C6195}" srcOrd="0" destOrd="0" parTransId="{A5AB1326-B9F0-4261-891C-6A2BF0703C26}" sibTransId="{B5AAA810-4CCB-4B6D-A409-A8C566D49893}"/>
+    <dgm:cxn modelId="{C3FD3619-4515-4D7C-BF63-1AC1C3CE63C3}" type="presOf" srcId="{8EA272DD-2EBF-4EBB-943D-F53C51381DBA}" destId="{6B88C7CC-3ACA-4195-BB54-4D493131B3BA}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{4A6DC297-BD50-48FA-8166-18562263F25C}" type="presOf" srcId="{607ACB9E-75FC-4DC8-82BC-D6E6C1DD98DE}" destId="{DA8672FA-9F10-4934-92F4-9B0E03E504AC}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{D11E984C-431D-4E38-8635-FF48A01A4DCD}" type="presOf" srcId="{4161B1B0-37CD-4FB0-A1E4-AB964CEC2D39}" destId="{3FE4E342-1165-4DB5-8749-DBAD9C170248}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{2BD0B6B1-8E8B-40FA-B6E8-8B9EAD30A1AB}" type="presOf" srcId="{566746CA-63BA-4C9B-A67F-EC9E3216E435}" destId="{81ABC927-9622-442A-B8AD-72EB91444905}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{A1FA5596-814A-448B-B3AB-0F69CF3B7FBE}" type="presOf" srcId="{18EBF0C1-73A1-45C7-ACD3-AF8F69B97D3D}" destId="{1507B06C-5D98-48B4-BA05-490C7F303DEC}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{3C4AA3EA-F898-4B66-A9E7-1864B1BCF2E4}" type="presOf" srcId="{854B2F6E-D979-4631-B36A-EB876E169C2A}" destId="{A1B406B5-8911-4317-AC33-8C3B0CE5E3B9}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{B36C02EC-9ADF-4E2A-862C-91A02423CC96}" type="presOf" srcId="{89C294FD-9D1C-44AE-B4CC-FCB48A67C5E0}" destId="{25A47253-B623-4CF0-9753-CA45DCB14863}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{510FED6C-2204-4C82-925B-3E29338C2714}" type="presOf" srcId="{B77806E4-5E41-4C6F-9442-D215D10C42E9}" destId="{A98771A6-1065-426D-AB17-244C08354536}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{D09D1F45-4F3A-428B-BBFC-5F0232C389B1}" srcId="{F602673A-62DA-438F-8B6A-1C63CCD94BDF}" destId="{29A52D27-0C72-4B86-BDF6-8986BD27A627}" srcOrd="0" destOrd="0" parTransId="{7F1F80C3-D6A0-4E23-854A-0AED3AFE2338}" sibTransId="{3493E9FE-BE95-4960-8C53-3186FB69163E}"/>
+    <dgm:cxn modelId="{979651A1-4273-4E7E-B0DC-BE96918F65C6}" srcId="{134B85BD-3620-48EB-B95B-84B5AF5ACB30}" destId="{B77806E4-5E41-4C6F-9442-D215D10C42E9}" srcOrd="0" destOrd="0" parTransId="{607ACB9E-75FC-4DC8-82BC-D6E6C1DD98DE}" sibTransId="{EBF090A8-395D-4D3F-8705-5004916A400A}"/>
+    <dgm:cxn modelId="{55C278B3-0AD4-45BA-A0B7-7AABAE6943D5}" type="presOf" srcId="{566746CA-63BA-4C9B-A67F-EC9E3216E435}" destId="{CA44C3B6-CE4C-47B0-9AFB-82116F5BD2A6}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{1B6038FB-1047-45C1-AB5F-5EA24F03E059}" type="presOf" srcId="{A5AB1326-B9F0-4261-891C-6A2BF0703C26}" destId="{013CDCB5-C919-4FE7-A85C-50BF29CDF56C}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{5D04529A-368C-45C0-B804-702F36411C68}" srcId="{0FB7C147-80F0-40B6-BCF8-0234456366D0}" destId="{768E160C-522E-4B89-92F7-715AE39400B5}" srcOrd="0" destOrd="0" parTransId="{B5ADEC2E-D8CE-4A44-A59A-3B7CE8BCCAE9}" sibTransId="{BD8B459B-6D9D-4C6B-820C-8BC1D5EC314F}"/>
+    <dgm:cxn modelId="{35FCCA8C-6E0B-4B74-BB9C-8CB22085B9B2}" type="presOf" srcId="{5C7ED44A-FEB0-4B16-A584-289B57C52515}" destId="{1751D3B1-A05B-4672-8F9C-80DA03C9B1D9}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{D4C71C4B-EC75-49D9-8C7C-ED3BE8506B82}" type="presOf" srcId="{1411A133-F459-42AB-BA96-8F674F6348E3}" destId="{F18C07D0-924F-4EE6-826F-DEBEEE5D176D}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{24FAD884-5624-481B-8A74-79942BC2FEA7}" type="presOf" srcId="{9E3D3546-BC47-44E3-9D79-E89C9B97704A}" destId="{DB95C6B5-8400-472C-A9DC-CF2D409C7D4A}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{D4F6C9F3-8DE9-4DDB-B996-4FFDDC08B720}" type="presOf" srcId="{CE019054-3759-40ED-8E26-F0A61CEC1E08}" destId="{5613D056-022B-4A6C-A781-177D3B75F647}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{60DB5E6B-5F74-49FB-8616-59A2A40312E4}" type="presOf" srcId="{134B85BD-3620-48EB-B95B-84B5AF5ACB30}" destId="{3255085A-EA4C-464E-A12B-E265EAA6B927}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{7407B198-4A00-48FD-84F7-6C7C5CD3FB5A}" type="presOf" srcId="{0EC93BCF-0FDE-4D2D-B892-4C27022C6195}" destId="{3AB530FA-7695-47C2-849F-535E3DAEAE59}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{A79A2128-9CDE-495A-B9BD-A8CFDD2A1774}" type="presOf" srcId="{DCFD2C52-897E-4D3F-AACC-77B80F8F0AD2}" destId="{304959C4-0F8C-455C-915A-8C9D5D24FD99}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{475F03D8-79E4-495D-B29E-35CABDCE9103}" type="presOf" srcId="{768E160C-522E-4B89-92F7-715AE39400B5}" destId="{89789CDF-20CF-4BBB-BBDF-CA9AFF58C425}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{BE8F3C66-0397-4E5B-9A95-E63E14B83748}" type="presOf" srcId="{B5ADEC2E-D8CE-4A44-A59A-3B7CE8BCCAE9}" destId="{4B8C6EFF-8551-43DF-81E3-B6C157C2AC20}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{4209FBA6-3DDD-4030-AA7E-E478E38301EA}" srcId="{3B511561-540D-4D60-9012-6B5F66859F0A}" destId="{18EBF0C1-73A1-45C7-ACD3-AF8F69B97D3D}" srcOrd="0" destOrd="0" parTransId="{44B93ED7-AF09-4CBA-8E44-6247F41AE32A}" sibTransId="{CFE38D19-4777-45E4-8E4E-EF735968B8A6}"/>
+    <dgm:cxn modelId="{71C1613B-0841-4D23-9154-FFE286901B7B}" type="presOf" srcId="{0E8035DB-CE5A-4BB8-ADBD-069EA0ED8D0B}" destId="{BFE8769B-98C6-47D5-97B8-2BB5A4A4702B}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{28287890-02EE-403C-B101-2AAF106B28BF}" srcId="{0E8035DB-CE5A-4BB8-ADBD-069EA0ED8D0B}" destId="{3BE0EFDE-10D7-4D14-8542-603E1813DCBE}" srcOrd="0" destOrd="0" parTransId="{CE019054-3759-40ED-8E26-F0A61CEC1E08}" sibTransId="{F0EC321D-12B2-4E4C-8D3C-EE75D20E209F}"/>
+    <dgm:cxn modelId="{6D10DED6-69F2-484C-8EE9-85BE7CB2237F}" type="presOf" srcId="{A5AB1326-B9F0-4261-891C-6A2BF0703C26}" destId="{C7C260BE-DF41-4A4D-B509-3ACB58286E66}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{210227EB-D0A5-4A0A-A175-10AA1EA2C8CC}" srcId="{B1A1975D-F6EE-4F6A-B0B9-A84F8E4437BA}" destId="{3B511561-540D-4D60-9012-6B5F66859F0A}" srcOrd="0" destOrd="0" parTransId="{F1CD7E7E-13BB-49DA-9082-073E3A45CC40}" sibTransId="{4002C46B-D68C-41CA-BFBF-E13B957324C3}"/>
+    <dgm:cxn modelId="{0F231AB9-72F0-497F-98D0-7054457EF219}" srcId="{29A52D27-0C72-4B86-BDF6-8986BD27A627}" destId="{0FB7C147-80F0-40B6-BCF8-0234456366D0}" srcOrd="1" destOrd="0" parTransId="{854B2F6E-D979-4631-B36A-EB876E169C2A}" sibTransId="{4CC8D2B3-8806-459D-B3F2-24B8007022DF}"/>
+    <dgm:cxn modelId="{4A89E3A6-8F81-4AC3-9748-32A83BA8E7F0}" type="presOf" srcId="{B1A1975D-F6EE-4F6A-B0B9-A84F8E4437BA}" destId="{D37BF067-FA63-40C9-A96C-A1D0BF8BA2EB}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{2625C793-695D-4D60-9F39-478B954D36F3}" type="presOf" srcId="{7F1F80C3-D6A0-4E23-854A-0AED3AFE2338}" destId="{7700C75A-0051-40BB-899E-A0D0389B2DCF}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{BCF2FC7E-42F3-4922-842B-85D062856188}" type="presOf" srcId="{3BE0EFDE-10D7-4D14-8542-603E1813DCBE}" destId="{D107B190-A7EE-4946-86FF-406679EC3865}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{3C0F2CE5-F5EA-4B23-A704-93D9A0D0C5D4}" type="presOf" srcId="{B5ADEC2E-D8CE-4A44-A59A-3B7CE8BCCAE9}" destId="{494CF6FE-2591-4415-857B-F52A0F60951A}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{6E4677AF-AE2E-439F-8DFB-C0945FDB1EE3}" type="presOf" srcId="{8EA272DD-2EBF-4EBB-943D-F53C51381DBA}" destId="{9FFDCA42-22D2-4A50-BF6F-47A44B7D806D}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{75A107A9-AA02-44AC-B77E-EFEB95AD7BCF}" srcId="{B1A1975D-F6EE-4F6A-B0B9-A84F8E4437BA}" destId="{776D0BEC-47DE-4E6B-ADE1-7FE8B40E2E09}" srcOrd="1" destOrd="0" parTransId="{995A764C-4ED4-4A5F-8606-353224B7E370}" sibTransId="{A47A1ADE-BF3F-45B8-B55F-6650BDBA2419}"/>
+    <dgm:cxn modelId="{B6233A8C-3693-42FE-8C21-6BE05EB43163}" type="presOf" srcId="{776D0BEC-47DE-4E6B-ADE1-7FE8B40E2E09}" destId="{523484C6-151E-4DF4-9AFB-1C19DFC859D2}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{5AD26A1E-880A-4735-A1CE-E24216B7BB7E}" type="presOf" srcId="{F602673A-62DA-438F-8B6A-1C63CCD94BDF}" destId="{63F1F962-4995-42B6-8526-0700788F3DE4}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{26AA50AD-5C6E-4EB9-A870-02F900FD946F}" srcId="{5531E4BA-D402-4979-B681-83057DF50F65}" destId="{9E3D3546-BC47-44E3-9D79-E89C9B97704A}" srcOrd="0" destOrd="0" parTransId="{DCFD2C52-897E-4D3F-AACC-77B80F8F0AD2}" sibTransId="{7F41C496-6DE7-4D2D-9C0B-99188FE5D559}"/>
+    <dgm:cxn modelId="{82EEAD5F-B713-4125-8EA8-56DD9B8E5D55}" type="presOf" srcId="{1411A133-F459-42AB-BA96-8F674F6348E3}" destId="{B5F3DAA7-BFDA-4D58-B990-89950E30F0A8}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{23743614-0D31-4D20-B7A8-CDA984ACCE4C}" type="presOf" srcId="{CE019054-3759-40ED-8E26-F0A61CEC1E08}" destId="{B157A907-D573-427B-97FC-769E6E03B167}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{1A68E0F1-86EC-4481-8A9B-C2C986734974}" type="presOf" srcId="{DCFD2C52-897E-4D3F-AACC-77B80F8F0AD2}" destId="{4281BE41-C03A-4CFC-B1DA-BE515A1BDD7F}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{C2DECB9A-2015-472A-9219-7A0657EAB874}" type="presOf" srcId="{3B511561-540D-4D60-9012-6B5F66859F0A}" destId="{80BA89DD-5EE5-44E2-A103-0E52084D4145}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{833BC888-BE05-489C-80F9-89627779B178}" type="presOf" srcId="{44B93ED7-AF09-4CBA-8E44-6247F41AE32A}" destId="{1A256CA1-F071-49F1-963C-5372D2A06396}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{55147E83-528C-44E6-A11B-CB5DE98CE715}" type="presOf" srcId="{4161B1B0-37CD-4FB0-A1E4-AB964CEC2D39}" destId="{BAE746DB-C2F5-4E82-9CBF-90193F3B2091}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{1A926BE1-627E-4296-9AB1-DE8AB3ED360F}" type="presOf" srcId="{29A52D27-0C72-4B86-BDF6-8986BD27A627}" destId="{FF14BC1C-2E81-4272-8241-CAA23949FBF6}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{D8A3EB9B-E261-442E-AB63-DCE8C7730BB4}" srcId="{B77806E4-5E41-4C6F-9442-D215D10C42E9}" destId="{0E8035DB-CE5A-4BB8-ADBD-069EA0ED8D0B}" srcOrd="1" destOrd="0" parTransId="{566746CA-63BA-4C9B-A67F-EC9E3216E435}" sibTransId="{28A9D3BA-DCAD-4EAB-A1F9-2374F6109AC8}"/>
+    <dgm:cxn modelId="{C16079E3-9B4F-4F71-B8B6-C56A2E6CF0F2}" type="presParOf" srcId="{D37BF067-FA63-40C9-A96C-A1D0BF8BA2EB}" destId="{83E255F8-7C36-4FB5-8AE6-6E4CF3F0B89D}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{4541FDB2-9099-4564-93F8-825021B24552}" type="presParOf" srcId="{83E255F8-7C36-4FB5-8AE6-6E4CF3F0B89D}" destId="{80BA89DD-5EE5-44E2-A103-0E52084D4145}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{46B625D3-20C3-487A-BB2A-3440D7E4DCE9}" type="presParOf" srcId="{83E255F8-7C36-4FB5-8AE6-6E4CF3F0B89D}" destId="{B681C0BC-5BEF-4DB8-BF50-3B081297BB68}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{0A31174A-C211-4EA1-B0BC-2314CC8ADF05}" type="presParOf" srcId="{B681C0BC-5BEF-4DB8-BF50-3B081297BB68}" destId="{D6A70E11-5D25-443F-9694-1E5BFDA45171}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{ACED2183-E568-4489-B79B-D10F351EECBA}" type="presParOf" srcId="{D6A70E11-5D25-443F-9694-1E5BFDA45171}" destId="{1A256CA1-F071-49F1-963C-5372D2A06396}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{C94585E1-371B-43CE-A981-35403BED8910}" type="presParOf" srcId="{B681C0BC-5BEF-4DB8-BF50-3B081297BB68}" destId="{D0AC582E-B979-4B25-80A7-E099CC928076}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{A5DF43EC-AD6B-4157-858A-D58CA1DF3BF4}" type="presParOf" srcId="{D0AC582E-B979-4B25-80A7-E099CC928076}" destId="{1507B06C-5D98-48B4-BA05-490C7F303DEC}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{F94CFD44-F928-4C2C-B47D-9B8A5AE924BB}" type="presParOf" srcId="{D0AC582E-B979-4B25-80A7-E099CC928076}" destId="{F7871F3F-76A0-44A8-BB5D-1E5EEBC9ADD0}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{7C524415-E21E-4877-9096-2BC82D68AD49}" type="presParOf" srcId="{D37BF067-FA63-40C9-A96C-A1D0BF8BA2EB}" destId="{4DE61D29-26D4-4F75-A52E-8A64166CB565}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{832AEA80-02F6-4358-B29F-213946D458F6}" type="presParOf" srcId="{4DE61D29-26D4-4F75-A52E-8A64166CB565}" destId="{523484C6-151E-4DF4-9AFB-1C19DFC859D2}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{F5D56AE1-3BCC-40C8-9150-2246F9CC0D67}" type="presParOf" srcId="{4DE61D29-26D4-4F75-A52E-8A64166CB565}" destId="{E02B2B7C-181F-4B3A-AE58-6B63EF7EF768}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{C4A5EF63-607F-4D3D-AC02-25E510BE3904}" type="presParOf" srcId="{E02B2B7C-181F-4B3A-AE58-6B63EF7EF768}" destId="{9FFDCA42-22D2-4A50-BF6F-47A44B7D806D}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{892EF663-EF33-427F-A20A-9E5F0C66F750}" type="presParOf" srcId="{9FFDCA42-22D2-4A50-BF6F-47A44B7D806D}" destId="{6B88C7CC-3ACA-4195-BB54-4D493131B3BA}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{86B29DFC-6CD2-4583-BFD9-BC2768C5BB59}" type="presParOf" srcId="{E02B2B7C-181F-4B3A-AE58-6B63EF7EF768}" destId="{5D5F162A-F0F6-48B1-BCF1-F84A13273B56}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{95774EF1-5393-4703-B975-0351A9243ACB}" type="presParOf" srcId="{5D5F162A-F0F6-48B1-BCF1-F84A13273B56}" destId="{3255085A-EA4C-464E-A12B-E265EAA6B927}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{6A956A80-94A1-47E9-8DA0-ED48EE0B5A7D}" type="presParOf" srcId="{5D5F162A-F0F6-48B1-BCF1-F84A13273B56}" destId="{59169C00-3143-4A51-918E-F58600B214B4}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{11CE78D0-E3BF-47FB-A48A-903C3ABF2FEE}" type="presParOf" srcId="{59169C00-3143-4A51-918E-F58600B214B4}" destId="{DA8672FA-9F10-4934-92F4-9B0E03E504AC}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{57F82EC4-8BB5-4466-9EC0-325A1AC02B82}" type="presParOf" srcId="{DA8672FA-9F10-4934-92F4-9B0E03E504AC}" destId="{EDFDE935-BFCE-4424-AB93-AA691740BB95}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{BAE0A6AF-6715-44B7-A92F-395A7D74BEDF}" type="presParOf" srcId="{59169C00-3143-4A51-918E-F58600B214B4}" destId="{15217014-ADB2-4539-A3A9-8C048104CD65}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{99A00AF6-4AF4-4CDC-A119-AC8E32549BCE}" type="presParOf" srcId="{15217014-ADB2-4539-A3A9-8C048104CD65}" destId="{A98771A6-1065-426D-AB17-244C08354536}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{6825D0BE-5935-4A48-8A1A-12B3C223B579}" type="presParOf" srcId="{15217014-ADB2-4539-A3A9-8C048104CD65}" destId="{11FFBD11-4BEC-4B06-928B-8BD352E6B1F2}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{3A4E82A0-7BAF-47E8-A0BD-B955FBFF5BE8}" type="presParOf" srcId="{11FFBD11-4BEC-4B06-928B-8BD352E6B1F2}" destId="{DB1231E3-4B3A-43E1-A60A-E362EA672D1D}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{4CBF2050-B2B1-483F-A2B4-BCDDC8F2DA85}" type="presParOf" srcId="{DB1231E3-4B3A-43E1-A60A-E362EA672D1D}" destId="{25A47253-B623-4CF0-9753-CA45DCB14863}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{E19F1A90-462D-49C3-96D2-CE5F1F81A8F2}" type="presParOf" srcId="{11FFBD11-4BEC-4B06-928B-8BD352E6B1F2}" destId="{1F149E23-F7C7-47CE-9A69-1F93DFC3E2B8}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{540392AB-D7AD-42F4-A0C3-FA9FB61F3F3D}" type="presParOf" srcId="{1F149E23-F7C7-47CE-9A69-1F93DFC3E2B8}" destId="{63F1F962-4995-42B6-8526-0700788F3DE4}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{6F64AADE-362F-46F7-AA19-E4793FB54B47}" type="presParOf" srcId="{1F149E23-F7C7-47CE-9A69-1F93DFC3E2B8}" destId="{CB6FC48F-9DE9-490E-BEAC-13B47672CB2E}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{D5A5FC3D-0F7C-4D3C-9638-3EB2D040174C}" type="presParOf" srcId="{CB6FC48F-9DE9-490E-BEAC-13B47672CB2E}" destId="{F5F7CDA6-8199-4DE5-9A64-4B4E2B197201}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{93C65C34-27E9-4900-80A0-F2B710A232CC}" type="presParOf" srcId="{F5F7CDA6-8199-4DE5-9A64-4B4E2B197201}" destId="{7700C75A-0051-40BB-899E-A0D0389B2DCF}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{8B5D9BD7-60A6-4F8C-82E1-7CD4A6B53FD1}" type="presParOf" srcId="{CB6FC48F-9DE9-490E-BEAC-13B47672CB2E}" destId="{D3D9F1B4-7206-4DD1-8DAF-67450FECBA9F}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{B4EF6957-2D8D-4437-95D5-E0A3784191BA}" type="presParOf" srcId="{D3D9F1B4-7206-4DD1-8DAF-67450FECBA9F}" destId="{FF14BC1C-2E81-4272-8241-CAA23949FBF6}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{58FA98E9-D767-4CD1-9DD9-581D2DFF38E2}" type="presParOf" srcId="{D3D9F1B4-7206-4DD1-8DAF-67450FECBA9F}" destId="{86018107-B67A-4E7A-9BC4-4E56347FDC2B}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{56CDF64C-C874-4CBC-A136-06CCA3DC6B6B}" type="presParOf" srcId="{86018107-B67A-4E7A-9BC4-4E56347FDC2B}" destId="{C7C260BE-DF41-4A4D-B509-3ACB58286E66}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{14B30F23-40B5-4F84-BF27-969398B2DDF1}" type="presParOf" srcId="{C7C260BE-DF41-4A4D-B509-3ACB58286E66}" destId="{013CDCB5-C919-4FE7-A85C-50BF29CDF56C}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{F8DD21D4-DC70-4D0A-A6AA-839A3A006F0F}" type="presParOf" srcId="{86018107-B67A-4E7A-9BC4-4E56347FDC2B}" destId="{FC811636-E055-4494-B81E-E746C1609497}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{599CB167-9753-4058-97F3-75122A68D053}" type="presParOf" srcId="{FC811636-E055-4494-B81E-E746C1609497}" destId="{3AB530FA-7695-47C2-849F-535E3DAEAE59}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{A0EB748B-8E2A-4620-B8D7-23395C350C37}" type="presParOf" srcId="{FC811636-E055-4494-B81E-E746C1609497}" destId="{423B3D2E-2063-4D8F-9822-9F52BBA36011}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{0BD8C321-2956-4590-ADD1-265A2712FA6F}" type="presParOf" srcId="{423B3D2E-2063-4D8F-9822-9F52BBA36011}" destId="{3FE4E342-1165-4DB5-8749-DBAD9C170248}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{C18620A3-1379-4B8C-83F2-696C786A22AA}" type="presParOf" srcId="{3FE4E342-1165-4DB5-8749-DBAD9C170248}" destId="{BAE746DB-C2F5-4E82-9CBF-90193F3B2091}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{8B8E939F-5A1B-404B-9496-A008B9B0FA1D}" type="presParOf" srcId="{423B3D2E-2063-4D8F-9822-9F52BBA36011}" destId="{5561D9C3-5EB9-4C41-AB15-00C8B5AACA58}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{73CF3FDB-687A-4ECC-A727-06F1616D6BF6}" type="presParOf" srcId="{5561D9C3-5EB9-4C41-AB15-00C8B5AACA58}" destId="{1751D3B1-A05B-4672-8F9C-80DA03C9B1D9}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{69C6622E-FF12-4DD5-A666-6D954F100B36}" type="presParOf" srcId="{5561D9C3-5EB9-4C41-AB15-00C8B5AACA58}" destId="{044916E5-8D4A-4349-BDB5-F78877F72797}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{4BCA5D2B-5E6D-4C75-A11E-3F42F0CE23C3}" type="presParOf" srcId="{86018107-B67A-4E7A-9BC4-4E56347FDC2B}" destId="{A1B406B5-8911-4317-AC33-8C3B0CE5E3B9}" srcOrd="2" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{96D169A5-C0A3-4579-8188-681C04D0D1B7}" type="presParOf" srcId="{A1B406B5-8911-4317-AC33-8C3B0CE5E3B9}" destId="{09F54421-16F3-4413-ABD8-386DC3A85404}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{8D998E4F-5FE5-4B56-AF88-3DACB15CE8B5}" type="presParOf" srcId="{86018107-B67A-4E7A-9BC4-4E56347FDC2B}" destId="{5601AD14-1281-4268-B1B0-55DEB42FC01D}" srcOrd="3" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{90F83C6C-42D3-4FFC-85A5-716A28E2B2F5}" type="presParOf" srcId="{5601AD14-1281-4268-B1B0-55DEB42FC01D}" destId="{6C40B4ED-7BA3-445A-869A-110831F15CAE}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{95FD2A32-67DF-402A-9233-2CDBEC158808}" type="presParOf" srcId="{5601AD14-1281-4268-B1B0-55DEB42FC01D}" destId="{709B0276-1C4E-4540-A922-9510D33F129C}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{E51F41C4-84BD-47F4-A685-B783B388CA00}" type="presParOf" srcId="{709B0276-1C4E-4540-A922-9510D33F129C}" destId="{494CF6FE-2591-4415-857B-F52A0F60951A}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{F23BCC38-C9D7-4DF2-8127-B9A79A2D1C8E}" type="presParOf" srcId="{494CF6FE-2591-4415-857B-F52A0F60951A}" destId="{4B8C6EFF-8551-43DF-81E3-B6C157C2AC20}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{84F34EEF-631E-40D8-9D9D-53F3BAA89D15}" type="presParOf" srcId="{709B0276-1C4E-4540-A922-9510D33F129C}" destId="{3CB0C17B-3361-415E-A8A2-1078EB680775}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{71B19092-4302-4C92-915E-929DB1D0709F}" type="presParOf" srcId="{3CB0C17B-3361-415E-A8A2-1078EB680775}" destId="{89789CDF-20CF-4BBB-BBDF-CA9AFF58C425}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{E41763EA-3596-4C65-BD94-1D1986DD082D}" type="presParOf" srcId="{3CB0C17B-3361-415E-A8A2-1078EB680775}" destId="{5E1F8CD0-9508-4427-A520-DB6B13D23D01}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{E31DB206-9679-47B0-96C6-3DC86B7A4806}" type="presParOf" srcId="{5E1F8CD0-9508-4427-A520-DB6B13D23D01}" destId="{B5F3DAA7-BFDA-4D58-B990-89950E30F0A8}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{DEEFE4E1-F9CA-4BE3-8FBF-A8416993BFB8}" type="presParOf" srcId="{B5F3DAA7-BFDA-4D58-B990-89950E30F0A8}" destId="{F18C07D0-924F-4EE6-826F-DEBEEE5D176D}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{B7DE9C7A-2E92-4291-A809-CBDC1D7A1706}" type="presParOf" srcId="{5E1F8CD0-9508-4427-A520-DB6B13D23D01}" destId="{1310692E-32FD-4631-8F10-301E4F71A2E8}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{523605CC-72E9-46E5-9851-AE22C6EE1F95}" type="presParOf" srcId="{1310692E-32FD-4631-8F10-301E4F71A2E8}" destId="{28AE2CA2-293C-45A3-86F4-307002D9B041}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{46118FB9-C11D-4333-947C-086DC20AE41C}" type="presParOf" srcId="{1310692E-32FD-4631-8F10-301E4F71A2E8}" destId="{91FF2BED-5CE7-4ADA-AEBD-5A6C714B82F1}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{0E87B899-FFFF-4455-BF62-A68D3E2B674B}" type="presParOf" srcId="{91FF2BED-5CE7-4ADA-AEBD-5A6C714B82F1}" destId="{304959C4-0F8C-455C-915A-8C9D5D24FD99}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{4F7C47FF-4384-4BE8-AAF2-62AED8A03B26}" type="presParOf" srcId="{304959C4-0F8C-455C-915A-8C9D5D24FD99}" destId="{4281BE41-C03A-4CFC-B1DA-BE515A1BDD7F}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{0CFB61C4-EAA8-4223-A34E-520D7F4D24AF}" type="presParOf" srcId="{91FF2BED-5CE7-4ADA-AEBD-5A6C714B82F1}" destId="{F8A165AA-1874-4360-B912-DA7F7616F9E7}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{A7A43C36-1223-4F8F-9153-13DC00640794}" type="presParOf" srcId="{F8A165AA-1874-4360-B912-DA7F7616F9E7}" destId="{DB95C6B5-8400-472C-A9DC-CF2D409C7D4A}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{26ABA44B-7EAF-40C5-94FB-38C23466932E}" type="presParOf" srcId="{F8A165AA-1874-4360-B912-DA7F7616F9E7}" destId="{9EB93D29-D462-41A1-9125-6632C6D18110}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{1B3A76C3-E456-47C0-ADAE-C8BB4C038140}" type="presParOf" srcId="{11FFBD11-4BEC-4B06-928B-8BD352E6B1F2}" destId="{81ABC927-9622-442A-B8AD-72EB91444905}" srcOrd="2" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{F0EC310C-91AA-4AB5-9849-C4D69042F2EA}" type="presParOf" srcId="{81ABC927-9622-442A-B8AD-72EB91444905}" destId="{CA44C3B6-CE4C-47B0-9AFB-82116F5BD2A6}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{33E5BFF8-3267-4AA0-AC74-5A5718F47905}" type="presParOf" srcId="{11FFBD11-4BEC-4B06-928B-8BD352E6B1F2}" destId="{FE0029FB-20F3-4429-AF3C-5578CBD77AB5}" srcOrd="3" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{0B5C38F0-11B0-42AE-8C6E-026E0166E0A6}" type="presParOf" srcId="{FE0029FB-20F3-4429-AF3C-5578CBD77AB5}" destId="{BFE8769B-98C6-47D5-97B8-2BB5A4A4702B}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{B0B0BF11-1678-4F77-8BFD-133605C15812}" type="presParOf" srcId="{FE0029FB-20F3-4429-AF3C-5578CBD77AB5}" destId="{BF2A2A67-D5FE-407C-8143-271B06C62922}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{B0480368-350F-424C-BBE8-1CCEB9DE09F7}" type="presParOf" srcId="{BF2A2A67-D5FE-407C-8143-271B06C62922}" destId="{5613D056-022B-4A6C-A781-177D3B75F647}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{B4EF4436-ECAD-4AE7-A50E-A2F95A24FA2F}" type="presParOf" srcId="{5613D056-022B-4A6C-A781-177D3B75F647}" destId="{B157A907-D573-427B-97FC-769E6E03B167}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{C806C2EF-ED98-4100-970D-327B357E19C7}" type="presParOf" srcId="{BF2A2A67-D5FE-407C-8143-271B06C62922}" destId="{9BEF525F-A846-48BB-9D84-B936A84A7605}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{8BB15557-9F2F-4F3B-95FE-4F7BF27882F7}" type="presParOf" srcId="{9BEF525F-A846-48BB-9D84-B936A84A7605}" destId="{D107B190-A7EE-4946-86FF-406679EC3865}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{AD828A9D-4400-43B7-9721-49748D05B21E}" type="presParOf" srcId="{9BEF525F-A846-48BB-9D84-B936A84A7605}" destId="{C81ACA67-D4E3-4C6B-A90E-59CD8E8B39BA}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+  </dgm:cxnLst>
+  <dgm:bg>
+    <a:solidFill>
+      <a:sysClr val="window" lastClr="FFFFFF"/>
+    </a:solidFill>
+  </dgm:bg>
+  <dgm:whole/>
+  <dgm:extLst>
+    <a:ext uri="http://schemas.microsoft.com/office/drawing/2008/diagram">
+      <dsp:dataModelExt xmlns:dsp="http://schemas.microsoft.com/office/drawing/2008/diagram" relId="rId5" minVer="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
+    </a:ext>
+  </dgm:extLst>
+</dgm:dataModel>
+</file>
+
+<file path=xl/diagrams/data2.xml><?xml version="1.0" encoding="utf-8"?>
 <dgm:dataModel xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <dgm:ptLst>
     <dgm:pt modelId="{B1A1975D-F6EE-4F6A-B0B9-A84F8E4437BA}" type="doc">
@@ -2981,6 +5347,2425 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
+          <a:off x="4357" y="1755535"/>
+          <a:ext cx="982039" cy="491019"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 10000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:hueOff val="0"/>
+            <a:satOff val="0"/>
+            <a:lumOff val="0"/>
+            <a:alphaOff val="0"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="5080" tIns="5080" rIns="5080" bIns="5080" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr lvl="0" algn="ctr" defTabSz="355600">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="800" kern="1200"/>
+            <a:t>Méthode rédaction rapport</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="fr-FR" sz="800" kern="1200"/>
+          </a:br>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="800" kern="1200"/>
+            <a:t>Début : 14-janv</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="fr-FR" sz="800" kern="1200"/>
+          </a:br>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="800" kern="1200"/>
+            <a:t>Durée : 3</a:t>
+          </a:r>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="18738" y="1769916"/>
+        <a:ext cx="953277" cy="462257"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{D6A70E11-5D25-443F-9694-1E5BFDA45171}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="986396" y="1992882"/>
+          <a:ext cx="1262185" cy="16325"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst>
+            <a:path>
+              <a:moveTo>
+                <a:pt x="0" y="8162"/>
+              </a:moveTo>
+              <a:lnTo>
+                <a:pt x="1262185" y="8162"/>
+              </a:lnTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:noFill/>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:shade val="60000"/>
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="12700" tIns="0" rIns="12700" bIns="0" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr lvl="0" algn="ctr" defTabSz="222250">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:endParaRPr lang="fr-FR" sz="500" kern="1200"/>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="1585934" y="1969490"/>
+        <a:ext cx="63109" cy="63109"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{1507B06C-5D98-48B4-BA05-490C7F303DEC}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="2248582" y="1755535"/>
+          <a:ext cx="982039" cy="491019"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 10000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:hueOff val="0"/>
+            <a:satOff val="0"/>
+            <a:lumOff val="0"/>
+            <a:alphaOff val="0"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="5080" tIns="5080" rIns="5080" bIns="5080" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr lvl="0" algn="ctr" defTabSz="355600">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="800" kern="1200"/>
+            <a:t>Rédaction rapport</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="fr-FR" sz="800" kern="1200"/>
+          </a:br>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="800" kern="1200"/>
+            <a:t>Début : 21-janv</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="fr-FR" sz="800" kern="1200"/>
+          </a:br>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="800" kern="1200"/>
+            <a:t>Durée : 20</a:t>
+          </a:r>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="2262963" y="1769916"/>
+        <a:ext cx="953277" cy="462257"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{523484C6-151E-4DF4-9AFB-1C19DFC859D2}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="4357" y="2884880"/>
+          <a:ext cx="982039" cy="491019"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 10000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:hueOff val="0"/>
+            <a:satOff val="0"/>
+            <a:lumOff val="0"/>
+            <a:alphaOff val="0"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="5080" tIns="5080" rIns="5080" bIns="5080" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr lvl="0" algn="ctr" defTabSz="355600">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="800" kern="1200"/>
+            <a:t>Choix du projet</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="fr-FR" sz="800" kern="1200"/>
+          </a:br>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="800" kern="1200"/>
+            <a:t>Début : 14-janv</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="fr-FR" sz="800" kern="1200"/>
+          </a:br>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="800" kern="1200"/>
+            <a:t>Durée : 1</a:t>
+          </a:r>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="18738" y="2899261"/>
+        <a:ext cx="953277" cy="462257"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{9FFDCA42-22D2-4A50-BF6F-47A44B7D806D}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="986396" y="3122227"/>
+          <a:ext cx="392815" cy="16325"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst>
+            <a:path>
+              <a:moveTo>
+                <a:pt x="0" y="8162"/>
+              </a:moveTo>
+              <a:lnTo>
+                <a:pt x="392815" y="8162"/>
+              </a:lnTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:noFill/>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:shade val="60000"/>
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="12700" tIns="0" rIns="12700" bIns="0" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr lvl="0" algn="ctr" defTabSz="222250">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:endParaRPr lang="fr-FR" sz="500" kern="1200"/>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="1172983" y="3120570"/>
+        <a:ext cx="19640" cy="19640"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{3255085A-EA4C-464E-A12B-E265EAA6B927}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="1379212" y="2884880"/>
+          <a:ext cx="982039" cy="491019"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 10000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:hueOff val="0"/>
+            <a:satOff val="0"/>
+            <a:lumOff val="0"/>
+            <a:alphaOff val="0"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="5080" tIns="5080" rIns="5080" bIns="5080" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr lvl="0" algn="ctr" defTabSz="355600">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="800" kern="1200"/>
+            <a:t>Réalisation schéma E/A</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="fr-FR" sz="800" kern="1200"/>
+          </a:br>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="800" kern="1200"/>
+            <a:t>Début : 16-janv</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="fr-FR" sz="800" kern="1200"/>
+          </a:br>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="800" kern="1200"/>
+            <a:t>Durée : 2</a:t>
+          </a:r>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="1393593" y="2899261"/>
+        <a:ext cx="953277" cy="462257"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{DA8672FA-9F10-4934-92F4-9B0E03E504AC}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="2361251" y="3122227"/>
+          <a:ext cx="392815" cy="16325"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst>
+            <a:path>
+              <a:moveTo>
+                <a:pt x="0" y="8162"/>
+              </a:moveTo>
+              <a:lnTo>
+                <a:pt x="392815" y="8162"/>
+              </a:lnTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:noFill/>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:shade val="80000"/>
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="12700" tIns="0" rIns="12700" bIns="0" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr lvl="0" algn="ctr" defTabSz="222250">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:endParaRPr lang="fr-FR" sz="500" kern="1200"/>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="2547838" y="3120570"/>
+        <a:ext cx="19640" cy="19640"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{A98771A6-1065-426D-AB17-244C08354536}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="2754067" y="2884880"/>
+          <a:ext cx="982039" cy="491019"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 10000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:hueOff val="0"/>
+            <a:satOff val="0"/>
+            <a:lumOff val="0"/>
+            <a:alphaOff val="0"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="5080" tIns="5080" rIns="5080" bIns="5080" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr lvl="0" algn="ctr" defTabSz="355600">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="800" kern="1200"/>
+            <a:t>MCD</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="fr-FR" sz="800" kern="1200"/>
+          </a:br>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="800" kern="1200"/>
+            <a:t>Début : 21-janv</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="fr-FR" sz="800" kern="1200"/>
+          </a:br>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="800" kern="1200"/>
+            <a:t>Durée : 4</a:t>
+          </a:r>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="2768448" y="2899261"/>
+        <a:ext cx="953277" cy="462257"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{DB1231E3-4B3A-43E1-A60A-E362EA672D1D}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm rot="18472001">
+          <a:off x="3608793" y="2861967"/>
+          <a:ext cx="659352" cy="16325"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst>
+            <a:path>
+              <a:moveTo>
+                <a:pt x="0" y="8162"/>
+              </a:moveTo>
+              <a:lnTo>
+                <a:pt x="659352" y="8162"/>
+              </a:lnTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:noFill/>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:shade val="80000"/>
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="12700" tIns="0" rIns="12700" bIns="0" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr lvl="0" algn="ctr" defTabSz="222250">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:endParaRPr lang="fr-FR" sz="500" kern="1200"/>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="3921986" y="2853646"/>
+        <a:ext cx="32967" cy="32967"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{63F1F962-4995-42B6-8526-0700788F3DE4}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="4140834" y="2364360"/>
+          <a:ext cx="982039" cy="491019"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 10000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:hueOff val="0"/>
+            <a:satOff val="0"/>
+            <a:lumOff val="0"/>
+            <a:alphaOff val="0"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="5080" tIns="5080" rIns="5080" bIns="5080" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr lvl="0" algn="ctr" defTabSz="355600">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="800" kern="1200"/>
+            <a:t>MLD</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="fr-FR" sz="800" kern="1200"/>
+          </a:br>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="800" kern="1200"/>
+            <a:t>Début : 30-janv</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="fr-FR" sz="800" kern="1200"/>
+          </a:br>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="800" kern="1200"/>
+            <a:t>Durée : 2</a:t>
+          </a:r>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="4155215" y="2378741"/>
+        <a:ext cx="953277" cy="462257"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{F5F7CDA6-8199-4DE5-9A64-4B4E2B197201}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="5122873" y="2601707"/>
+          <a:ext cx="368991" cy="16325"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst>
+            <a:path>
+              <a:moveTo>
+                <a:pt x="0" y="8162"/>
+              </a:moveTo>
+              <a:lnTo>
+                <a:pt x="368991" y="8162"/>
+              </a:lnTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:noFill/>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:shade val="80000"/>
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="12700" tIns="0" rIns="12700" bIns="0" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr lvl="0" algn="ctr" defTabSz="222250">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:endParaRPr lang="fr-FR" sz="500" kern="1200"/>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="5298144" y="2600645"/>
+        <a:ext cx="18449" cy="18449"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{FF14BC1C-2E81-4272-8241-CAA23949FBF6}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="5491864" y="2364360"/>
+          <a:ext cx="982039" cy="491019"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 10000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:hueOff val="0"/>
+            <a:satOff val="0"/>
+            <a:lumOff val="0"/>
+            <a:alphaOff val="0"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="5080" tIns="5080" rIns="5080" bIns="5080" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr lvl="0" algn="ctr" defTabSz="355600">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="800" kern="1200"/>
+            <a:t>MPD</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="fr-FR" sz="800" kern="1200"/>
+          </a:br>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="800" kern="1200"/>
+            <a:t>Début : 30-janv</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="fr-FR" sz="800" kern="1200"/>
+          </a:br>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="800" kern="1200"/>
+            <a:t>Durée : 2</a:t>
+          </a:r>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="5506245" y="2378741"/>
+        <a:ext cx="953277" cy="462257"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{C7C260BE-DF41-4A4D-B509-3ACB58286E66}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm rot="18328103">
+          <a:off x="6327517" y="2317672"/>
+          <a:ext cx="697501" cy="16325"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst>
+            <a:path>
+              <a:moveTo>
+                <a:pt x="0" y="8162"/>
+              </a:moveTo>
+              <a:lnTo>
+                <a:pt x="697501" y="8162"/>
+              </a:lnTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:noFill/>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:shade val="80000"/>
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="12700" tIns="0" rIns="12700" bIns="0" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr lvl="0" algn="ctr" defTabSz="222250">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:endParaRPr lang="fr-FR" sz="500" kern="1200"/>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="6658830" y="2308397"/>
+        <a:ext cx="34875" cy="34875"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{3AB530FA-7695-47C2-849F-535E3DAEAE59}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="6878631" y="1796290"/>
+          <a:ext cx="982039" cy="491019"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 10000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:hueOff val="0"/>
+            <a:satOff val="0"/>
+            <a:lumOff val="0"/>
+            <a:alphaOff val="0"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="5080" tIns="5080" rIns="5080" bIns="5080" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr lvl="0" algn="ctr" defTabSz="355600">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="800" kern="1200"/>
+            <a:t>Insertion des contraintes</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="fr-FR" sz="800" kern="1200"/>
+          </a:br>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="800" kern="1200"/>
+            <a:t>Début : 4-fev</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="fr-FR" sz="800" kern="1200"/>
+          </a:br>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="800" kern="1200"/>
+            <a:t>Durée : 3</a:t>
+          </a:r>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="6893012" y="1810671"/>
+        <a:ext cx="953277" cy="462257"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{3FE4E342-1165-4DB5-8749-DBAD9C170248}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="7860670" y="2033637"/>
+          <a:ext cx="392815" cy="16325"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst>
+            <a:path>
+              <a:moveTo>
+                <a:pt x="0" y="8162"/>
+              </a:moveTo>
+              <a:lnTo>
+                <a:pt x="392815" y="8162"/>
+              </a:lnTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:noFill/>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:shade val="80000"/>
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="12700" tIns="0" rIns="12700" bIns="0" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr lvl="0" algn="ctr" defTabSz="222250">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:endParaRPr lang="fr-FR" sz="500" kern="1200"/>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="8047258" y="2031979"/>
+        <a:ext cx="19640" cy="19640"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{1751D3B1-A05B-4672-8F9C-80DA03C9B1D9}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="8253486" y="1796290"/>
+          <a:ext cx="982039" cy="491019"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 10000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:hueOff val="0"/>
+            <a:satOff val="0"/>
+            <a:lumOff val="0"/>
+            <a:alphaOff val="0"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="5080" tIns="5080" rIns="5080" bIns="5080" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr lvl="0" algn="ctr" defTabSz="355600">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="800" kern="1200"/>
+            <a:t>Insertion des données</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="fr-FR" sz="800" kern="1200"/>
+          </a:br>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="800" kern="1200"/>
+            <a:t>Début : 4-fev</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="fr-FR" sz="800" kern="1200"/>
+          </a:br>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="800" kern="1200"/>
+            <a:t>Durée : 3</a:t>
+          </a:r>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="8267867" y="1810671"/>
+        <a:ext cx="953277" cy="462257"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{A1B406B5-8911-4317-AC33-8C3B0CE5E3B9}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm rot="3127999">
+          <a:off x="6346591" y="2861967"/>
+          <a:ext cx="659352" cy="16325"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst>
+            <a:path>
+              <a:moveTo>
+                <a:pt x="0" y="8162"/>
+              </a:moveTo>
+              <a:lnTo>
+                <a:pt x="659352" y="8162"/>
+              </a:lnTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:noFill/>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:shade val="80000"/>
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="12700" tIns="0" rIns="12700" bIns="0" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr lvl="0" algn="ctr" defTabSz="222250">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:endParaRPr lang="fr-FR" sz="500" kern="1200"/>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="6659784" y="2853646"/>
+        <a:ext cx="32967" cy="32967"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{6C40B4ED-7BA3-445A-869A-110831F15CAE}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="6878631" y="2884880"/>
+          <a:ext cx="982039" cy="491019"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 10000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:hueOff val="0"/>
+            <a:satOff val="0"/>
+            <a:lumOff val="0"/>
+            <a:alphaOff val="0"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="5080" tIns="5080" rIns="5080" bIns="5080" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr lvl="0" algn="ctr" defTabSz="355600">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="800" kern="1200"/>
+            <a:t>MCT</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="fr-FR" sz="800" kern="1200"/>
+          </a:br>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="800" kern="1200"/>
+            <a:t>Début : 13-fev</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="fr-FR" sz="800" kern="1200"/>
+          </a:br>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="800" kern="1200"/>
+            <a:t>Durée : 2</a:t>
+          </a:r>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="6893012" y="2899261"/>
+        <a:ext cx="953277" cy="462257"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{494CF6FE-2591-4415-857B-F52A0F60951A}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="7860670" y="3122227"/>
+          <a:ext cx="392815" cy="16325"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst>
+            <a:path>
+              <a:moveTo>
+                <a:pt x="0" y="8162"/>
+              </a:moveTo>
+              <a:lnTo>
+                <a:pt x="392815" y="8162"/>
+              </a:lnTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:noFill/>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:shade val="80000"/>
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="12700" tIns="0" rIns="12700" bIns="0" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr lvl="0" algn="ctr" defTabSz="222250">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:endParaRPr lang="fr-FR" sz="500" kern="1200"/>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="8047258" y="3120570"/>
+        <a:ext cx="19640" cy="19640"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{89789CDF-20CF-4BBB-BBDF-CA9AFF58C425}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="8253486" y="2884880"/>
+          <a:ext cx="982039" cy="491019"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 10000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:hueOff val="0"/>
+            <a:satOff val="0"/>
+            <a:lumOff val="0"/>
+            <a:alphaOff val="0"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="5080" tIns="5080" rIns="5080" bIns="5080" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr lvl="0" algn="ctr" defTabSz="355600">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="800" kern="1200"/>
+            <a:t>MLT</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="fr-FR" sz="800" kern="1200"/>
+          </a:br>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="800" kern="1200"/>
+            <a:t>Début : 13-fev</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="fr-FR" sz="800" kern="1200"/>
+          </a:br>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="800" kern="1200"/>
+            <a:t>Durée : 2</a:t>
+          </a:r>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="8267867" y="2899261"/>
+        <a:ext cx="953277" cy="462257"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{B5F3DAA7-BFDA-4D58-B990-89950E30F0A8}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="9235525" y="3122227"/>
+          <a:ext cx="392815" cy="16325"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst>
+            <a:path>
+              <a:moveTo>
+                <a:pt x="0" y="8162"/>
+              </a:moveTo>
+              <a:lnTo>
+                <a:pt x="392815" y="8162"/>
+              </a:lnTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:noFill/>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:shade val="80000"/>
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="12700" tIns="0" rIns="12700" bIns="0" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr lvl="0" algn="ctr" defTabSz="222250">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:endParaRPr lang="fr-FR" sz="500" kern="1200"/>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="9422113" y="3120570"/>
+        <a:ext cx="19640" cy="19640"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{28AE2CA2-293C-45A3-86F4-307002D9B041}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="9628341" y="2884880"/>
+          <a:ext cx="982039" cy="491019"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 10000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:hueOff val="0"/>
+            <a:satOff val="0"/>
+            <a:lumOff val="0"/>
+            <a:alphaOff val="0"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="5080" tIns="5080" rIns="5080" bIns="5080" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr lvl="0" algn="ctr" defTabSz="355600">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="800" kern="1200"/>
+            <a:t>MPT</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="fr-FR" sz="800" kern="1200"/>
+          </a:br>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="800" kern="1200"/>
+            <a:t>Début : 14-fev</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="fr-FR" sz="800" kern="1200"/>
+          </a:br>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="800" kern="1200"/>
+            <a:t>Durée : 4</a:t>
+          </a:r>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="9642722" y="2899261"/>
+        <a:ext cx="953277" cy="462257"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{304959C4-0F8C-455C-915A-8C9D5D24FD99}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="10610380" y="3122227"/>
+          <a:ext cx="392815" cy="16325"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst>
+            <a:path>
+              <a:moveTo>
+                <a:pt x="0" y="8162"/>
+              </a:moveTo>
+              <a:lnTo>
+                <a:pt x="392815" y="8162"/>
+              </a:lnTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:noFill/>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:shade val="80000"/>
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="12700" tIns="0" rIns="12700" bIns="0" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr lvl="0" algn="ctr" defTabSz="222250">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:endParaRPr lang="fr-FR" sz="500" kern="1200"/>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="10796968" y="3120570"/>
+        <a:ext cx="19640" cy="19640"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{DB95C6B5-8400-472C-A9DC-CF2D409C7D4A}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="11003196" y="2884880"/>
+          <a:ext cx="982039" cy="491019"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 10000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:hueOff val="0"/>
+            <a:satOff val="0"/>
+            <a:lumOff val="0"/>
+            <a:alphaOff val="0"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="5080" tIns="5080" rIns="5080" bIns="5080" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr lvl="0" algn="ctr" defTabSz="355600">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="800" kern="1200"/>
+            <a:t>Application Web</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="fr-FR" sz="800" kern="1200"/>
+          </a:br>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="800" kern="1200"/>
+            <a:t>Début : 25-fev</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="fr-FR" sz="800" kern="1200"/>
+          </a:br>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="800" kern="1200"/>
+            <a:t>Durée : 2</a:t>
+          </a:r>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="11017577" y="2899261"/>
+        <a:ext cx="953277" cy="462257"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{81ABC927-9622-442A-B8AD-72EB91444905}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm rot="3534808">
+          <a:off x="3552123" y="3447989"/>
+          <a:ext cx="760781" cy="16325"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst>
+            <a:path>
+              <a:moveTo>
+                <a:pt x="0" y="8162"/>
+              </a:moveTo>
+              <a:lnTo>
+                <a:pt x="760781" y="8162"/>
+              </a:lnTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:noFill/>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:shade val="80000"/>
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="12700" tIns="0" rIns="12700" bIns="0" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr lvl="0" algn="ctr" defTabSz="222250">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:endParaRPr lang="fr-FR" sz="500" kern="1200"/>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="3913494" y="3437132"/>
+        <a:ext cx="38039" cy="38039"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{BFE8769B-98C6-47D5-97B8-2BB5A4A4702B}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="4128922" y="3536404"/>
+          <a:ext cx="982039" cy="491019"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 10000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:hueOff val="0"/>
+            <a:satOff val="0"/>
+            <a:lumOff val="0"/>
+            <a:alphaOff val="0"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="5080" tIns="5080" rIns="5080" bIns="5080" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr lvl="0" algn="ctr" defTabSz="355600">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="800" kern="1200"/>
+            <a:t>Réflexion procédures</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="fr-FR" sz="800" kern="1200"/>
+          </a:br>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="800" kern="1200"/>
+            <a:t>Début : 6-fev</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="fr-FR" sz="800" kern="1200"/>
+          </a:br>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="800" kern="1200"/>
+            <a:t>Durée : 1</a:t>
+          </a:r>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="4143303" y="3550785"/>
+        <a:ext cx="953277" cy="462257"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{5613D056-022B-4A6C-A781-177D3B75F647}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="5110961" y="3773751"/>
+          <a:ext cx="416630" cy="16325"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst>
+            <a:path>
+              <a:moveTo>
+                <a:pt x="0" y="8162"/>
+              </a:moveTo>
+              <a:lnTo>
+                <a:pt x="416630" y="8162"/>
+              </a:lnTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:noFill/>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:shade val="80000"/>
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="12700" tIns="0" rIns="12700" bIns="0" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr lvl="0" algn="ctr" defTabSz="222250">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:endParaRPr lang="fr-FR" sz="500" kern="1200"/>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="5308860" y="3771498"/>
+        <a:ext cx="20831" cy="20831"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{D107B190-A7EE-4946-86FF-406679EC3865}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="5527591" y="3536404"/>
+          <a:ext cx="982039" cy="491019"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 10000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:hueOff val="0"/>
+            <a:satOff val="0"/>
+            <a:lumOff val="0"/>
+            <a:alphaOff val="0"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="5080" tIns="5080" rIns="5080" bIns="5080" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr lvl="0" algn="ctr" defTabSz="355600">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="800" kern="1200"/>
+            <a:t>Coder procédures</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="fr-FR" sz="800" kern="1200"/>
+          </a:br>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="800" kern="1200"/>
+            <a:t>Début : 11-fev</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="fr-FR" sz="800" kern="1200"/>
+          </a:br>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="800" kern="1200"/>
+            <a:t>Durée : 2</a:t>
+          </a:r>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="5541972" y="3550785"/>
+        <a:ext cx="953277" cy="462257"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+  </dsp:spTree>
+</dsp:drawing>
+</file>
+
+<file path=xl/diagrams/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<dsp:drawing xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:dsp="http://schemas.microsoft.com/office/drawing/2008/diagram" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <dsp:spTree>
+    <dsp:nvGrpSpPr>
+      <dsp:cNvPr id="0" name=""/>
+      <dsp:cNvGrpSpPr/>
+    </dsp:nvGrpSpPr>
+    <dsp:grpSpPr/>
+    <dsp:sp modelId="{80BA89DD-5EE5-44E2-A103-0E52084D4145}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
           <a:off x="5843" y="1190224"/>
           <a:ext cx="981795" cy="490897"/>
         </a:xfrm>
@@ -5386,6 +10171,326 @@
 </file>
 
 <file path=xl/diagrams/layout1.xml><?xml version="1.0" encoding="utf-8"?>
+<dgm:layoutDef xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" uniqueId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2">
+  <dgm:title val=""/>
+  <dgm:desc val=""/>
+  <dgm:catLst>
+    <dgm:cat type="hierarchy" pri="5000"/>
+  </dgm:catLst>
+  <dgm:sampData>
+    <dgm:dataModel>
+      <dgm:ptLst>
+        <dgm:pt modelId="0" type="doc"/>
+        <dgm:pt modelId="1">
+          <dgm:prSet phldr="1"/>
+        </dgm:pt>
+        <dgm:pt modelId="2">
+          <dgm:prSet phldr="1"/>
+        </dgm:pt>
+        <dgm:pt modelId="21">
+          <dgm:prSet phldr="1"/>
+        </dgm:pt>
+        <dgm:pt modelId="22">
+          <dgm:prSet phldr="1"/>
+        </dgm:pt>
+        <dgm:pt modelId="3">
+          <dgm:prSet phldr="1"/>
+        </dgm:pt>
+        <dgm:pt modelId="31">
+          <dgm:prSet phldr="1"/>
+        </dgm:pt>
+      </dgm:ptLst>
+      <dgm:cxnLst>
+        <dgm:cxn modelId="4" srcId="0" destId="1" srcOrd="0" destOrd="0"/>
+        <dgm:cxn modelId="5" srcId="1" destId="2" srcOrd="0" destOrd="0"/>
+        <dgm:cxn modelId="6" srcId="1" destId="3" srcOrd="1" destOrd="0"/>
+        <dgm:cxn modelId="23" srcId="2" destId="21" srcOrd="0" destOrd="0"/>
+        <dgm:cxn modelId="24" srcId="2" destId="22" srcOrd="1" destOrd="0"/>
+        <dgm:cxn modelId="33" srcId="3" destId="31" srcOrd="0" destOrd="0"/>
+      </dgm:cxnLst>
+      <dgm:bg/>
+      <dgm:whole/>
+    </dgm:dataModel>
+  </dgm:sampData>
+  <dgm:styleData>
+    <dgm:dataModel>
+      <dgm:ptLst>
+        <dgm:pt modelId="0" type="doc"/>
+        <dgm:pt modelId="1"/>
+        <dgm:pt modelId="11"/>
+        <dgm:pt modelId="12"/>
+      </dgm:ptLst>
+      <dgm:cxnLst>
+        <dgm:cxn modelId="2" srcId="0" destId="1" srcOrd="0" destOrd="0"/>
+        <dgm:cxn modelId="13" srcId="1" destId="11" srcOrd="0" destOrd="0"/>
+        <dgm:cxn modelId="14" srcId="1" destId="12" srcOrd="1" destOrd="0"/>
+      </dgm:cxnLst>
+      <dgm:bg/>
+      <dgm:whole/>
+    </dgm:dataModel>
+  </dgm:styleData>
+  <dgm:clrData>
+    <dgm:dataModel>
+      <dgm:ptLst>
+        <dgm:pt modelId="0" type="doc"/>
+        <dgm:pt modelId="1"/>
+        <dgm:pt modelId="2"/>
+        <dgm:pt modelId="21"/>
+        <dgm:pt modelId="211"/>
+        <dgm:pt modelId="3"/>
+        <dgm:pt modelId="31"/>
+        <dgm:pt modelId="311"/>
+      </dgm:ptLst>
+      <dgm:cxnLst>
+        <dgm:cxn modelId="4" srcId="0" destId="1" srcOrd="0" destOrd="0"/>
+        <dgm:cxn modelId="5" srcId="1" destId="2" srcOrd="0" destOrd="0"/>
+        <dgm:cxn modelId="6" srcId="1" destId="3" srcOrd="1" destOrd="0"/>
+        <dgm:cxn modelId="23" srcId="2" destId="21" srcOrd="0" destOrd="0"/>
+        <dgm:cxn modelId="24" srcId="21" destId="211" srcOrd="0" destOrd="0"/>
+        <dgm:cxn modelId="33" srcId="3" destId="31" srcOrd="0" destOrd="0"/>
+        <dgm:cxn modelId="34" srcId="31" destId="311" srcOrd="0" destOrd="0"/>
+      </dgm:cxnLst>
+      <dgm:bg/>
+      <dgm:whole/>
+    </dgm:dataModel>
+  </dgm:clrData>
+  <dgm:layoutNode name="diagram">
+    <dgm:varLst>
+      <dgm:chPref val="1"/>
+      <dgm:dir/>
+      <dgm:animOne val="branch"/>
+      <dgm:animLvl val="lvl"/>
+      <dgm:resizeHandles val="exact"/>
+    </dgm:varLst>
+    <dgm:choose name="Name0">
+      <dgm:if name="Name1" func="var" arg="dir" op="equ" val="norm">
+        <dgm:alg type="hierChild">
+          <dgm:param type="linDir" val="fromT"/>
+          <dgm:param type="chAlign" val="l"/>
+        </dgm:alg>
+      </dgm:if>
+      <dgm:else name="Name2">
+        <dgm:alg type="hierChild">
+          <dgm:param type="linDir" val="fromT"/>
+          <dgm:param type="chAlign" val="r"/>
+        </dgm:alg>
+      </dgm:else>
+    </dgm:choose>
+    <dgm:shape xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:blip="">
+      <dgm:adjLst/>
+    </dgm:shape>
+    <dgm:presOf/>
+    <dgm:constrLst>
+      <dgm:constr type="h" for="des" ptType="node" refType="h"/>
+      <dgm:constr type="w" for="des" ptType="node" refType="h" refFor="des" refPtType="node" fact="2"/>
+      <dgm:constr type="sibSp" refType="h" refFor="des" refPtType="node" op="equ" fact="0.15"/>
+      <dgm:constr type="sibSp" for="des" forName="level2hierChild" refType="h" refFor="des" refPtType="node" op="equ" fact="0.15"/>
+      <dgm:constr type="sibSp" for="des" forName="level3hierChild" refType="h" refFor="des" refPtType="node" op="equ" fact="0.15"/>
+      <dgm:constr type="sp" for="des" forName="root1" refType="w" refFor="des" refPtType="node" fact="0.4"/>
+      <dgm:constr type="sp" for="des" forName="root2" refType="sp" refFor="des" refForName="root1" op="equ"/>
+      <dgm:constr type="primFontSz" for="des" ptType="node" op="equ" val="65"/>
+      <dgm:constr type="primFontSz" for="des" forName="connTx" op="equ" val="55"/>
+      <dgm:constr type="primFontSz" for="des" forName="connTx" refType="primFontSz" refFor="des" refPtType="node" op="lte" fact="0.8"/>
+    </dgm:constrLst>
+    <dgm:ruleLst/>
+    <dgm:forEach name="Name3" axis="ch">
+      <dgm:forEach name="Name4" axis="self" ptType="node">
+        <dgm:layoutNode name="root1">
+          <dgm:choose name="Name5">
+            <dgm:if name="Name6" func="var" arg="dir" op="equ" val="norm">
+              <dgm:alg type="hierRoot">
+                <dgm:param type="hierAlign" val="lCtrCh"/>
+              </dgm:alg>
+            </dgm:if>
+            <dgm:else name="Name7">
+              <dgm:alg type="hierRoot">
+                <dgm:param type="hierAlign" val="rCtrCh"/>
+              </dgm:alg>
+            </dgm:else>
+          </dgm:choose>
+          <dgm:shape xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:blip="">
+            <dgm:adjLst/>
+          </dgm:shape>
+          <dgm:presOf/>
+          <dgm:constrLst/>
+          <dgm:ruleLst/>
+          <dgm:layoutNode name="LevelOneTextNode" styleLbl="node0">
+            <dgm:varLst>
+              <dgm:chPref val="3"/>
+            </dgm:varLst>
+            <dgm:alg type="tx"/>
+            <dgm:shape xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" type="roundRect" r:blip="">
+              <dgm:adjLst>
+                <dgm:adj idx="1" val="0.1"/>
+              </dgm:adjLst>
+            </dgm:shape>
+            <dgm:presOf axis="self"/>
+            <dgm:constrLst>
+              <dgm:constr type="tMarg" refType="primFontSz" fact="0.05"/>
+              <dgm:constr type="bMarg" refType="primFontSz" fact="0.05"/>
+              <dgm:constr type="lMarg" refType="primFontSz" fact="0.05"/>
+              <dgm:constr type="rMarg" refType="primFontSz" fact="0.05"/>
+            </dgm:constrLst>
+            <dgm:ruleLst>
+              <dgm:rule type="primFontSz" val="5" fact="NaN" max="NaN"/>
+            </dgm:ruleLst>
+          </dgm:layoutNode>
+          <dgm:layoutNode name="level2hierChild">
+            <dgm:choose name="Name8">
+              <dgm:if name="Name9" func="var" arg="dir" op="equ" val="norm">
+                <dgm:alg type="hierChild">
+                  <dgm:param type="linDir" val="fromT"/>
+                  <dgm:param type="chAlign" val="l"/>
+                </dgm:alg>
+              </dgm:if>
+              <dgm:else name="Name10">
+                <dgm:alg type="hierChild">
+                  <dgm:param type="linDir" val="fromT"/>
+                  <dgm:param type="chAlign" val="r"/>
+                </dgm:alg>
+              </dgm:else>
+            </dgm:choose>
+            <dgm:shape xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:blip="">
+              <dgm:adjLst/>
+            </dgm:shape>
+            <dgm:presOf/>
+            <dgm:constrLst/>
+            <dgm:ruleLst/>
+            <dgm:forEach name="repeat" axis="ch">
+              <dgm:forEach name="Name11" axis="self" ptType="parTrans" cnt="1">
+                <dgm:layoutNode name="conn2-1">
+                  <dgm:choose name="Name12">
+                    <dgm:if name="Name13" func="var" arg="dir" op="equ" val="norm">
+                      <dgm:alg type="conn">
+                        <dgm:param type="dim" val="1D"/>
+                        <dgm:param type="begPts" val="midR"/>
+                        <dgm:param type="endPts" val="midL"/>
+                        <dgm:param type="endSty" val="noArr"/>
+                      </dgm:alg>
+                    </dgm:if>
+                    <dgm:else name="Name14">
+                      <dgm:alg type="conn">
+                        <dgm:param type="dim" val="1D"/>
+                        <dgm:param type="begPts" val="midL"/>
+                        <dgm:param type="endPts" val="midR"/>
+                        <dgm:param type="endSty" val="noArr"/>
+                      </dgm:alg>
+                    </dgm:else>
+                  </dgm:choose>
+                  <dgm:shape xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" type="conn" r:blip="">
+                    <dgm:adjLst/>
+                  </dgm:shape>
+                  <dgm:presOf axis="self"/>
+                  <dgm:constrLst>
+                    <dgm:constr type="w" val="1"/>
+                    <dgm:constr type="h" val="5"/>
+                    <dgm:constr type="connDist"/>
+                    <dgm:constr type="begPad"/>
+                    <dgm:constr type="endPad"/>
+                    <dgm:constr type="userA" for="ch" refType="connDist"/>
+                  </dgm:constrLst>
+                  <dgm:ruleLst/>
+                  <dgm:layoutNode name="connTx">
+                    <dgm:alg type="tx">
+                      <dgm:param type="autoTxRot" val="grav"/>
+                    </dgm:alg>
+                    <dgm:shape xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" type="rect" r:blip="" hideGeom="1">
+                      <dgm:adjLst/>
+                    </dgm:shape>
+                    <dgm:presOf axis="self"/>
+                    <dgm:constrLst>
+                      <dgm:constr type="userA"/>
+                      <dgm:constr type="w" refType="userA" fact="0.05"/>
+                      <dgm:constr type="h" refType="userA" fact="0.05"/>
+                      <dgm:constr type="lMarg" val="1"/>
+                      <dgm:constr type="rMarg" val="1"/>
+                      <dgm:constr type="tMarg"/>
+                      <dgm:constr type="bMarg"/>
+                    </dgm:constrLst>
+                    <dgm:ruleLst>
+                      <dgm:rule type="h" val="NaN" fact="0.25" max="NaN"/>
+                      <dgm:rule type="w" val="NaN" fact="0.8" max="NaN"/>
+                      <dgm:rule type="primFontSz" val="5" fact="NaN" max="NaN"/>
+                    </dgm:ruleLst>
+                  </dgm:layoutNode>
+                </dgm:layoutNode>
+              </dgm:forEach>
+              <dgm:forEach name="Name15" axis="self" ptType="node">
+                <dgm:layoutNode name="root2">
+                  <dgm:choose name="Name16">
+                    <dgm:if name="Name17" func="var" arg="dir" op="equ" val="norm">
+                      <dgm:alg type="hierRoot">
+                        <dgm:param type="hierAlign" val="lCtrCh"/>
+                      </dgm:alg>
+                    </dgm:if>
+                    <dgm:else name="Name18">
+                      <dgm:alg type="hierRoot">
+                        <dgm:param type="hierAlign" val="rCtrCh"/>
+                      </dgm:alg>
+                    </dgm:else>
+                  </dgm:choose>
+                  <dgm:shape xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:blip="">
+                    <dgm:adjLst/>
+                  </dgm:shape>
+                  <dgm:presOf/>
+                  <dgm:constrLst/>
+                  <dgm:ruleLst/>
+                  <dgm:layoutNode name="LevelTwoTextNode">
+                    <dgm:varLst>
+                      <dgm:chPref val="3"/>
+                    </dgm:varLst>
+                    <dgm:alg type="tx"/>
+                    <dgm:shape xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" type="roundRect" r:blip="">
+                      <dgm:adjLst>
+                        <dgm:adj idx="1" val="0.1"/>
+                      </dgm:adjLst>
+                    </dgm:shape>
+                    <dgm:presOf axis="self"/>
+                    <dgm:constrLst>
+                      <dgm:constr type="tMarg" refType="primFontSz" fact="0.05"/>
+                      <dgm:constr type="bMarg" refType="primFontSz" fact="0.05"/>
+                      <dgm:constr type="lMarg" refType="primFontSz" fact="0.05"/>
+                      <dgm:constr type="rMarg" refType="primFontSz" fact="0.05"/>
+                    </dgm:constrLst>
+                    <dgm:ruleLst>
+                      <dgm:rule type="primFontSz" val="5" fact="NaN" max="NaN"/>
+                    </dgm:ruleLst>
+                  </dgm:layoutNode>
+                  <dgm:layoutNode name="level3hierChild">
+                    <dgm:choose name="Name19">
+                      <dgm:if name="Name20" func="var" arg="dir" op="equ" val="norm">
+                        <dgm:alg type="hierChild">
+                          <dgm:param type="linDir" val="fromT"/>
+                          <dgm:param type="chAlign" val="l"/>
+                        </dgm:alg>
+                      </dgm:if>
+                      <dgm:else name="Name21">
+                        <dgm:alg type="hierChild">
+                          <dgm:param type="linDir" val="fromT"/>
+                          <dgm:param type="chAlign" val="r"/>
+                        </dgm:alg>
+                      </dgm:else>
+                    </dgm:choose>
+                    <dgm:shape xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:blip="">
+                      <dgm:adjLst/>
+                    </dgm:shape>
+                    <dgm:presOf/>
+                    <dgm:constrLst/>
+                    <dgm:ruleLst/>
+                    <dgm:forEach name="Name22" ref="repeat"/>
+                  </dgm:layoutNode>
+                </dgm:layoutNode>
+              </dgm:forEach>
+            </dgm:forEach>
+          </dgm:layoutNode>
+        </dgm:layoutNode>
+      </dgm:forEach>
+    </dgm:forEach>
+  </dgm:layoutNode>
+</dgm:layoutDef>
+</file>
+
+<file path=xl/diagrams/layout2.xml><?xml version="1.0" encoding="utf-8"?>
 <dgm:layoutDef xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" uniqueId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2">
   <dgm:title val=""/>
   <dgm:desc val=""/>
@@ -6739,62 +11844,1053 @@
 </dgm:styleDef>
 </file>
 
+<file path=xl/diagrams/quickStyle2.xml><?xml version="1.0" encoding="utf-8"?>
+<dgm:styleDef xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" uniqueId="urn:microsoft.com/office/officeart/2005/8/quickstyle/simple1">
+  <dgm:title val=""/>
+  <dgm:desc val=""/>
+  <dgm:catLst>
+    <dgm:cat type="simple" pri="10100"/>
+  </dgm:catLst>
+  <dgm:scene3d>
+    <a:camera prst="orthographicFront"/>
+    <a:lightRig rig="threePt" dir="t"/>
+  </dgm:scene3d>
+  <dgm:styleLbl name="node0">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="lnNode1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="vennNode1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="tx1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="alignNode1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="node1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="node2">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="node3">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="node4">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgImgPlace1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="alignImgPlace1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="bgImgPlace1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="sibTrans2D1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgSibTrans2D1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="bgSibTrans2D1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="sibTrans1D1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="callout">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="asst0">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="asst1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="asst2">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="asst3">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="asst4">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans2D1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans2D2">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans2D3">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans2D4">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans1D1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans1D2">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans1D3">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans1D4">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAcc1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="conFgAcc1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="alignAcc1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="trAlignAcc1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="bgAcc1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="solidFgAcc1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="solidAlignAcc1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="solidBgAcc1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAccFollowNode1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="alignAccFollowNode1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="bgAccFollowNode1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAcc0">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAcc2">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAcc3">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAcc4">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="bgShp">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="dkBgShp">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="trBgShp">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgShp">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="revTx">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+</dgm:styleDef>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>200021</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>559595</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>333375</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="Rectangle 1"/>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="3155157" y="5272084"/>
-          <a:ext cx="9894094" cy="133354"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent5"/>
-        </a:solidFill>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:miter lim="800000"/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>380992</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>757201</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -6838,13 +12934,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>47624</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>166687</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -6881,61 +12977,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>11907</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>45242</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>154781</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="45" name="Rectangle 1"/>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="3167063" y="5117305"/>
-          <a:ext cx="9906000" cy="109539"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent5">
-            <a:lumMod val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:miter lim="800000"/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>4752</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>47620</xdr:rowOff>
+      <xdr:rowOff>59526</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>583405</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>166687</xdr:rowOff>
+      <xdr:rowOff>178593</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -6946,8 +12997,8 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="1993096" y="797714"/>
-          <a:ext cx="1162059" cy="119067"/>
+          <a:off x="3064658" y="809620"/>
+          <a:ext cx="1162060" cy="119067"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7102,28 +13153,28 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>7107</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>47604</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>4752</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>47620</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>2346</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>166667</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>-1</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>166687</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="50" name="Rectangle 1"/>
+        <xdr:cNvPr id="19" name="Rectangle 1"/>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="3221795" y="1583510"/>
-          <a:ext cx="578645" cy="119063"/>
+          <a:off x="4814877" y="5512589"/>
+          <a:ext cx="1162060" cy="119067"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7145,10 +13196,662 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>2383</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>211927</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>333375</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="20" name="Rectangle 1"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4812508" y="5676896"/>
+          <a:ext cx="1164430" cy="121448"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent5"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>7121</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>47612</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>2359</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>166675</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="21" name="Rectangle 1"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="7150871" y="5512581"/>
+          <a:ext cx="578644" cy="119063"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent5">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>4741</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>211918</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>581003</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>330981</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="22" name="Rectangle 1"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="7148491" y="5676887"/>
+          <a:ext cx="576262" cy="119063"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent5"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>2370</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>45240</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>571499</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>154782</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="23" name="Rectangle 1"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="10063151" y="5510209"/>
+          <a:ext cx="4069567" cy="109542"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent5">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>2</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>209545</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>333374</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="24" name="Rectangle 1"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="10060783" y="5674514"/>
+          <a:ext cx="4071936" cy="123829"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent5"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>578620</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>47612</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>573858</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>166675</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="33" name="Rectangle 1"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4221933" y="1583518"/>
+          <a:ext cx="578644" cy="119063"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent5">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>4739</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>223824</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>345282</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="34" name="Rectangle 1"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4231458" y="1759730"/>
+          <a:ext cx="1162073" cy="121458"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent5"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>4752</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>59526</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>-1</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>178593</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="35" name="Rectangle 1"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4814877" y="1988339"/>
+          <a:ext cx="1162060" cy="119067"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent5">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>2371</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>223833</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>571501</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>345281</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="36" name="Rectangle 1"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="5395902" y="2152646"/>
+          <a:ext cx="3486162" cy="121448"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent5"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>578621</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>59517</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>583405</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="37" name="Rectangle 1"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="5972152" y="2381236"/>
+          <a:ext cx="1171597" cy="130983"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent5">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>4741</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>223823</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>581003</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>342886</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="38" name="Rectangle 1"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="8898710" y="2545542"/>
+          <a:ext cx="576262" cy="119063"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent5"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>559593</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>384573</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>357186</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>285751</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="2" name="Groupe 1"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="5834062" y="586979"/>
+          <a:ext cx="11989593" cy="5413772"/>
+          <a:chOff x="3012282" y="706041"/>
+          <a:chExt cx="11989593" cy="4282678"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:graphicFrame macro="">
+        <xdr:nvGraphicFramePr>
+          <xdr:cNvPr id="3" name="Diagramme 2"/>
+          <xdr:cNvGraphicFramePr/>
+        </xdr:nvGraphicFramePr>
+        <xdr:xfrm>
+          <a:off x="3012282" y="706041"/>
+          <a:ext cx="11989593" cy="4282678"/>
+        </xdr:xfrm>
+        <a:graphic>
+          <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/diagram">
+            <dgm:relIds xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:dm="rId1" r:lo="rId2" r:qs="rId3" r:cs="rId4"/>
+          </a:graphicData>
+        </a:graphic>
+      </xdr:graphicFrame>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="4" name="Connecteur droit 3"/>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="12227719" y="2178844"/>
+            <a:ext cx="1250156" cy="0"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="28575"/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="5" name="Connecteur droit 4"/>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="9510713" y="3926682"/>
+            <a:ext cx="3943350" cy="2381"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="28575"/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="6" name="Connecteur droit 5"/>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="13477876" y="2182416"/>
+            <a:ext cx="535780" cy="1103709"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="28575"/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="7" name="Connecteur droit 6"/>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipV="1">
+            <a:off x="13454063" y="3262313"/>
+            <a:ext cx="559593" cy="670322"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="28575"/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -8867,7 +15570,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -9323,15 +16026,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W13"/>
+  <dimension ref="A1:W16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18.42578125" customWidth="1"/>
     <col min="3" max="21" width="8.7109375" customWidth="1"/>
     <col min="23" max="23" width="28.5703125" bestFit="1" customWidth="1"/>
@@ -9339,11 +16042,11 @@
   <sheetData>
     <row r="1" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:23" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="23"/>
-      <c r="C2" s="28">
+      <c r="B2" s="34"/>
+      <c r="C2" s="26">
         <v>42023</v>
       </c>
-      <c r="D2" s="28">
+      <c r="D2" s="26">
         <v>42030</v>
       </c>
       <c r="E2" s="8">
@@ -9399,119 +16102,124 @@
       </c>
     </row>
     <row r="3" spans="1:23" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="24"/>
-      <c r="C3" s="27" t="s">
-        <v>55</v>
-      </c>
-      <c r="D3" s="27" t="s">
-        <v>55</v>
-      </c>
-      <c r="E3" s="29" t="s">
-        <v>55</v>
-      </c>
-      <c r="F3" s="29" t="s">
-        <v>55</v>
-      </c>
-      <c r="G3" s="29" t="s">
-        <v>55</v>
-      </c>
-      <c r="H3" s="29" t="s">
-        <v>55</v>
-      </c>
-      <c r="I3" s="29" t="s">
-        <v>55</v>
-      </c>
-      <c r="J3" s="33" t="s">
-        <v>56</v>
-      </c>
-      <c r="K3" s="29" t="s">
-        <v>55</v>
-      </c>
-      <c r="L3" s="29" t="s">
-        <v>55</v>
-      </c>
-      <c r="M3" s="33" t="s">
-        <v>56</v>
-      </c>
-      <c r="N3" s="33" t="s">
-        <v>56</v>
-      </c>
-      <c r="O3" s="33" t="s">
-        <v>56</v>
-      </c>
-      <c r="P3" s="29" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q3" s="33" t="s">
-        <v>56</v>
-      </c>
-      <c r="R3" s="33" t="s">
-        <v>56</v>
-      </c>
-      <c r="S3" s="33" t="s">
-        <v>56</v>
-      </c>
-      <c r="T3" s="29" t="s">
-        <v>55</v>
-      </c>
-      <c r="U3" s="34" t="s">
-        <v>56</v>
+      <c r="B3" s="35"/>
+      <c r="C3" s="25" t="s">
+        <v>50</v>
+      </c>
+      <c r="D3" s="25" t="s">
+        <v>50</v>
+      </c>
+      <c r="E3" s="27" t="s">
+        <v>50</v>
+      </c>
+      <c r="F3" s="27" t="s">
+        <v>50</v>
+      </c>
+      <c r="G3" s="27" t="s">
+        <v>50</v>
+      </c>
+      <c r="H3" s="27" t="s">
+        <v>50</v>
+      </c>
+      <c r="I3" s="27" t="s">
+        <v>50</v>
+      </c>
+      <c r="J3" s="31" t="s">
+        <v>51</v>
+      </c>
+      <c r="K3" s="27" t="s">
+        <v>50</v>
+      </c>
+      <c r="L3" s="27" t="s">
+        <v>50</v>
+      </c>
+      <c r="M3" s="31" t="s">
+        <v>51</v>
+      </c>
+      <c r="N3" s="31" t="s">
+        <v>51</v>
+      </c>
+      <c r="O3" s="31" t="s">
+        <v>51</v>
+      </c>
+      <c r="P3" s="27" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q3" s="31" t="s">
+        <v>51</v>
+      </c>
+      <c r="R3" s="31" t="s">
+        <v>51</v>
+      </c>
+      <c r="S3" s="31" t="s">
+        <v>51</v>
+      </c>
+      <c r="T3" s="27" t="s">
+        <v>50</v>
+      </c>
+      <c r="U3" s="32" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="4" spans="1:23" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="36"/>
       <c r="B4" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="C4" s="30"/>
-      <c r="D4" s="30"/>
-      <c r="E4" s="31"/>
-      <c r="F4" s="31"/>
-      <c r="G4" s="31"/>
-      <c r="H4" s="31"/>
-      <c r="I4" s="31"/>
-      <c r="J4" s="31"/>
-      <c r="K4" s="31"/>
-      <c r="L4" s="31"/>
-      <c r="M4" s="31"/>
-      <c r="N4" s="31"/>
-      <c r="O4" s="31"/>
-      <c r="P4" s="31"/>
-      <c r="Q4" s="31"/>
-      <c r="R4" s="31"/>
-      <c r="S4" s="31"/>
-      <c r="T4" s="31"/>
-      <c r="U4" s="32"/>
+        <v>53</v>
+      </c>
+      <c r="C4" s="28"/>
+      <c r="D4" s="28"/>
+      <c r="E4" s="29"/>
+      <c r="F4" s="29"/>
+      <c r="G4" s="29"/>
+      <c r="H4" s="29"/>
+      <c r="I4" s="29"/>
+      <c r="J4" s="29"/>
+      <c r="K4" s="29"/>
+      <c r="L4" s="29"/>
+      <c r="M4" s="29"/>
+      <c r="N4" s="29"/>
+      <c r="O4" s="29"/>
+      <c r="P4" s="29"/>
+      <c r="Q4" s="29"/>
+      <c r="R4" s="29"/>
+      <c r="S4" s="29"/>
+      <c r="T4" s="29"/>
+      <c r="U4" s="30"/>
     </row>
     <row r="5" spans="1:23" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="36"/>
       <c r="B5" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="C5" s="30"/>
-      <c r="D5" s="30"/>
-      <c r="E5" s="31"/>
-      <c r="F5" s="31"/>
-      <c r="G5" s="31"/>
-      <c r="H5" s="31"/>
-      <c r="I5" s="31"/>
-      <c r="J5" s="31"/>
-      <c r="K5" s="31"/>
-      <c r="L5" s="31"/>
-      <c r="M5" s="31"/>
-      <c r="N5" s="31"/>
-      <c r="O5" s="31"/>
-      <c r="P5" s="31"/>
-      <c r="Q5" s="31"/>
-      <c r="R5" s="31"/>
-      <c r="S5" s="31"/>
-      <c r="T5" s="31"/>
-      <c r="U5" s="32"/>
+        <v>52</v>
+      </c>
+      <c r="C5" s="28"/>
+      <c r="D5" s="28"/>
+      <c r="E5" s="29"/>
+      <c r="F5" s="29"/>
+      <c r="G5" s="29"/>
+      <c r="H5" s="29"/>
+      <c r="I5" s="29"/>
+      <c r="J5" s="29"/>
+      <c r="K5" s="29"/>
+      <c r="L5" s="29"/>
+      <c r="M5" s="29"/>
+      <c r="N5" s="29"/>
+      <c r="O5" s="29"/>
+      <c r="P5" s="29"/>
+      <c r="Q5" s="29"/>
+      <c r="R5" s="29"/>
+      <c r="S5" s="29"/>
+      <c r="T5" s="29"/>
+      <c r="U5" s="30"/>
     </row>
     <row r="6" spans="1:23" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="36" t="s">
+        <v>56</v>
+      </c>
       <c r="B6" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="C6" s="25"/>
-      <c r="D6" s="25"/>
+        <v>63</v>
+      </c>
+      <c r="C6" s="23"/>
+      <c r="D6" s="23"/>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
@@ -9534,14 +16242,14 @@
       </c>
     </row>
     <row r="7" spans="1:23" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="35" t="s">
-        <v>61</v>
+      <c r="A7" s="33" t="s">
+        <v>58</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="C7" s="25"/>
-      <c r="D7" s="25"/>
+        <v>57</v>
+      </c>
+      <c r="C7" s="23"/>
+      <c r="D7" s="23"/>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
@@ -9564,14 +16272,12 @@
       </c>
     </row>
     <row r="8" spans="1:23" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>62</v>
-      </c>
+      <c r="A8" s="33"/>
       <c r="B8" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="C8" s="25"/>
-      <c r="D8" s="25"/>
+        <v>60</v>
+      </c>
+      <c r="C8" s="23"/>
+      <c r="D8" s="23"/>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
@@ -9591,14 +16297,12 @@
       <c r="U8" s="2"/>
     </row>
     <row r="9" spans="1:23" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>63</v>
-      </c>
+      <c r="A9" s="36"/>
       <c r="B9" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="C9" s="25"/>
-      <c r="D9" s="25"/>
+        <v>61</v>
+      </c>
+      <c r="C9" s="23"/>
+      <c r="D9" s="23"/>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
@@ -9618,14 +16322,12 @@
       <c r="U9" s="2"/>
     </row>
     <row r="10" spans="1:23" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="A10" s="36"/>
+      <c r="B10" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="B10" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="C10" s="25"/>
-      <c r="D10" s="25"/>
+      <c r="C10" s="23"/>
+      <c r="D10" s="23"/>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
@@ -9645,11 +16347,12 @@
       <c r="U10" s="2"/>
     </row>
     <row r="11" spans="1:23" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="36"/>
       <c r="B11" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="C11" s="25"/>
-      <c r="D11" s="25"/>
+        <v>55</v>
+      </c>
+      <c r="C11" s="23"/>
+      <c r="D11" s="23"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
@@ -9669,11 +16372,12 @@
       <c r="U11" s="2"/>
     </row>
     <row r="12" spans="1:23" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="36"/>
       <c r="B12" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="C12" s="25"/>
-      <c r="D12" s="25"/>
+        <v>62</v>
+      </c>
+      <c r="C12" s="23"/>
+      <c r="D12" s="23"/>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
@@ -9692,29 +16396,143 @@
       <c r="T12" s="1"/>
       <c r="U12" s="2"/>
     </row>
-    <row r="13" spans="1:23" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="6" t="s">
+    <row r="13" spans="1:23" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="36"/>
+      <c r="B13" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="C13" s="23"/>
+      <c r="D13" s="23"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
+      <c r="M13" s="1"/>
+      <c r="N13" s="1"/>
+      <c r="O13" s="1"/>
+      <c r="P13" s="1"/>
+      <c r="Q13" s="1"/>
+      <c r="R13" s="1"/>
+      <c r="S13" s="1"/>
+      <c r="T13" s="1"/>
+      <c r="U13" s="2"/>
+    </row>
+    <row r="14" spans="1:23" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="36"/>
+      <c r="B14" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="C14" s="37"/>
+      <c r="D14" s="37"/>
+      <c r="E14" s="15"/>
+      <c r="F14" s="15"/>
+      <c r="G14" s="15"/>
+      <c r="H14" s="15"/>
+      <c r="I14" s="15"/>
+      <c r="J14" s="15"/>
+      <c r="K14" s="15"/>
+      <c r="L14" s="15"/>
+      <c r="M14" s="15"/>
+      <c r="N14" s="15"/>
+      <c r="O14" s="15"/>
+      <c r="P14" s="15"/>
+      <c r="Q14" s="15"/>
+      <c r="R14" s="15"/>
+      <c r="S14" s="15"/>
+      <c r="T14" s="15"/>
+      <c r="U14" s="16"/>
+    </row>
+    <row r="15" spans="1:23" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="36"/>
+      <c r="B15" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C13" s="26"/>
-      <c r="D13" s="26"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
-      <c r="K13" s="3"/>
-      <c r="L13" s="3"/>
-      <c r="M13" s="3"/>
-      <c r="N13" s="3"/>
-      <c r="O13" s="3"/>
-      <c r="P13" s="3"/>
-      <c r="Q13" s="3"/>
-      <c r="R13" s="3"/>
-      <c r="S13" s="3"/>
-      <c r="T13" s="3"/>
-      <c r="U13" s="4"/>
+      <c r="C15" s="24"/>
+      <c r="D15" s="24"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="K15" s="3"/>
+      <c r="L15" s="3"/>
+      <c r="M15" s="3"/>
+      <c r="N15" s="3"/>
+      <c r="O15" s="3"/>
+      <c r="P15" s="3"/>
+      <c r="Q15" s="3"/>
+      <c r="R15" s="3"/>
+      <c r="S15" s="3"/>
+      <c r="T15" s="3"/>
+      <c r="U15" s="4"/>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="C16">
+        <v>2</v>
+      </c>
+      <c r="D16">
+        <v>2</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>2</v>
+      </c>
+      <c r="G16">
+        <v>2</v>
+      </c>
+      <c r="H16">
+        <v>2</v>
+      </c>
+      <c r="I16">
+        <v>2</v>
+      </c>
+      <c r="J16">
+        <v>4</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>2</v>
+      </c>
+      <c r="M16">
+        <v>4</v>
+      </c>
+      <c r="N16">
+        <v>4</v>
+      </c>
+      <c r="O16">
+        <v>4</v>
+      </c>
+      <c r="P16">
+        <v>2</v>
+      </c>
+      <c r="Q16">
+        <v>4</v>
+      </c>
+      <c r="R16">
+        <v>4</v>
+      </c>
+      <c r="S16">
+        <v>4</v>
+      </c>
+      <c r="T16">
+        <v>2</v>
+      </c>
+      <c r="U16">
+        <v>4</v>
+      </c>
+      <c r="V16">
+        <f>SUM(C16:U16)</f>
+        <v>54</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -9727,9 +16545,195 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D16"/>
+  <sheetViews>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.85546875" customWidth="1"/>
+    <col min="4" max="4" width="20.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="17"/>
+      <c r="C2" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" s="22" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="38"/>
+      <c r="B3" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="C3" s="18">
+        <v>4</v>
+      </c>
+      <c r="D3" s="19" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="38"/>
+      <c r="B4" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="C4" s="18">
+        <v>2</v>
+      </c>
+      <c r="D4" s="19" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="38"/>
+      <c r="B5" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="C5" s="18">
+        <v>2</v>
+      </c>
+      <c r="D5" s="19" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="38"/>
+      <c r="B6" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="C6" s="18">
+        <v>4</v>
+      </c>
+      <c r="D6" s="19" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="38"/>
+      <c r="B7" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="C7" s="18">
+        <v>2</v>
+      </c>
+      <c r="D7" s="19" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="38"/>
+      <c r="B8" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="C8" s="18">
+        <v>2</v>
+      </c>
+      <c r="D8" s="19" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="38"/>
+      <c r="B9" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="C9" s="18">
+        <v>3</v>
+      </c>
+      <c r="D9" s="19" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="38"/>
+      <c r="B10" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="C10" s="18">
+        <v>3</v>
+      </c>
+      <c r="D10" s="19" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="38"/>
+      <c r="B11" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="C11" s="18">
+        <v>1</v>
+      </c>
+      <c r="D11" s="19" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="38"/>
+      <c r="B12" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="C12" s="18">
+        <v>2</v>
+      </c>
+      <c r="D12" s="19" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="38"/>
+      <c r="B13" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="C13" s="18">
+        <v>10</v>
+      </c>
+      <c r="D13" s="19" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="38"/>
+      <c r="B14" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="C14" s="20">
+        <v>30</v>
+      </c>
+      <c r="D14" s="21" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="38"/>
+      <c r="C15" s="39"/>
+      <c r="D15" s="39"/>
+    </row>
+    <row r="16" spans="1:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="38"/>
+      <c r="C16" s="39"/>
+      <c r="D16" s="39"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:Q18"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView topLeftCell="A7" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="K1" sqref="K1"/>
     </sheetView>
   </sheetViews>
@@ -9745,7 +16749,7 @@
   <sheetData>
     <row r="1" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B2" s="23"/>
+      <c r="B2" s="34"/>
       <c r="C2" s="7" t="s">
         <v>0</v>
       </c>
@@ -9787,7 +16791,7 @@
       </c>
     </row>
     <row r="3" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B3" s="24"/>
+      <c r="B3" s="35"/>
       <c r="C3" s="10" t="s">
         <v>1</v>
       </c>
@@ -10113,12 +17117,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:D17"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Rapport/Planning GANTT & Pert.xlsx
+++ b/Rapport/Planning GANTT & Pert.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="135" windowWidth="20115" windowHeight="7935"/>
+    <workbookView xWindow="240" yWindow="135" windowWidth="20115" windowHeight="7935" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Gantt" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="79">
   <si>
     <t>14/01</t>
   </si>
@@ -248,6 +248,12 @@
   </si>
   <si>
     <t>L - Rédaction rapport</t>
+  </si>
+  <si>
+    <t>H</t>
+  </si>
+  <si>
+    <t>C, D, H</t>
   </si>
 </sst>
 </file>
@@ -601,7 +607,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
@@ -688,12 +694,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -706,6 +706,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2228,7 +2235,7 @@
         </a:p>
       </dgm:t>
     </dgm:pt>
-    <dgm:pt modelId="{3B511561-540D-4D60-9012-6B5F66859F0A}">
+    <dgm:pt modelId="{776D0BEC-47DE-4E6B-ADE1-7FE8B40E2E09}">
       <dgm:prSet phldrT="[Texte]"/>
       <dgm:spPr/>
       <dgm:t>
@@ -2237,26 +2244,26 @@
         <a:p>
           <a:r>
             <a:rPr lang="fr-FR"/>
-            <a:t>Méthode rédaction rapport</a:t>
+            <a:t>Choix du sujet</a:t>
           </a:r>
           <a:br>
             <a:rPr lang="fr-FR"/>
           </a:br>
           <a:r>
             <a:rPr lang="fr-FR"/>
-            <a:t>Début : 14-janv</a:t>
+            <a:t>Début : 29-janv</a:t>
           </a:r>
           <a:br>
             <a:rPr lang="fr-FR"/>
           </a:br>
           <a:r>
             <a:rPr lang="fr-FR"/>
-            <a:t>Durée : 3</a:t>
+            <a:t>Durée : 4</a:t>
           </a:r>
         </a:p>
       </dgm:t>
     </dgm:pt>
-    <dgm:pt modelId="{F1CD7E7E-13BB-49DA-9082-073E3A45CC40}" type="parTrans" cxnId="{210227EB-D0A5-4A0A-A175-10AA1EA2C8CC}">
+    <dgm:pt modelId="{995A764C-4ED4-4A5F-8606-353224B7E370}" type="parTrans" cxnId="{75A107A9-AA02-44AC-B77E-EFEB95AD7BCF}">
       <dgm:prSet/>
       <dgm:spPr/>
       <dgm:t>
@@ -2267,7 +2274,7 @@
         </a:p>
       </dgm:t>
     </dgm:pt>
-    <dgm:pt modelId="{4002C46B-D68C-41CA-BFBF-E13B957324C3}" type="sibTrans" cxnId="{210227EB-D0A5-4A0A-A175-10AA1EA2C8CC}">
+    <dgm:pt modelId="{A47A1ADE-BF3F-45B8-B55F-6650BDBA2419}" type="sibTrans" cxnId="{75A107A9-AA02-44AC-B77E-EFEB95AD7BCF}">
       <dgm:prSet/>
       <dgm:spPr/>
       <dgm:t>
@@ -2278,7 +2285,7 @@
         </a:p>
       </dgm:t>
     </dgm:pt>
-    <dgm:pt modelId="{776D0BEC-47DE-4E6B-ADE1-7FE8B40E2E09}">
+    <dgm:pt modelId="{134B85BD-3620-48EB-B95B-84B5AF5ACB30}">
       <dgm:prSet phldrT="[Texte]"/>
       <dgm:spPr/>
       <dgm:t>
@@ -2287,26 +2294,26 @@
         <a:p>
           <a:r>
             <a:rPr lang="fr-FR"/>
-            <a:t>Choix du projet</a:t>
+            <a:t>Collecte des données</a:t>
           </a:r>
           <a:br>
             <a:rPr lang="fr-FR"/>
           </a:br>
           <a:r>
             <a:rPr lang="fr-FR"/>
-            <a:t>Début : 14-janv</a:t>
+            <a:t>Début : 05-fev</a:t>
           </a:r>
           <a:br>
             <a:rPr lang="fr-FR"/>
           </a:br>
           <a:r>
             <a:rPr lang="fr-FR"/>
-            <a:t>Durée : 1</a:t>
+            <a:t>Durée : 4</a:t>
           </a:r>
         </a:p>
       </dgm:t>
     </dgm:pt>
-    <dgm:pt modelId="{995A764C-4ED4-4A5F-8606-353224B7E370}" type="parTrans" cxnId="{75A107A9-AA02-44AC-B77E-EFEB95AD7BCF}">
+    <dgm:pt modelId="{8EA272DD-2EBF-4EBB-943D-F53C51381DBA}" type="parTrans" cxnId="{706E6AB8-A775-4638-9FCE-80B033F10578}">
       <dgm:prSet/>
       <dgm:spPr/>
       <dgm:t>
@@ -2317,7 +2324,7 @@
         </a:p>
       </dgm:t>
     </dgm:pt>
-    <dgm:pt modelId="{A47A1ADE-BF3F-45B8-B55F-6650BDBA2419}" type="sibTrans" cxnId="{75A107A9-AA02-44AC-B77E-EFEB95AD7BCF}">
+    <dgm:pt modelId="{53B6C978-0244-4642-8D2B-14C7DF6A4737}" type="sibTrans" cxnId="{706E6AB8-A775-4638-9FCE-80B033F10578}">
       <dgm:prSet/>
       <dgm:spPr/>
       <dgm:t>
@@ -2328,7 +2335,7 @@
         </a:p>
       </dgm:t>
     </dgm:pt>
-    <dgm:pt modelId="{134B85BD-3620-48EB-B95B-84B5AF5ACB30}">
+    <dgm:pt modelId="{B77806E4-5E41-4C6F-9442-D215D10C42E9}">
       <dgm:prSet phldrT="[Texte]"/>
       <dgm:spPr/>
       <dgm:t>
@@ -2337,26 +2344,26 @@
         <a:p>
           <a:r>
             <a:rPr lang="fr-FR"/>
-            <a:t>Réalisation schéma E/A</a:t>
+            <a:t>Nettoyage des données</a:t>
           </a:r>
           <a:br>
             <a:rPr lang="fr-FR"/>
           </a:br>
           <a:r>
             <a:rPr lang="fr-FR"/>
-            <a:t>Début : 16-janv</a:t>
+            <a:t>Début : 09-fev</a:t>
           </a:r>
           <a:br>
             <a:rPr lang="fr-FR"/>
           </a:br>
           <a:r>
             <a:rPr lang="fr-FR"/>
-            <a:t>Durée : 2</a:t>
+            <a:t>Durée : 8</a:t>
           </a:r>
         </a:p>
       </dgm:t>
     </dgm:pt>
-    <dgm:pt modelId="{8EA272DD-2EBF-4EBB-943D-F53C51381DBA}" type="parTrans" cxnId="{706E6AB8-A775-4638-9FCE-80B033F10578}">
+    <dgm:pt modelId="{607ACB9E-75FC-4DC8-82BC-D6E6C1DD98DE}" type="parTrans" cxnId="{979651A1-4273-4E7E-B0DC-BE96918F65C6}">
       <dgm:prSet/>
       <dgm:spPr/>
       <dgm:t>
@@ -2367,7 +2374,7 @@
         </a:p>
       </dgm:t>
     </dgm:pt>
-    <dgm:pt modelId="{53B6C978-0244-4642-8D2B-14C7DF6A4737}" type="sibTrans" cxnId="{706E6AB8-A775-4638-9FCE-80B033F10578}">
+    <dgm:pt modelId="{EBF090A8-395D-4D3F-8705-5004916A400A}" type="sibTrans" cxnId="{979651A1-4273-4E7E-B0DC-BE96918F65C6}">
       <dgm:prSet/>
       <dgm:spPr/>
       <dgm:t>
@@ -2378,7 +2385,157 @@
         </a:p>
       </dgm:t>
     </dgm:pt>
-    <dgm:pt modelId="{18EBF0C1-73A1-45C7-ACD3-AF8F69B97D3D}">
+    <dgm:pt modelId="{F602673A-62DA-438F-8B6A-1C63CCD94BDF}">
+      <dgm:prSet phldrT="[Texte]"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="fr-FR"/>
+            <a:t>Croisements sous Tétralogie</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="fr-FR"/>
+          </a:br>
+          <a:r>
+            <a:rPr lang="fr-FR"/>
+            <a:t>Début : 27-fev</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="fr-FR"/>
+          </a:br>
+          <a:r>
+            <a:rPr lang="fr-FR"/>
+            <a:t>Durée : 8</a:t>
+          </a:r>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{89C294FD-9D1C-44AE-B4CC-FCB48A67C5E0}" type="parTrans" cxnId="{EDB60A21-3DEA-42A4-BA0B-556B0A075C6D}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{7E337E4E-122A-4555-B7F7-736DF73CDA71}" type="sibTrans" cxnId="{EDB60A21-3DEA-42A4-BA0B-556B0A075C6D}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{29A52D27-0C72-4B86-BDF6-8986BD27A627}">
+      <dgm:prSet phldrT="[Texte]"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="fr-FR"/>
+            <a:t>Analyses statistiques</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="fr-FR"/>
+          </a:br>
+          <a:r>
+            <a:rPr lang="fr-FR"/>
+            <a:t>Début : 06-mars</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="fr-FR"/>
+          </a:br>
+          <a:r>
+            <a:rPr lang="fr-FR"/>
+            <a:t>Durée : 16</a:t>
+          </a:r>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{7F1F80C3-D6A0-4E23-854A-0AED3AFE2338}" type="parTrans" cxnId="{D09D1F45-4F3A-428B-BBFC-5F0232C389B1}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{3493E9FE-BE95-4960-8C53-3186FB69163E}" type="sibTrans" cxnId="{D09D1F45-4F3A-428B-BBFC-5F0232C389B1}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{D4D903E2-06E1-4B32-BB71-12B1DCFCEFAA}">
+      <dgm:prSet phldrT="[Texte]"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="fr-FR"/>
+            <a:t>Préparation du BE</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="fr-FR"/>
+          </a:br>
+          <a:r>
+            <a:rPr lang="fr-FR"/>
+            <a:t>Début : 19-janv</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="fr-FR"/>
+          </a:br>
+          <a:r>
+            <a:rPr lang="fr-FR"/>
+            <a:t>Durée : 4</a:t>
+          </a:r>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{EFFC68CB-0D54-4816-8177-DF837000B223}" type="parTrans" cxnId="{E1CCE85C-22CC-4FE4-9440-E1F6F1EB1E0A}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{4C86B8BB-3B6E-4347-B03F-A260AD6208E8}" type="sibTrans" cxnId="{E1CCE85C-22CC-4FE4-9440-E1F6F1EB1E0A}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{DE1979B4-6F02-47D2-89C1-89A41E6F6333}">
       <dgm:prSet phldrT="[Texte]"/>
       <dgm:spPr/>
       <dgm:t>
@@ -2394,19 +2551,19 @@
           </a:br>
           <a:r>
             <a:rPr lang="fr-FR"/>
-            <a:t>Début : 21-janv</a:t>
+            <a:t>Début : 02-fev</a:t>
           </a:r>
           <a:br>
             <a:rPr lang="fr-FR"/>
           </a:br>
           <a:r>
             <a:rPr lang="fr-FR"/>
-            <a:t>Durée : 20</a:t>
+            <a:t>Durée : 30</a:t>
           </a:r>
         </a:p>
       </dgm:t>
     </dgm:pt>
-    <dgm:pt modelId="{44B93ED7-AF09-4CBA-8E44-6247F41AE32A}" type="parTrans" cxnId="{4209FBA6-3DDD-4030-AA7E-E478E38301EA}">
+    <dgm:pt modelId="{D36542D5-D409-4B21-9BF0-5E55015D6D85}" type="parTrans" cxnId="{2DDF6FB2-A8CE-4ED0-A26C-6C00747CEDCB}">
       <dgm:prSet/>
       <dgm:spPr/>
       <dgm:t>
@@ -2417,7 +2574,7 @@
         </a:p>
       </dgm:t>
     </dgm:pt>
-    <dgm:pt modelId="{CFE38D19-4777-45E4-8E4E-EF735968B8A6}" type="sibTrans" cxnId="{4209FBA6-3DDD-4030-AA7E-E478E38301EA}">
+    <dgm:pt modelId="{0688E162-C9C8-4AFF-BBEC-CD344EEA9D12}" type="sibTrans" cxnId="{2DDF6FB2-A8CE-4ED0-A26C-6C00747CEDCB}">
       <dgm:prSet/>
       <dgm:spPr/>
       <dgm:t>
@@ -2428,7 +2585,7 @@
         </a:p>
       </dgm:t>
     </dgm:pt>
-    <dgm:pt modelId="{B77806E4-5E41-4C6F-9442-D215D10C42E9}">
+    <dgm:pt modelId="{3DF97E63-9293-4318-AE64-2FC9B1B99207}">
       <dgm:prSet phldrT="[Texte]"/>
       <dgm:spPr/>
       <dgm:t>
@@ -2437,14 +2594,14 @@
         <a:p>
           <a:r>
             <a:rPr lang="fr-FR"/>
-            <a:t>MCD</a:t>
+            <a:t>Peuplement de la BD</a:t>
           </a:r>
           <a:br>
             <a:rPr lang="fr-FR"/>
           </a:br>
           <a:r>
             <a:rPr lang="fr-FR"/>
-            <a:t>Début : 21-janv</a:t>
+            <a:t>Début : 09-mars</a:t>
           </a:r>
           <a:br>
             <a:rPr lang="fr-FR"/>
@@ -2456,7 +2613,7 @@
         </a:p>
       </dgm:t>
     </dgm:pt>
-    <dgm:pt modelId="{607ACB9E-75FC-4DC8-82BC-D6E6C1DD98DE}" type="parTrans" cxnId="{979651A1-4273-4E7E-B0DC-BE96918F65C6}">
+    <dgm:pt modelId="{DE6FC9B6-8CE9-4C51-B5E4-C3A507DC6867}" type="parTrans" cxnId="{140E6E31-BE26-459F-9971-428F139220E6}">
       <dgm:prSet/>
       <dgm:spPr/>
       <dgm:t>
@@ -2467,7 +2624,7 @@
         </a:p>
       </dgm:t>
     </dgm:pt>
-    <dgm:pt modelId="{EBF090A8-395D-4D3F-8705-5004916A400A}" type="sibTrans" cxnId="{979651A1-4273-4E7E-B0DC-BE96918F65C6}">
+    <dgm:pt modelId="{D196ED65-5CF4-433B-96E7-3C12F8B6F913}" type="sibTrans" cxnId="{140E6E31-BE26-459F-9971-428F139220E6}">
       <dgm:prSet/>
       <dgm:spPr/>
       <dgm:t>
@@ -2478,7 +2635,7 @@
         </a:p>
       </dgm:t>
     </dgm:pt>
-    <dgm:pt modelId="{F602673A-62DA-438F-8B6A-1C63CCD94BDF}">
+    <dgm:pt modelId="{B91C8629-C61F-4DEB-AF21-BD96B1F903FE}">
       <dgm:prSet phldrT="[Texte]"/>
       <dgm:spPr/>
       <dgm:t>
@@ -2487,26 +2644,26 @@
         <a:p>
           <a:r>
             <a:rPr lang="fr-FR"/>
-            <a:t>MLD</a:t>
+            <a:t>Requêtage</a:t>
           </a:r>
           <a:br>
             <a:rPr lang="fr-FR"/>
           </a:br>
           <a:r>
             <a:rPr lang="fr-FR"/>
-            <a:t>Début : 30-janv</a:t>
+            <a:t>Début : 13-mars</a:t>
           </a:r>
           <a:br>
             <a:rPr lang="fr-FR"/>
           </a:br>
           <a:r>
             <a:rPr lang="fr-FR"/>
-            <a:t>Durée : 2</a:t>
+            <a:t>Durée : 6</a:t>
           </a:r>
         </a:p>
       </dgm:t>
     </dgm:pt>
-    <dgm:pt modelId="{89C294FD-9D1C-44AE-B4CC-FCB48A67C5E0}" type="parTrans" cxnId="{EDB60A21-3DEA-42A4-BA0B-556B0A075C6D}">
+    <dgm:pt modelId="{4633A2FD-D89E-43CD-AE40-08FA515A5FCA}" type="parTrans" cxnId="{3FDA58D4-A6DE-4625-80C3-9300E198878A}">
       <dgm:prSet/>
       <dgm:spPr/>
       <dgm:t>
@@ -2517,7 +2674,7 @@
         </a:p>
       </dgm:t>
     </dgm:pt>
-    <dgm:pt modelId="{7E337E4E-122A-4555-B7F7-736DF73CDA71}" type="sibTrans" cxnId="{EDB60A21-3DEA-42A4-BA0B-556B0A075C6D}">
+    <dgm:pt modelId="{B86D1368-8007-4F64-B092-7FC0B4F0C858}" type="sibTrans" cxnId="{3FDA58D4-A6DE-4625-80C3-9300E198878A}">
       <dgm:prSet/>
       <dgm:spPr/>
       <dgm:t>
@@ -2528,7 +2685,7 @@
         </a:p>
       </dgm:t>
     </dgm:pt>
-    <dgm:pt modelId="{29A52D27-0C72-4B86-BDF6-8986BD27A627}">
+    <dgm:pt modelId="{C69F52B9-BD0A-44F6-8891-09BC83EFFE66}">
       <dgm:prSet phldrT="[Texte]"/>
       <dgm:spPr/>
       <dgm:t>
@@ -2537,26 +2694,26 @@
         <a:p>
           <a:r>
             <a:rPr lang="fr-FR"/>
-            <a:t>MPD</a:t>
+            <a:t>Analyse semantique</a:t>
           </a:r>
           <a:br>
             <a:rPr lang="fr-FR"/>
           </a:br>
           <a:r>
             <a:rPr lang="fr-FR"/>
-            <a:t>Début : 30-janv</a:t>
+            <a:t>Début : 17-mars</a:t>
           </a:r>
           <a:br>
             <a:rPr lang="fr-FR"/>
           </a:br>
           <a:r>
             <a:rPr lang="fr-FR"/>
-            <a:t>Durée : 2</a:t>
+            <a:t>Durée : 7</a:t>
           </a:r>
         </a:p>
       </dgm:t>
     </dgm:pt>
-    <dgm:pt modelId="{7F1F80C3-D6A0-4E23-854A-0AED3AFE2338}" type="parTrans" cxnId="{D09D1F45-4F3A-428B-BBFC-5F0232C389B1}">
+    <dgm:pt modelId="{2EEDFAB7-752B-4BD8-9C16-C36FB5A79EC2}" type="sibTrans" cxnId="{81FD78EC-1598-42A5-B8A5-D3C47B94879B}">
       <dgm:prSet/>
       <dgm:spPr/>
       <dgm:t>
@@ -2567,7 +2724,7 @@
         </a:p>
       </dgm:t>
     </dgm:pt>
-    <dgm:pt modelId="{3493E9FE-BE95-4960-8C53-3186FB69163E}" type="sibTrans" cxnId="{D09D1F45-4F3A-428B-BBFC-5F0232C389B1}">
+    <dgm:pt modelId="{A817198D-8D7E-473B-85A4-F850C69D01F3}" type="parTrans" cxnId="{81FD78EC-1598-42A5-B8A5-D3C47B94879B}">
       <dgm:prSet/>
       <dgm:spPr/>
       <dgm:t>
@@ -2578,7 +2735,7 @@
         </a:p>
       </dgm:t>
     </dgm:pt>
-    <dgm:pt modelId="{0EC93BCF-0FDE-4D2D-B892-4C27022C6195}">
+    <dgm:pt modelId="{A48183FA-0C1F-44D5-AF2C-D8790C37E447}">
       <dgm:prSet phldrT="[Texte]"/>
       <dgm:spPr/>
       <dgm:t>
@@ -2587,26 +2744,27 @@
         <a:p>
           <a:r>
             <a:rPr lang="fr-FR"/>
-            <a:t>Insertion des contraintes</a:t>
+            <a:t>Contrôle qualité</a:t>
           </a:r>
           <a:br>
             <a:rPr lang="fr-FR"/>
           </a:br>
           <a:r>
             <a:rPr lang="fr-FR"/>
-            <a:t>Début : 4-fev</a:t>
+            <a:t>Début : 09-fev</a:t>
           </a:r>
           <a:br>
             <a:rPr lang="fr-FR"/>
           </a:br>
           <a:r>
             <a:rPr lang="fr-FR"/>
-            <a:t>Durée : 3</a:t>
+            <a:t>Durée : 12</a:t>
           </a:r>
+          <a:endParaRPr lang="fr-FR"/>
         </a:p>
       </dgm:t>
     </dgm:pt>
-    <dgm:pt modelId="{A5AB1326-B9F0-4261-891C-6A2BF0703C26}" type="parTrans" cxnId="{4CB1984C-411D-4A2B-9932-80F12CBE0726}">
+    <dgm:pt modelId="{C0925ED0-72CC-4809-9A63-09DDB0FD787F}" type="parTrans" cxnId="{51FDE408-8A1C-43F6-8D9D-AA11583F28AF}">
       <dgm:prSet/>
       <dgm:spPr/>
       <dgm:t>
@@ -2617,7 +2775,7 @@
         </a:p>
       </dgm:t>
     </dgm:pt>
-    <dgm:pt modelId="{B5AAA810-4CCB-4B6D-A409-A8C566D49893}" type="sibTrans" cxnId="{4CB1984C-411D-4A2B-9932-80F12CBE0726}">
+    <dgm:pt modelId="{FC4A260F-2507-443C-A236-A2BA26CDE42E}" type="sibTrans" cxnId="{51FDE408-8A1C-43F6-8D9D-AA11583F28AF}">
       <dgm:prSet/>
       <dgm:spPr/>
       <dgm:t>
@@ -2628,7 +2786,7 @@
         </a:p>
       </dgm:t>
     </dgm:pt>
-    <dgm:pt modelId="{5C7ED44A-FEB0-4B16-A584-289B57C52515}">
+    <dgm:pt modelId="{900F308B-402F-4EF5-BD06-56306AA84F2A}">
       <dgm:prSet phldrT="[Texte]"/>
       <dgm:spPr/>
       <dgm:t>
@@ -2637,164 +2795,14 @@
         <a:p>
           <a:r>
             <a:rPr lang="fr-FR"/>
-            <a:t>Insertion des données</a:t>
+            <a:t>Définition du schéma de la BD</a:t>
           </a:r>
           <a:br>
             <a:rPr lang="fr-FR"/>
           </a:br>
           <a:r>
             <a:rPr lang="fr-FR"/>
-            <a:t>Début : 4-fev</a:t>
-          </a:r>
-          <a:br>
-            <a:rPr lang="fr-FR"/>
-          </a:br>
-          <a:r>
-            <a:rPr lang="fr-FR"/>
-            <a:t>Durée : 3</a:t>
-          </a:r>
-        </a:p>
-      </dgm:t>
-    </dgm:pt>
-    <dgm:pt modelId="{4161B1B0-37CD-4FB0-A1E4-AB964CEC2D39}" type="parTrans" cxnId="{E42A3688-26CD-4998-80F4-9A06406AEF19}">
-      <dgm:prSet/>
-      <dgm:spPr/>
-      <dgm:t>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:endParaRPr lang="fr-FR"/>
-        </a:p>
-      </dgm:t>
-    </dgm:pt>
-    <dgm:pt modelId="{A4C950D2-930A-4B17-AADC-A3640D06B40B}" type="sibTrans" cxnId="{E42A3688-26CD-4998-80F4-9A06406AEF19}">
-      <dgm:prSet/>
-      <dgm:spPr/>
-      <dgm:t>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:endParaRPr lang="fr-FR"/>
-        </a:p>
-      </dgm:t>
-    </dgm:pt>
-    <dgm:pt modelId="{0FB7C147-80F0-40B6-BCF8-0234456366D0}">
-      <dgm:prSet phldrT="[Texte]"/>
-      <dgm:spPr/>
-      <dgm:t>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="fr-FR"/>
-            <a:t>MCT</a:t>
-          </a:r>
-          <a:br>
-            <a:rPr lang="fr-FR"/>
-          </a:br>
-          <a:r>
-            <a:rPr lang="fr-FR"/>
-            <a:t>Début : 13-fev</a:t>
-          </a:r>
-          <a:br>
-            <a:rPr lang="fr-FR"/>
-          </a:br>
-          <a:r>
-            <a:rPr lang="fr-FR"/>
-            <a:t>Durée : 2</a:t>
-          </a:r>
-        </a:p>
-      </dgm:t>
-    </dgm:pt>
-    <dgm:pt modelId="{854B2F6E-D979-4631-B36A-EB876E169C2A}" type="parTrans" cxnId="{0F231AB9-72F0-497F-98D0-7054457EF219}">
-      <dgm:prSet/>
-      <dgm:spPr/>
-      <dgm:t>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:endParaRPr lang="fr-FR"/>
-        </a:p>
-      </dgm:t>
-    </dgm:pt>
-    <dgm:pt modelId="{4CC8D2B3-8806-459D-B3F2-24B8007022DF}" type="sibTrans" cxnId="{0F231AB9-72F0-497F-98D0-7054457EF219}">
-      <dgm:prSet/>
-      <dgm:spPr/>
-      <dgm:t>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:endParaRPr lang="fr-FR"/>
-        </a:p>
-      </dgm:t>
-    </dgm:pt>
-    <dgm:pt modelId="{768E160C-522E-4B89-92F7-715AE39400B5}">
-      <dgm:prSet phldrT="[Texte]"/>
-      <dgm:spPr/>
-      <dgm:t>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="fr-FR"/>
-            <a:t>MLT</a:t>
-          </a:r>
-          <a:br>
-            <a:rPr lang="fr-FR"/>
-          </a:br>
-          <a:r>
-            <a:rPr lang="fr-FR"/>
-            <a:t>Début : 13-fev</a:t>
-          </a:r>
-          <a:br>
-            <a:rPr lang="fr-FR"/>
-          </a:br>
-          <a:r>
-            <a:rPr lang="fr-FR"/>
-            <a:t>Durée : 2</a:t>
-          </a:r>
-        </a:p>
-      </dgm:t>
-    </dgm:pt>
-    <dgm:pt modelId="{B5ADEC2E-D8CE-4A44-A59A-3B7CE8BCCAE9}" type="parTrans" cxnId="{5D04529A-368C-45C0-B804-702F36411C68}">
-      <dgm:prSet/>
-      <dgm:spPr/>
-      <dgm:t>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:endParaRPr lang="fr-FR"/>
-        </a:p>
-      </dgm:t>
-    </dgm:pt>
-    <dgm:pt modelId="{BD8B459B-6D9D-4C6B-820C-8BC1D5EC314F}" type="sibTrans" cxnId="{5D04529A-368C-45C0-B804-702F36411C68}">
-      <dgm:prSet/>
-      <dgm:spPr/>
-      <dgm:t>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:endParaRPr lang="fr-FR"/>
-        </a:p>
-      </dgm:t>
-    </dgm:pt>
-    <dgm:pt modelId="{5531E4BA-D402-4979-B681-83057DF50F65}">
-      <dgm:prSet phldrT="[Texte]"/>
-      <dgm:spPr/>
-      <dgm:t>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="fr-FR"/>
-            <a:t>MPT</a:t>
-          </a:r>
-          <a:br>
-            <a:rPr lang="fr-FR"/>
-          </a:br>
-          <a:r>
-            <a:rPr lang="fr-FR"/>
-            <a:t>Début : 14-fev</a:t>
+            <a:t>Début : 6-mars</a:t>
           </a:r>
           <a:br>
             <a:rPr lang="fr-FR"/>
@@ -2806,7 +2814,7 @@
         </a:p>
       </dgm:t>
     </dgm:pt>
-    <dgm:pt modelId="{1411A133-F459-42AB-BA96-8F674F6348E3}" type="parTrans" cxnId="{89950D4B-7EF0-4A35-9363-F16B00BC1EDC}">
+    <dgm:pt modelId="{F1A57523-45CA-4602-95AA-DFF7597A4BA4}" type="parTrans" cxnId="{4AADD5DB-B356-46BE-A6F0-0ACE1D74FDD5}">
       <dgm:prSet/>
       <dgm:spPr/>
       <dgm:t>
@@ -2817,157 +2825,7 @@
         </a:p>
       </dgm:t>
     </dgm:pt>
-    <dgm:pt modelId="{973CCD46-1E97-4FCE-9041-80E4FCF61825}" type="sibTrans" cxnId="{89950D4B-7EF0-4A35-9363-F16B00BC1EDC}">
-      <dgm:prSet/>
-      <dgm:spPr/>
-      <dgm:t>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:endParaRPr lang="fr-FR"/>
-        </a:p>
-      </dgm:t>
-    </dgm:pt>
-    <dgm:pt modelId="{0E8035DB-CE5A-4BB8-ADBD-069EA0ED8D0B}">
-      <dgm:prSet phldrT="[Texte]"/>
-      <dgm:spPr/>
-      <dgm:t>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="fr-FR"/>
-            <a:t>Réflexion procédures</a:t>
-          </a:r>
-          <a:br>
-            <a:rPr lang="fr-FR"/>
-          </a:br>
-          <a:r>
-            <a:rPr lang="fr-FR"/>
-            <a:t>Début : 6-fev</a:t>
-          </a:r>
-          <a:br>
-            <a:rPr lang="fr-FR"/>
-          </a:br>
-          <a:r>
-            <a:rPr lang="fr-FR"/>
-            <a:t>Durée : 1</a:t>
-          </a:r>
-        </a:p>
-      </dgm:t>
-    </dgm:pt>
-    <dgm:pt modelId="{566746CA-63BA-4C9B-A67F-EC9E3216E435}" type="parTrans" cxnId="{D8A3EB9B-E261-442E-AB63-DCE8C7730BB4}">
-      <dgm:prSet/>
-      <dgm:spPr/>
-      <dgm:t>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:endParaRPr lang="fr-FR"/>
-        </a:p>
-      </dgm:t>
-    </dgm:pt>
-    <dgm:pt modelId="{28A9D3BA-DCAD-4EAB-A1F9-2374F6109AC8}" type="sibTrans" cxnId="{D8A3EB9B-E261-442E-AB63-DCE8C7730BB4}">
-      <dgm:prSet/>
-      <dgm:spPr/>
-      <dgm:t>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:endParaRPr lang="fr-FR"/>
-        </a:p>
-      </dgm:t>
-    </dgm:pt>
-    <dgm:pt modelId="{3BE0EFDE-10D7-4D14-8542-603E1813DCBE}">
-      <dgm:prSet phldrT="[Texte]"/>
-      <dgm:spPr/>
-      <dgm:t>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="fr-FR"/>
-            <a:t>Coder procédures</a:t>
-          </a:r>
-          <a:br>
-            <a:rPr lang="fr-FR"/>
-          </a:br>
-          <a:r>
-            <a:rPr lang="fr-FR"/>
-            <a:t>Début : 11-fev</a:t>
-          </a:r>
-          <a:br>
-            <a:rPr lang="fr-FR"/>
-          </a:br>
-          <a:r>
-            <a:rPr lang="fr-FR"/>
-            <a:t>Durée : 2</a:t>
-          </a:r>
-        </a:p>
-      </dgm:t>
-    </dgm:pt>
-    <dgm:pt modelId="{CE019054-3759-40ED-8E26-F0A61CEC1E08}" type="parTrans" cxnId="{28287890-02EE-403C-B101-2AAF106B28BF}">
-      <dgm:prSet/>
-      <dgm:spPr/>
-      <dgm:t>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:endParaRPr lang="fr-FR"/>
-        </a:p>
-      </dgm:t>
-    </dgm:pt>
-    <dgm:pt modelId="{F0EC321D-12B2-4E4C-8D3C-EE75D20E209F}" type="sibTrans" cxnId="{28287890-02EE-403C-B101-2AAF106B28BF}">
-      <dgm:prSet/>
-      <dgm:spPr/>
-      <dgm:t>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:endParaRPr lang="fr-FR"/>
-        </a:p>
-      </dgm:t>
-    </dgm:pt>
-    <dgm:pt modelId="{9E3D3546-BC47-44E3-9D79-E89C9B97704A}">
-      <dgm:prSet phldrT="[Texte]"/>
-      <dgm:spPr/>
-      <dgm:t>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="fr-FR"/>
-            <a:t>Application Web</a:t>
-          </a:r>
-          <a:br>
-            <a:rPr lang="fr-FR"/>
-          </a:br>
-          <a:r>
-            <a:rPr lang="fr-FR"/>
-            <a:t>Début : 25-fev</a:t>
-          </a:r>
-          <a:br>
-            <a:rPr lang="fr-FR"/>
-          </a:br>
-          <a:r>
-            <a:rPr lang="fr-FR"/>
-            <a:t>Durée : 2</a:t>
-          </a:r>
-        </a:p>
-      </dgm:t>
-    </dgm:pt>
-    <dgm:pt modelId="{DCFD2C52-897E-4D3F-AACC-77B80F8F0AD2}" type="parTrans" cxnId="{26AA50AD-5C6E-4EB9-A870-02F900FD946F}">
-      <dgm:prSet/>
-      <dgm:spPr/>
-      <dgm:t>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:endParaRPr lang="fr-FR"/>
-        </a:p>
-      </dgm:t>
-    </dgm:pt>
-    <dgm:pt modelId="{7F41C496-6DE7-4D2D-9C0B-99188FE5D559}" type="sibTrans" cxnId="{26AA50AD-5C6E-4EB9-A870-02F900FD946F}">
+    <dgm:pt modelId="{6B5F69E7-6B22-467C-BD09-FD6EA5C0FFD9}" type="sibTrans" cxnId="{4AADD5DB-B356-46BE-A6F0-0ACE1D74FDD5}">
       <dgm:prSet/>
       <dgm:spPr/>
       <dgm:t>
@@ -2997,12 +2855,12 @@
         </a:p>
       </dgm:t>
     </dgm:pt>
-    <dgm:pt modelId="{83E255F8-7C36-4FB5-8AE6-6E4CF3F0B89D}" type="pres">
-      <dgm:prSet presAssocID="{3B511561-540D-4D60-9012-6B5F66859F0A}" presName="root1" presStyleCnt="0"/>
-      <dgm:spPr/>
-    </dgm:pt>
-    <dgm:pt modelId="{80BA89DD-5EE5-44E2-A103-0E52084D4145}" type="pres">
-      <dgm:prSet presAssocID="{3B511561-540D-4D60-9012-6B5F66859F0A}" presName="LevelOneTextNode" presStyleLbl="node0" presStyleIdx="0" presStyleCnt="2">
+    <dgm:pt modelId="{707108AA-18B4-4099-A669-6BB1E39EEB5F}" type="pres">
+      <dgm:prSet presAssocID="{D4D903E2-06E1-4B32-BB71-12B1DCFCEFAA}" presName="root1" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{B998B3DF-C3A4-49F5-AD4E-914F87E1B887}" type="pres">
+      <dgm:prSet presAssocID="{D4D903E2-06E1-4B32-BB71-12B1DCFCEFAA}" presName="LevelOneTextNode" presStyleLbl="node0" presStyleIdx="0" presStyleCnt="2">
         <dgm:presLayoutVars>
           <dgm:chPref val="3"/>
         </dgm:presLayoutVars>
@@ -3016,12 +2874,12 @@
         </a:p>
       </dgm:t>
     </dgm:pt>
-    <dgm:pt modelId="{B681C0BC-5BEF-4DB8-BF50-3B081297BB68}" type="pres">
-      <dgm:prSet presAssocID="{3B511561-540D-4D60-9012-6B5F66859F0A}" presName="level2hierChild" presStyleCnt="0"/>
-      <dgm:spPr/>
-    </dgm:pt>
-    <dgm:pt modelId="{D6A70E11-5D25-443F-9694-1E5BFDA45171}" type="pres">
-      <dgm:prSet presAssocID="{44B93ED7-AF09-4CBA-8E44-6247F41AE32A}" presName="conn2-1" presStyleLbl="parChTrans1D2" presStyleIdx="0" presStyleCnt="2"/>
+    <dgm:pt modelId="{55522141-06EB-41A6-BAED-7359973E7720}" type="pres">
+      <dgm:prSet presAssocID="{D4D903E2-06E1-4B32-BB71-12B1DCFCEFAA}" presName="level2hierChild" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{2140AD49-6339-43DF-B2A4-5DCD5E6A45DC}" type="pres">
+      <dgm:prSet presAssocID="{995A764C-4ED4-4A5F-8606-353224B7E370}" presName="conn2-1" presStyleLbl="parChTrans1D2" presStyleIdx="0" presStyleCnt="1"/>
       <dgm:spPr/>
       <dgm:t>
         <a:bodyPr/>
@@ -3031,8 +2889,8 @@
         </a:p>
       </dgm:t>
     </dgm:pt>
-    <dgm:pt modelId="{1A256CA1-F071-49F1-963C-5372D2A06396}" type="pres">
-      <dgm:prSet presAssocID="{44B93ED7-AF09-4CBA-8E44-6247F41AE32A}" presName="connTx" presStyleLbl="parChTrans1D2" presStyleIdx="0" presStyleCnt="2"/>
+    <dgm:pt modelId="{D08E52E4-0732-455B-8EF1-5A8E53C0F9C7}" type="pres">
+      <dgm:prSet presAssocID="{995A764C-4ED4-4A5F-8606-353224B7E370}" presName="connTx" presStyleLbl="parChTrans1D2" presStyleIdx="0" presStyleCnt="1"/>
       <dgm:spPr/>
       <dgm:t>
         <a:bodyPr/>
@@ -3042,12 +2900,12 @@
         </a:p>
       </dgm:t>
     </dgm:pt>
-    <dgm:pt modelId="{D0AC582E-B979-4B25-80A7-E099CC928076}" type="pres">
-      <dgm:prSet presAssocID="{18EBF0C1-73A1-45C7-ACD3-AF8F69B97D3D}" presName="root2" presStyleCnt="0"/>
-      <dgm:spPr/>
-    </dgm:pt>
-    <dgm:pt modelId="{1507B06C-5D98-48B4-BA05-490C7F303DEC}" type="pres">
-      <dgm:prSet presAssocID="{18EBF0C1-73A1-45C7-ACD3-AF8F69B97D3D}" presName="LevelTwoTextNode" presStyleLbl="node2" presStyleIdx="0" presStyleCnt="2" custLinFactNeighborX="88527">
+    <dgm:pt modelId="{3B3FC60E-F24F-4303-8D69-77FE9988B470}" type="pres">
+      <dgm:prSet presAssocID="{776D0BEC-47DE-4E6B-ADE1-7FE8B40E2E09}" presName="root2" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{637FBC33-6F9D-4F81-9272-11AD1DDE6A69}" type="pres">
+      <dgm:prSet presAssocID="{776D0BEC-47DE-4E6B-ADE1-7FE8B40E2E09}" presName="LevelTwoTextNode" presStyleLbl="node2" presStyleIdx="0" presStyleCnt="1">
         <dgm:presLayoutVars>
           <dgm:chPref val="3"/>
         </dgm:presLayoutVars>
@@ -3061,16 +2919,38 @@
         </a:p>
       </dgm:t>
     </dgm:pt>
-    <dgm:pt modelId="{F7871F3F-76A0-44A8-BB5D-1E5EEBC9ADD0}" type="pres">
-      <dgm:prSet presAssocID="{18EBF0C1-73A1-45C7-ACD3-AF8F69B97D3D}" presName="level3hierChild" presStyleCnt="0"/>
-      <dgm:spPr/>
-    </dgm:pt>
-    <dgm:pt modelId="{4DE61D29-26D4-4F75-A52E-8A64166CB565}" type="pres">
-      <dgm:prSet presAssocID="{776D0BEC-47DE-4E6B-ADE1-7FE8B40E2E09}" presName="root1" presStyleCnt="0"/>
-      <dgm:spPr/>
-    </dgm:pt>
-    <dgm:pt modelId="{523484C6-151E-4DF4-9AFB-1C19DFC859D2}" type="pres">
-      <dgm:prSet presAssocID="{776D0BEC-47DE-4E6B-ADE1-7FE8B40E2E09}" presName="LevelOneTextNode" presStyleLbl="node0" presStyleIdx="1" presStyleCnt="2">
+    <dgm:pt modelId="{66A177E8-8696-45CF-A8D4-A04073C8E7AC}" type="pres">
+      <dgm:prSet presAssocID="{776D0BEC-47DE-4E6B-ADE1-7FE8B40E2E09}" presName="level3hierChild" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{9FFDCA42-22D2-4A50-BF6F-47A44B7D806D}" type="pres">
+      <dgm:prSet presAssocID="{8EA272DD-2EBF-4EBB-943D-F53C51381DBA}" presName="conn2-1" presStyleLbl="parChTrans1D3" presStyleIdx="0" presStyleCnt="1"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{6B88C7CC-3ACA-4195-BB54-4D493131B3BA}" type="pres">
+      <dgm:prSet presAssocID="{8EA272DD-2EBF-4EBB-943D-F53C51381DBA}" presName="connTx" presStyleLbl="parChTrans1D3" presStyleIdx="0" presStyleCnt="1"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{5D5F162A-F0F6-48B1-BCF1-F84A13273B56}" type="pres">
+      <dgm:prSet presAssocID="{134B85BD-3620-48EB-B95B-84B5AF5ACB30}" presName="root2" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{3255085A-EA4C-464E-A12B-E265EAA6B927}" type="pres">
+      <dgm:prSet presAssocID="{134B85BD-3620-48EB-B95B-84B5AF5ACB30}" presName="LevelTwoTextNode" presStyleLbl="node3" presStyleIdx="0" presStyleCnt="1">
         <dgm:presLayoutVars>
           <dgm:chPref val="3"/>
         </dgm:presLayoutVars>
@@ -3084,12 +2964,12 @@
         </a:p>
       </dgm:t>
     </dgm:pt>
-    <dgm:pt modelId="{E02B2B7C-181F-4B3A-AE58-6B63EF7EF768}" type="pres">
-      <dgm:prSet presAssocID="{776D0BEC-47DE-4E6B-ADE1-7FE8B40E2E09}" presName="level2hierChild" presStyleCnt="0"/>
-      <dgm:spPr/>
-    </dgm:pt>
-    <dgm:pt modelId="{9FFDCA42-22D2-4A50-BF6F-47A44B7D806D}" type="pres">
-      <dgm:prSet presAssocID="{8EA272DD-2EBF-4EBB-943D-F53C51381DBA}" presName="conn2-1" presStyleLbl="parChTrans1D2" presStyleIdx="1" presStyleCnt="2"/>
+    <dgm:pt modelId="{59169C00-3143-4A51-918E-F58600B214B4}" type="pres">
+      <dgm:prSet presAssocID="{134B85BD-3620-48EB-B95B-84B5AF5ACB30}" presName="level3hierChild" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{DA8672FA-9F10-4934-92F4-9B0E03E504AC}" type="pres">
+      <dgm:prSet presAssocID="{607ACB9E-75FC-4DC8-82BC-D6E6C1DD98DE}" presName="conn2-1" presStyleLbl="parChTrans1D4" presStyleIdx="0" presStyleCnt="8"/>
       <dgm:spPr/>
       <dgm:t>
         <a:bodyPr/>
@@ -3099,8 +2979,8 @@
         </a:p>
       </dgm:t>
     </dgm:pt>
-    <dgm:pt modelId="{6B88C7CC-3ACA-4195-BB54-4D493131B3BA}" type="pres">
-      <dgm:prSet presAssocID="{8EA272DD-2EBF-4EBB-943D-F53C51381DBA}" presName="connTx" presStyleLbl="parChTrans1D2" presStyleIdx="1" presStyleCnt="2"/>
+    <dgm:pt modelId="{EDFDE935-BFCE-4424-AB93-AA691740BB95}" type="pres">
+      <dgm:prSet presAssocID="{607ACB9E-75FC-4DC8-82BC-D6E6C1DD98DE}" presName="connTx" presStyleLbl="parChTrans1D4" presStyleIdx="0" presStyleCnt="8"/>
       <dgm:spPr/>
       <dgm:t>
         <a:bodyPr/>
@@ -3110,12 +2990,12 @@
         </a:p>
       </dgm:t>
     </dgm:pt>
-    <dgm:pt modelId="{5D5F162A-F0F6-48B1-BCF1-F84A13273B56}" type="pres">
-      <dgm:prSet presAssocID="{134B85BD-3620-48EB-B95B-84B5AF5ACB30}" presName="root2" presStyleCnt="0"/>
-      <dgm:spPr/>
-    </dgm:pt>
-    <dgm:pt modelId="{3255085A-EA4C-464E-A12B-E265EAA6B927}" type="pres">
-      <dgm:prSet presAssocID="{134B85BD-3620-48EB-B95B-84B5AF5ACB30}" presName="LevelTwoTextNode" presStyleLbl="node2" presStyleIdx="1" presStyleCnt="2">
+    <dgm:pt modelId="{15217014-ADB2-4539-A3A9-8C048104CD65}" type="pres">
+      <dgm:prSet presAssocID="{B77806E4-5E41-4C6F-9442-D215D10C42E9}" presName="root2" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{A98771A6-1065-426D-AB17-244C08354536}" type="pres">
+      <dgm:prSet presAssocID="{B77806E4-5E41-4C6F-9442-D215D10C42E9}" presName="LevelTwoTextNode" presStyleLbl="node4" presStyleIdx="0" presStyleCnt="8">
         <dgm:presLayoutVars>
           <dgm:chPref val="3"/>
         </dgm:presLayoutVars>
@@ -3129,38 +3009,24 @@
         </a:p>
       </dgm:t>
     </dgm:pt>
-    <dgm:pt modelId="{59169C00-3143-4A51-918E-F58600B214B4}" type="pres">
-      <dgm:prSet presAssocID="{134B85BD-3620-48EB-B95B-84B5AF5ACB30}" presName="level3hierChild" presStyleCnt="0"/>
-      <dgm:spPr/>
-    </dgm:pt>
-    <dgm:pt modelId="{DA8672FA-9F10-4934-92F4-9B0E03E504AC}" type="pres">
-      <dgm:prSet presAssocID="{607ACB9E-75FC-4DC8-82BC-D6E6C1DD98DE}" presName="conn2-1" presStyleLbl="parChTrans1D3" presStyleIdx="0" presStyleCnt="1"/>
-      <dgm:spPr/>
-      <dgm:t>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:endParaRPr lang="fr-FR"/>
-        </a:p>
-      </dgm:t>
-    </dgm:pt>
-    <dgm:pt modelId="{EDFDE935-BFCE-4424-AB93-AA691740BB95}" type="pres">
-      <dgm:prSet presAssocID="{607ACB9E-75FC-4DC8-82BC-D6E6C1DD98DE}" presName="connTx" presStyleLbl="parChTrans1D3" presStyleIdx="0" presStyleCnt="1"/>
-      <dgm:spPr/>
-      <dgm:t>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:endParaRPr lang="fr-FR"/>
-        </a:p>
-      </dgm:t>
-    </dgm:pt>
-    <dgm:pt modelId="{15217014-ADB2-4539-A3A9-8C048104CD65}" type="pres">
-      <dgm:prSet presAssocID="{B77806E4-5E41-4C6F-9442-D215D10C42E9}" presName="root2" presStyleCnt="0"/>
-      <dgm:spPr/>
-    </dgm:pt>
-    <dgm:pt modelId="{A98771A6-1065-426D-AB17-244C08354536}" type="pres">
-      <dgm:prSet presAssocID="{B77806E4-5E41-4C6F-9442-D215D10C42E9}" presName="LevelTwoTextNode" presStyleLbl="node3" presStyleIdx="0" presStyleCnt="1">
+    <dgm:pt modelId="{11FFBD11-4BEC-4B06-928B-8BD352E6B1F2}" type="pres">
+      <dgm:prSet presAssocID="{B77806E4-5E41-4C6F-9442-D215D10C42E9}" presName="level3hierChild" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{194D1AF4-BC77-4835-A7CF-9D75DD8D4C8E}" type="pres">
+      <dgm:prSet presAssocID="{F1A57523-45CA-4602-95AA-DFF7597A4BA4}" presName="conn2-1" presStyleLbl="parChTrans1D4" presStyleIdx="1" presStyleCnt="8"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{1F35D507-9907-4824-8495-257F556B7340}" type="pres">
+      <dgm:prSet presAssocID="{F1A57523-45CA-4602-95AA-DFF7597A4BA4}" presName="connTx" presStyleLbl="parChTrans1D4" presStyleIdx="1" presStyleCnt="8"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{CFD50845-1129-4380-ABD4-AFEE06535CF2}" type="pres">
+      <dgm:prSet presAssocID="{900F308B-402F-4EF5-BD06-56306AA84F2A}" presName="root2" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{C40A0F12-8707-4462-A273-77E543D6FDD9}" type="pres">
+      <dgm:prSet presAssocID="{900F308B-402F-4EF5-BD06-56306AA84F2A}" presName="LevelTwoTextNode" presStyleLbl="node4" presStyleIdx="1" presStyleCnt="8" custLinFactNeighborX="-141" custLinFactNeighborY="-17021">
         <dgm:presLayoutVars>
           <dgm:chPref val="3"/>
         </dgm:presLayoutVars>
@@ -3174,38 +3040,24 @@
         </a:p>
       </dgm:t>
     </dgm:pt>
-    <dgm:pt modelId="{11FFBD11-4BEC-4B06-928B-8BD352E6B1F2}" type="pres">
-      <dgm:prSet presAssocID="{B77806E4-5E41-4C6F-9442-D215D10C42E9}" presName="level3hierChild" presStyleCnt="0"/>
-      <dgm:spPr/>
-    </dgm:pt>
-    <dgm:pt modelId="{DB1231E3-4B3A-43E1-A60A-E362EA672D1D}" type="pres">
-      <dgm:prSet presAssocID="{89C294FD-9D1C-44AE-B4CC-FCB48A67C5E0}" presName="conn2-1" presStyleLbl="parChTrans1D4" presStyleIdx="0" presStyleCnt="10"/>
-      <dgm:spPr/>
-      <dgm:t>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:endParaRPr lang="fr-FR"/>
-        </a:p>
-      </dgm:t>
-    </dgm:pt>
-    <dgm:pt modelId="{25A47253-B623-4CF0-9753-CA45DCB14863}" type="pres">
-      <dgm:prSet presAssocID="{89C294FD-9D1C-44AE-B4CC-FCB48A67C5E0}" presName="connTx" presStyleLbl="parChTrans1D4" presStyleIdx="0" presStyleCnt="10"/>
-      <dgm:spPr/>
-      <dgm:t>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:endParaRPr lang="fr-FR"/>
-        </a:p>
-      </dgm:t>
-    </dgm:pt>
-    <dgm:pt modelId="{1F149E23-F7C7-47CE-9A69-1F93DFC3E2B8}" type="pres">
-      <dgm:prSet presAssocID="{F602673A-62DA-438F-8B6A-1C63CCD94BDF}" presName="root2" presStyleCnt="0"/>
-      <dgm:spPr/>
-    </dgm:pt>
-    <dgm:pt modelId="{63F1F962-4995-42B6-8526-0700788F3DE4}" type="pres">
-      <dgm:prSet presAssocID="{F602673A-62DA-438F-8B6A-1C63CCD94BDF}" presName="LevelTwoTextNode" presStyleLbl="node4" presStyleIdx="0" presStyleCnt="10" custLinFactNeighborX="1213" custLinFactNeighborY="-48508">
+    <dgm:pt modelId="{6EC3E51A-1194-4637-9056-7D07716410F0}" type="pres">
+      <dgm:prSet presAssocID="{900F308B-402F-4EF5-BD06-56306AA84F2A}" presName="level3hierChild" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{6C9543BE-BDBA-4FEC-924B-8083F6303B82}" type="pres">
+      <dgm:prSet presAssocID="{DE6FC9B6-8CE9-4C51-B5E4-C3A507DC6867}" presName="conn2-1" presStyleLbl="parChTrans1D4" presStyleIdx="2" presStyleCnt="8"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{DDDB1552-31E1-447E-8029-97E98501487D}" type="pres">
+      <dgm:prSet presAssocID="{DE6FC9B6-8CE9-4C51-B5E4-C3A507DC6867}" presName="connTx" presStyleLbl="parChTrans1D4" presStyleIdx="2" presStyleCnt="8"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{63FF4A88-6DA6-43B2-B18A-7150D1DCF313}" type="pres">
+      <dgm:prSet presAssocID="{3DF97E63-9293-4318-AE64-2FC9B1B99207}" presName="root2" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{D09B0EF9-7C4F-4DBD-8C24-6856B794700D}" type="pres">
+      <dgm:prSet presAssocID="{3DF97E63-9293-4318-AE64-2FC9B1B99207}" presName="LevelTwoTextNode" presStyleLbl="node4" presStyleIdx="2" presStyleCnt="8" custLinFactNeighborY="-16512">
         <dgm:presLayoutVars>
           <dgm:chPref val="3"/>
         </dgm:presLayoutVars>
@@ -3219,38 +3071,24 @@
         </a:p>
       </dgm:t>
     </dgm:pt>
-    <dgm:pt modelId="{CB6FC48F-9DE9-490E-BEAC-13B47672CB2E}" type="pres">
-      <dgm:prSet presAssocID="{F602673A-62DA-438F-8B6A-1C63CCD94BDF}" presName="level3hierChild" presStyleCnt="0"/>
-      <dgm:spPr/>
-    </dgm:pt>
-    <dgm:pt modelId="{F5F7CDA6-8199-4DE5-9A64-4B4E2B197201}" type="pres">
-      <dgm:prSet presAssocID="{7F1F80C3-D6A0-4E23-854A-0AED3AFE2338}" presName="conn2-1" presStyleLbl="parChTrans1D4" presStyleIdx="1" presStyleCnt="10"/>
-      <dgm:spPr/>
-      <dgm:t>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:endParaRPr lang="fr-FR"/>
-        </a:p>
-      </dgm:t>
-    </dgm:pt>
-    <dgm:pt modelId="{7700C75A-0051-40BB-899E-A0D0389B2DCF}" type="pres">
-      <dgm:prSet presAssocID="{7F1F80C3-D6A0-4E23-854A-0AED3AFE2338}" presName="connTx" presStyleLbl="parChTrans1D4" presStyleIdx="1" presStyleCnt="10"/>
-      <dgm:spPr/>
-      <dgm:t>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:endParaRPr lang="fr-FR"/>
-        </a:p>
-      </dgm:t>
-    </dgm:pt>
-    <dgm:pt modelId="{D3D9F1B4-7206-4DD1-8DAF-67450FECBA9F}" type="pres">
-      <dgm:prSet presAssocID="{29A52D27-0C72-4B86-BDF6-8986BD27A627}" presName="root2" presStyleCnt="0"/>
-      <dgm:spPr/>
-    </dgm:pt>
-    <dgm:pt modelId="{FF14BC1C-2E81-4272-8241-CAA23949FBF6}" type="pres">
-      <dgm:prSet presAssocID="{29A52D27-0C72-4B86-BDF6-8986BD27A627}" presName="LevelTwoTextNode" presStyleLbl="node4" presStyleIdx="1" presStyleCnt="10" custLinFactNeighborX="-1213" custLinFactNeighborY="-48508">
+    <dgm:pt modelId="{95EA30DE-C34F-46B5-90E1-11A06939B3D6}" type="pres">
+      <dgm:prSet presAssocID="{3DF97E63-9293-4318-AE64-2FC9B1B99207}" presName="level3hierChild" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{D313BB73-5B43-4582-94A8-7C34526208F0}" type="pres">
+      <dgm:prSet presAssocID="{4633A2FD-D89E-43CD-AE40-08FA515A5FCA}" presName="conn2-1" presStyleLbl="parChTrans1D4" presStyleIdx="3" presStyleCnt="8"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{02FD09EE-6FC2-44AE-8349-4FF332E83FCB}" type="pres">
+      <dgm:prSet presAssocID="{4633A2FD-D89E-43CD-AE40-08FA515A5FCA}" presName="connTx" presStyleLbl="parChTrans1D4" presStyleIdx="3" presStyleCnt="8"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{BA9A2F8D-3DDC-4655-B0C7-6198F31557DD}" type="pres">
+      <dgm:prSet presAssocID="{B91C8629-C61F-4DEB-AF21-BD96B1F903FE}" presName="root2" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{D9D4D45F-8405-47B2-A9EE-57E6910111EA}" type="pres">
+      <dgm:prSet presAssocID="{B91C8629-C61F-4DEB-AF21-BD96B1F903FE}" presName="LevelTwoTextNode" presStyleLbl="node4" presStyleIdx="3" presStyleCnt="8" custLinFactNeighborX="-478" custLinFactNeighborY="-17188">
         <dgm:presLayoutVars>
           <dgm:chPref val="3"/>
         </dgm:presLayoutVars>
@@ -3264,38 +3102,24 @@
         </a:p>
       </dgm:t>
     </dgm:pt>
-    <dgm:pt modelId="{86018107-B67A-4E7A-9BC4-4E56347FDC2B}" type="pres">
-      <dgm:prSet presAssocID="{29A52D27-0C72-4B86-BDF6-8986BD27A627}" presName="level3hierChild" presStyleCnt="0"/>
-      <dgm:spPr/>
-    </dgm:pt>
-    <dgm:pt modelId="{C7C260BE-DF41-4A4D-B509-3ACB58286E66}" type="pres">
-      <dgm:prSet presAssocID="{A5AB1326-B9F0-4261-891C-6A2BF0703C26}" presName="conn2-1" presStyleLbl="parChTrans1D4" presStyleIdx="2" presStyleCnt="10"/>
-      <dgm:spPr/>
-      <dgm:t>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:endParaRPr lang="fr-FR"/>
-        </a:p>
-      </dgm:t>
-    </dgm:pt>
-    <dgm:pt modelId="{013CDCB5-C919-4FE7-A85C-50BF29CDF56C}" type="pres">
-      <dgm:prSet presAssocID="{A5AB1326-B9F0-4261-891C-6A2BF0703C26}" presName="connTx" presStyleLbl="parChTrans1D4" presStyleIdx="2" presStyleCnt="10"/>
-      <dgm:spPr/>
-      <dgm:t>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:endParaRPr lang="fr-FR"/>
-        </a:p>
-      </dgm:t>
-    </dgm:pt>
-    <dgm:pt modelId="{FC811636-E055-4494-B81E-E746C1609497}" type="pres">
-      <dgm:prSet presAssocID="{0EC93BCF-0FDE-4D2D-B892-4C27022C6195}" presName="root2" presStyleCnt="0"/>
-      <dgm:spPr/>
-    </dgm:pt>
-    <dgm:pt modelId="{3AB530FA-7695-47C2-849F-535E3DAEAE59}" type="pres">
-      <dgm:prSet presAssocID="{0EC93BCF-0FDE-4D2D-B892-4C27022C6195}" presName="LevelTwoTextNode" presStyleLbl="node4" presStyleIdx="2" presStyleCnt="10" custLinFactY="-6700" custLinFactNeighborY="-100000">
+    <dgm:pt modelId="{CCFF7FFE-255B-46F2-9EAC-5361120A54C2}" type="pres">
+      <dgm:prSet presAssocID="{B91C8629-C61F-4DEB-AF21-BD96B1F903FE}" presName="level3hierChild" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{CA37292C-8D74-430A-A7B6-13C98C4BAE07}" type="pres">
+      <dgm:prSet presAssocID="{C0925ED0-72CC-4809-9A63-09DDB0FD787F}" presName="conn2-1" presStyleLbl="parChTrans1D4" presStyleIdx="4" presStyleCnt="8"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{4E80D0D3-480C-4184-B75F-AEBEA07ED8E5}" type="pres">
+      <dgm:prSet presAssocID="{C0925ED0-72CC-4809-9A63-09DDB0FD787F}" presName="connTx" presStyleLbl="parChTrans1D4" presStyleIdx="4" presStyleCnt="8"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{7A8A0389-79FD-4150-BD6A-3B5F5ECB76A3}" type="pres">
+      <dgm:prSet presAssocID="{A48183FA-0C1F-44D5-AF2C-D8790C37E447}" presName="root2" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{78FEBAC8-A0C0-42CE-8B00-A4BEFED78D1A}" type="pres">
+      <dgm:prSet presAssocID="{A48183FA-0C1F-44D5-AF2C-D8790C37E447}" presName="LevelTwoTextNode" presStyleLbl="node4" presStyleIdx="4" presStyleCnt="8" custLinFactY="100000" custLinFactNeighborX="-1552" custLinFactNeighborY="116895">
         <dgm:presLayoutVars>
           <dgm:chPref val="3"/>
         </dgm:presLayoutVars>
@@ -3309,12 +3133,12 @@
         </a:p>
       </dgm:t>
     </dgm:pt>
-    <dgm:pt modelId="{423B3D2E-2063-4D8F-9822-9F52BBA36011}" type="pres">
-      <dgm:prSet presAssocID="{0EC93BCF-0FDE-4D2D-B892-4C27022C6195}" presName="level3hierChild" presStyleCnt="0"/>
-      <dgm:spPr/>
-    </dgm:pt>
-    <dgm:pt modelId="{3FE4E342-1165-4DB5-8749-DBAD9C170248}" type="pres">
-      <dgm:prSet presAssocID="{4161B1B0-37CD-4FB0-A1E4-AB964CEC2D39}" presName="conn2-1" presStyleLbl="parChTrans1D4" presStyleIdx="3" presStyleCnt="10"/>
+    <dgm:pt modelId="{3E9C9F68-BC6C-47EC-9AFD-5B198947E5E8}" type="pres">
+      <dgm:prSet presAssocID="{A48183FA-0C1F-44D5-AF2C-D8790C37E447}" presName="level3hierChild" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{DB1231E3-4B3A-43E1-A60A-E362EA672D1D}" type="pres">
+      <dgm:prSet presAssocID="{89C294FD-9D1C-44AE-B4CC-FCB48A67C5E0}" presName="conn2-1" presStyleLbl="parChTrans1D4" presStyleIdx="5" presStyleCnt="8"/>
       <dgm:spPr/>
       <dgm:t>
         <a:bodyPr/>
@@ -3324,8 +3148,8 @@
         </a:p>
       </dgm:t>
     </dgm:pt>
-    <dgm:pt modelId="{BAE746DB-C2F5-4E82-9CBF-90193F3B2091}" type="pres">
-      <dgm:prSet presAssocID="{4161B1B0-37CD-4FB0-A1E4-AB964CEC2D39}" presName="connTx" presStyleLbl="parChTrans1D4" presStyleIdx="3" presStyleCnt="10"/>
+    <dgm:pt modelId="{25A47253-B623-4CF0-9753-CA45DCB14863}" type="pres">
+      <dgm:prSet presAssocID="{89C294FD-9D1C-44AE-B4CC-FCB48A67C5E0}" presName="connTx" presStyleLbl="parChTrans1D4" presStyleIdx="5" presStyleCnt="8"/>
       <dgm:spPr/>
       <dgm:t>
         <a:bodyPr/>
@@ -3335,12 +3159,12 @@
         </a:p>
       </dgm:t>
     </dgm:pt>
-    <dgm:pt modelId="{5561D9C3-5EB9-4C41-AB15-00C8B5AACA58}" type="pres">
-      <dgm:prSet presAssocID="{5C7ED44A-FEB0-4B16-A584-289B57C52515}" presName="root2" presStyleCnt="0"/>
-      <dgm:spPr/>
-    </dgm:pt>
-    <dgm:pt modelId="{1751D3B1-A05B-4672-8F9C-80DA03C9B1D9}" type="pres">
-      <dgm:prSet presAssocID="{5C7ED44A-FEB0-4B16-A584-289B57C52515}" presName="LevelTwoTextNode" presStyleLbl="node4" presStyleIdx="3" presStyleCnt="10" custLinFactY="-6700" custLinFactNeighborY="-100000">
+    <dgm:pt modelId="{1F149E23-F7C7-47CE-9A69-1F93DFC3E2B8}" type="pres">
+      <dgm:prSet presAssocID="{F602673A-62DA-438F-8B6A-1C63CCD94BDF}" presName="root2" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{63F1F962-4995-42B6-8526-0700788F3DE4}" type="pres">
+      <dgm:prSet presAssocID="{F602673A-62DA-438F-8B6A-1C63CCD94BDF}" presName="LevelTwoTextNode" presStyleLbl="node4" presStyleIdx="5" presStyleCnt="8" custLinFactNeighborX="2287" custLinFactNeighborY="881">
         <dgm:presLayoutVars>
           <dgm:chPref val="3"/>
         </dgm:presLayoutVars>
@@ -3354,12 +3178,12 @@
         </a:p>
       </dgm:t>
     </dgm:pt>
-    <dgm:pt modelId="{044916E5-8D4A-4349-BDB5-F78877F72797}" type="pres">
-      <dgm:prSet presAssocID="{5C7ED44A-FEB0-4B16-A584-289B57C52515}" presName="level3hierChild" presStyleCnt="0"/>
-      <dgm:spPr/>
-    </dgm:pt>
-    <dgm:pt modelId="{A1B406B5-8911-4317-AC33-8C3B0CE5E3B9}" type="pres">
-      <dgm:prSet presAssocID="{854B2F6E-D979-4631-B36A-EB876E169C2A}" presName="conn2-1" presStyleLbl="parChTrans1D4" presStyleIdx="4" presStyleCnt="10"/>
+    <dgm:pt modelId="{CB6FC48F-9DE9-490E-BEAC-13B47672CB2E}" type="pres">
+      <dgm:prSet presAssocID="{F602673A-62DA-438F-8B6A-1C63CCD94BDF}" presName="level3hierChild" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{F5F7CDA6-8199-4DE5-9A64-4B4E2B197201}" type="pres">
+      <dgm:prSet presAssocID="{7F1F80C3-D6A0-4E23-854A-0AED3AFE2338}" presName="conn2-1" presStyleLbl="parChTrans1D4" presStyleIdx="6" presStyleCnt="8"/>
       <dgm:spPr/>
       <dgm:t>
         <a:bodyPr/>
@@ -3369,8 +3193,8 @@
         </a:p>
       </dgm:t>
     </dgm:pt>
-    <dgm:pt modelId="{09F54421-16F3-4413-ABD8-386DC3A85404}" type="pres">
-      <dgm:prSet presAssocID="{854B2F6E-D979-4631-B36A-EB876E169C2A}" presName="connTx" presStyleLbl="parChTrans1D4" presStyleIdx="4" presStyleCnt="10"/>
+    <dgm:pt modelId="{7700C75A-0051-40BB-899E-A0D0389B2DCF}" type="pres">
+      <dgm:prSet presAssocID="{7F1F80C3-D6A0-4E23-854A-0AED3AFE2338}" presName="connTx" presStyleLbl="parChTrans1D4" presStyleIdx="6" presStyleCnt="8"/>
       <dgm:spPr/>
       <dgm:t>
         <a:bodyPr/>
@@ -3380,12 +3204,12 @@
         </a:p>
       </dgm:t>
     </dgm:pt>
-    <dgm:pt modelId="{5601AD14-1281-4268-B1B0-55DEB42FC01D}" type="pres">
-      <dgm:prSet presAssocID="{0FB7C147-80F0-40B6-BCF8-0234456366D0}" presName="root2" presStyleCnt="0"/>
-      <dgm:spPr/>
-    </dgm:pt>
-    <dgm:pt modelId="{6C40B4ED-7BA3-445A-869A-110831F15CAE}" type="pres">
-      <dgm:prSet presAssocID="{0FB7C147-80F0-40B6-BCF8-0234456366D0}" presName="LevelTwoTextNode" presStyleLbl="node4" presStyleIdx="4" presStyleCnt="10">
+    <dgm:pt modelId="{D3D9F1B4-7206-4DD1-8DAF-67450FECBA9F}" type="pres">
+      <dgm:prSet presAssocID="{29A52D27-0C72-4B86-BDF6-8986BD27A627}" presName="root2" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{FF14BC1C-2E81-4272-8241-CAA23949FBF6}" type="pres">
+      <dgm:prSet presAssocID="{29A52D27-0C72-4B86-BDF6-8986BD27A627}" presName="LevelTwoTextNode" presStyleLbl="node4" presStyleIdx="6" presStyleCnt="8" custLinFactNeighborX="-280" custLinFactNeighborY="1975">
         <dgm:presLayoutVars>
           <dgm:chPref val="3"/>
         </dgm:presLayoutVars>
@@ -3399,38 +3223,24 @@
         </a:p>
       </dgm:t>
     </dgm:pt>
-    <dgm:pt modelId="{709B0276-1C4E-4540-A922-9510D33F129C}" type="pres">
-      <dgm:prSet presAssocID="{0FB7C147-80F0-40B6-BCF8-0234456366D0}" presName="level3hierChild" presStyleCnt="0"/>
-      <dgm:spPr/>
-    </dgm:pt>
-    <dgm:pt modelId="{494CF6FE-2591-4415-857B-F52A0F60951A}" type="pres">
-      <dgm:prSet presAssocID="{B5ADEC2E-D8CE-4A44-A59A-3B7CE8BCCAE9}" presName="conn2-1" presStyleLbl="parChTrans1D4" presStyleIdx="5" presStyleCnt="10"/>
-      <dgm:spPr/>
-      <dgm:t>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:endParaRPr lang="fr-FR"/>
-        </a:p>
-      </dgm:t>
-    </dgm:pt>
-    <dgm:pt modelId="{4B8C6EFF-8551-43DF-81E3-B6C157C2AC20}" type="pres">
-      <dgm:prSet presAssocID="{B5ADEC2E-D8CE-4A44-A59A-3B7CE8BCCAE9}" presName="connTx" presStyleLbl="parChTrans1D4" presStyleIdx="5" presStyleCnt="10"/>
-      <dgm:spPr/>
-      <dgm:t>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:endParaRPr lang="fr-FR"/>
-        </a:p>
-      </dgm:t>
-    </dgm:pt>
-    <dgm:pt modelId="{3CB0C17B-3361-415E-A8A2-1078EB680775}" type="pres">
-      <dgm:prSet presAssocID="{768E160C-522E-4B89-92F7-715AE39400B5}" presName="root2" presStyleCnt="0"/>
-      <dgm:spPr/>
-    </dgm:pt>
-    <dgm:pt modelId="{89789CDF-20CF-4BBB-BBDF-CA9AFF58C425}" type="pres">
-      <dgm:prSet presAssocID="{768E160C-522E-4B89-92F7-715AE39400B5}" presName="LevelTwoTextNode" presStyleLbl="node4" presStyleIdx="5" presStyleCnt="10">
+    <dgm:pt modelId="{86018107-B67A-4E7A-9BC4-4E56347FDC2B}" type="pres">
+      <dgm:prSet presAssocID="{29A52D27-0C72-4B86-BDF6-8986BD27A627}" presName="level3hierChild" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{49E73D38-A471-4F90-9EEA-CCBF50BEBA21}" type="pres">
+      <dgm:prSet presAssocID="{A817198D-8D7E-473B-85A4-F850C69D01F3}" presName="conn2-1" presStyleLbl="parChTrans1D4" presStyleIdx="7" presStyleCnt="8"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{A1F4F5A8-832B-46F2-8D46-C478BC2CB9D5}" type="pres">
+      <dgm:prSet presAssocID="{A817198D-8D7E-473B-85A4-F850C69D01F3}" presName="connTx" presStyleLbl="parChTrans1D4" presStyleIdx="7" presStyleCnt="8"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{4FBB9E2E-866E-40A7-9D99-FED3F460DC2C}" type="pres">
+      <dgm:prSet presAssocID="{C69F52B9-BD0A-44F6-8891-09BC83EFFE66}" presName="root2" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{3500E9F6-A140-4DF3-A77F-117317BB878A}" type="pres">
+      <dgm:prSet presAssocID="{C69F52B9-BD0A-44F6-8891-09BC83EFFE66}" presName="LevelTwoTextNode" presStyleLbl="node4" presStyleIdx="7" presStyleCnt="8" custLinFactNeighborX="0" custLinFactNeighborY="21473">
         <dgm:presLayoutVars>
           <dgm:chPref val="3"/>
         </dgm:presLayoutVars>
@@ -3444,38 +3254,16 @@
         </a:p>
       </dgm:t>
     </dgm:pt>
-    <dgm:pt modelId="{5E1F8CD0-9508-4427-A520-DB6B13D23D01}" type="pres">
-      <dgm:prSet presAssocID="{768E160C-522E-4B89-92F7-715AE39400B5}" presName="level3hierChild" presStyleCnt="0"/>
-      <dgm:spPr/>
-    </dgm:pt>
-    <dgm:pt modelId="{B5F3DAA7-BFDA-4D58-B990-89950E30F0A8}" type="pres">
-      <dgm:prSet presAssocID="{1411A133-F459-42AB-BA96-8F674F6348E3}" presName="conn2-1" presStyleLbl="parChTrans1D4" presStyleIdx="6" presStyleCnt="10"/>
-      <dgm:spPr/>
-      <dgm:t>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:endParaRPr lang="fr-FR"/>
-        </a:p>
-      </dgm:t>
-    </dgm:pt>
-    <dgm:pt modelId="{F18C07D0-924F-4EE6-826F-DEBEEE5D176D}" type="pres">
-      <dgm:prSet presAssocID="{1411A133-F459-42AB-BA96-8F674F6348E3}" presName="connTx" presStyleLbl="parChTrans1D4" presStyleIdx="6" presStyleCnt="10"/>
-      <dgm:spPr/>
-      <dgm:t>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:endParaRPr lang="fr-FR"/>
-        </a:p>
-      </dgm:t>
-    </dgm:pt>
-    <dgm:pt modelId="{1310692E-32FD-4631-8F10-301E4F71A2E8}" type="pres">
-      <dgm:prSet presAssocID="{5531E4BA-D402-4979-B681-83057DF50F65}" presName="root2" presStyleCnt="0"/>
-      <dgm:spPr/>
-    </dgm:pt>
-    <dgm:pt modelId="{28AE2CA2-293C-45A3-86F4-307002D9B041}" type="pres">
-      <dgm:prSet presAssocID="{5531E4BA-D402-4979-B681-83057DF50F65}" presName="LevelTwoTextNode" presStyleLbl="node4" presStyleIdx="6" presStyleCnt="10">
+    <dgm:pt modelId="{AC096CF5-9B01-41CB-A188-E992FF69B027}" type="pres">
+      <dgm:prSet presAssocID="{C69F52B9-BD0A-44F6-8891-09BC83EFFE66}" presName="level3hierChild" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{7EDC9638-71DB-4F92-90BD-7D0703941DF2}" type="pres">
+      <dgm:prSet presAssocID="{DE1979B4-6F02-47D2-89C1-89A41E6F6333}" presName="root1" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{BB59A16F-0BF1-4BFC-83F4-A1584E3EA5BB}" type="pres">
+      <dgm:prSet presAssocID="{DE1979B4-6F02-47D2-89C1-89A41E6F6333}" presName="LevelOneTextNode" presStyleLbl="node0" presStyleIdx="1" presStyleCnt="2" custLinFactNeighborX="5368" custLinFactNeighborY="4295">
         <dgm:presLayoutVars>
           <dgm:chPref val="3"/>
         </dgm:presLayoutVars>
@@ -3489,275 +3277,113 @@
         </a:p>
       </dgm:t>
     </dgm:pt>
-    <dgm:pt modelId="{91FF2BED-5CE7-4ADA-AEBD-5A6C714B82F1}" type="pres">
-      <dgm:prSet presAssocID="{5531E4BA-D402-4979-B681-83057DF50F65}" presName="level3hierChild" presStyleCnt="0"/>
-      <dgm:spPr/>
-    </dgm:pt>
-    <dgm:pt modelId="{304959C4-0F8C-455C-915A-8C9D5D24FD99}" type="pres">
-      <dgm:prSet presAssocID="{DCFD2C52-897E-4D3F-AACC-77B80F8F0AD2}" presName="conn2-1" presStyleLbl="parChTrans1D4" presStyleIdx="7" presStyleCnt="10"/>
-      <dgm:spPr/>
-      <dgm:t>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:endParaRPr lang="fr-FR"/>
-        </a:p>
-      </dgm:t>
-    </dgm:pt>
-    <dgm:pt modelId="{4281BE41-C03A-4CFC-B1DA-BE515A1BDD7F}" type="pres">
-      <dgm:prSet presAssocID="{DCFD2C52-897E-4D3F-AACC-77B80F8F0AD2}" presName="connTx" presStyleLbl="parChTrans1D4" presStyleIdx="7" presStyleCnt="10"/>
-      <dgm:spPr/>
-      <dgm:t>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:endParaRPr lang="fr-FR"/>
-        </a:p>
-      </dgm:t>
-    </dgm:pt>
-    <dgm:pt modelId="{F8A165AA-1874-4360-B912-DA7F7616F9E7}" type="pres">
-      <dgm:prSet presAssocID="{9E3D3546-BC47-44E3-9D79-E89C9B97704A}" presName="root2" presStyleCnt="0"/>
-      <dgm:spPr/>
-    </dgm:pt>
-    <dgm:pt modelId="{DB95C6B5-8400-472C-A9DC-CF2D409C7D4A}" type="pres">
-      <dgm:prSet presAssocID="{9E3D3546-BC47-44E3-9D79-E89C9B97704A}" presName="LevelTwoTextNode" presStyleLbl="node4" presStyleIdx="7" presStyleCnt="10">
-        <dgm:presLayoutVars>
-          <dgm:chPref val="3"/>
-        </dgm:presLayoutVars>
-      </dgm:prSet>
-      <dgm:spPr/>
-      <dgm:t>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:endParaRPr lang="fr-FR"/>
-        </a:p>
-      </dgm:t>
-    </dgm:pt>
-    <dgm:pt modelId="{9EB93D29-D462-41A1-9125-6632C6D18110}" type="pres">
-      <dgm:prSet presAssocID="{9E3D3546-BC47-44E3-9D79-E89C9B97704A}" presName="level3hierChild" presStyleCnt="0"/>
-      <dgm:spPr/>
-    </dgm:pt>
-    <dgm:pt modelId="{81ABC927-9622-442A-B8AD-72EB91444905}" type="pres">
-      <dgm:prSet presAssocID="{566746CA-63BA-4C9B-A67F-EC9E3216E435}" presName="conn2-1" presStyleLbl="parChTrans1D4" presStyleIdx="8" presStyleCnt="10"/>
-      <dgm:spPr/>
-      <dgm:t>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:endParaRPr lang="fr-FR"/>
-        </a:p>
-      </dgm:t>
-    </dgm:pt>
-    <dgm:pt modelId="{CA44C3B6-CE4C-47B0-9AFB-82116F5BD2A6}" type="pres">
-      <dgm:prSet presAssocID="{566746CA-63BA-4C9B-A67F-EC9E3216E435}" presName="connTx" presStyleLbl="parChTrans1D4" presStyleIdx="8" presStyleCnt="10"/>
-      <dgm:spPr/>
-      <dgm:t>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:endParaRPr lang="fr-FR"/>
-        </a:p>
-      </dgm:t>
-    </dgm:pt>
-    <dgm:pt modelId="{FE0029FB-20F3-4429-AF3C-5578CBD77AB5}" type="pres">
-      <dgm:prSet presAssocID="{0E8035DB-CE5A-4BB8-ADBD-069EA0ED8D0B}" presName="root2" presStyleCnt="0"/>
-      <dgm:spPr/>
-    </dgm:pt>
-    <dgm:pt modelId="{BFE8769B-98C6-47D5-97B8-2BB5A4A4702B}" type="pres">
-      <dgm:prSet presAssocID="{0E8035DB-CE5A-4BB8-ADBD-069EA0ED8D0B}" presName="LevelTwoTextNode" presStyleLbl="node4" presStyleIdx="8" presStyleCnt="10" custLinFactNeighborY="75188">
-        <dgm:presLayoutVars>
-          <dgm:chPref val="3"/>
-        </dgm:presLayoutVars>
-      </dgm:prSet>
-      <dgm:spPr/>
-      <dgm:t>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:endParaRPr lang="fr-FR"/>
-        </a:p>
-      </dgm:t>
-    </dgm:pt>
-    <dgm:pt modelId="{BF2A2A67-D5FE-407C-8143-271B06C62922}" type="pres">
-      <dgm:prSet presAssocID="{0E8035DB-CE5A-4BB8-ADBD-069EA0ED8D0B}" presName="level3hierChild" presStyleCnt="0"/>
-      <dgm:spPr/>
-    </dgm:pt>
-    <dgm:pt modelId="{5613D056-022B-4A6C-A781-177D3B75F647}" type="pres">
-      <dgm:prSet presAssocID="{CE019054-3759-40ED-8E26-F0A61CEC1E08}" presName="conn2-1" presStyleLbl="parChTrans1D4" presStyleIdx="9" presStyleCnt="10"/>
-      <dgm:spPr/>
-      <dgm:t>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:endParaRPr lang="fr-FR"/>
-        </a:p>
-      </dgm:t>
-    </dgm:pt>
-    <dgm:pt modelId="{B157A907-D573-427B-97FC-769E6E03B167}" type="pres">
-      <dgm:prSet presAssocID="{CE019054-3759-40ED-8E26-F0A61CEC1E08}" presName="connTx" presStyleLbl="parChTrans1D4" presStyleIdx="9" presStyleCnt="10"/>
-      <dgm:spPr/>
-      <dgm:t>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:endParaRPr lang="fr-FR"/>
-        </a:p>
-      </dgm:t>
-    </dgm:pt>
-    <dgm:pt modelId="{9BEF525F-A846-48BB-9D84-B936A84A7605}" type="pres">
-      <dgm:prSet presAssocID="{3BE0EFDE-10D7-4D14-8542-603E1813DCBE}" presName="root2" presStyleCnt="0"/>
-      <dgm:spPr/>
-    </dgm:pt>
-    <dgm:pt modelId="{D107B190-A7EE-4946-86FF-406679EC3865}" type="pres">
-      <dgm:prSet presAssocID="{3BE0EFDE-10D7-4D14-8542-603E1813DCBE}" presName="LevelTwoTextNode" presStyleLbl="node4" presStyleIdx="9" presStyleCnt="10" custLinFactNeighborX="2425" custLinFactNeighborY="75188">
-        <dgm:presLayoutVars>
-          <dgm:chPref val="3"/>
-        </dgm:presLayoutVars>
-      </dgm:prSet>
-      <dgm:spPr/>
-      <dgm:t>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:endParaRPr lang="fr-FR"/>
-        </a:p>
-      </dgm:t>
-    </dgm:pt>
-    <dgm:pt modelId="{C81ACA67-D4E3-4C6B-A90E-59CD8E8B39BA}" type="pres">
-      <dgm:prSet presAssocID="{3BE0EFDE-10D7-4D14-8542-603E1813DCBE}" presName="level3hierChild" presStyleCnt="0"/>
+    <dgm:pt modelId="{003C76BF-245D-4E07-8729-E695269DCE8A}" type="pres">
+      <dgm:prSet presAssocID="{DE1979B4-6F02-47D2-89C1-89A41E6F6333}" presName="level2hierChild" presStyleCnt="0"/>
       <dgm:spPr/>
     </dgm:pt>
   </dgm:ptLst>
   <dgm:cxnLst>
-    <dgm:cxn modelId="{C1AAB255-65E3-49AC-B106-C7A120FB8735}" type="presOf" srcId="{0FB7C147-80F0-40B6-BCF8-0234456366D0}" destId="{6C40B4ED-7BA3-445A-869A-110831F15CAE}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
-    <dgm:cxn modelId="{312928E3-5BA2-40A8-B997-F10AE5D0F5A3}" type="presOf" srcId="{854B2F6E-D979-4631-B36A-EB876E169C2A}" destId="{09F54421-16F3-4413-ABD8-386DC3A85404}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
-    <dgm:cxn modelId="{89950D4B-7EF0-4A35-9363-F16B00BC1EDC}" srcId="{768E160C-522E-4B89-92F7-715AE39400B5}" destId="{5531E4BA-D402-4979-B681-83057DF50F65}" srcOrd="0" destOrd="0" parTransId="{1411A133-F459-42AB-BA96-8F674F6348E3}" sibTransId="{973CCD46-1E97-4FCE-9041-80E4FCF61825}"/>
-    <dgm:cxn modelId="{B0A7FEE0-9602-473E-8B2B-C4EE4A0B0D3F}" type="presOf" srcId="{5531E4BA-D402-4979-B681-83057DF50F65}" destId="{28AE2CA2-293C-45A3-86F4-307002D9B041}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
-    <dgm:cxn modelId="{E42A3688-26CD-4998-80F4-9A06406AEF19}" srcId="{0EC93BCF-0FDE-4D2D-B892-4C27022C6195}" destId="{5C7ED44A-FEB0-4B16-A584-289B57C52515}" srcOrd="0" destOrd="0" parTransId="{4161B1B0-37CD-4FB0-A1E4-AB964CEC2D39}" sibTransId="{A4C950D2-930A-4B17-AADC-A3640D06B40B}"/>
-    <dgm:cxn modelId="{A87B18AD-D9C9-425A-B165-5687804E3D91}" type="presOf" srcId="{607ACB9E-75FC-4DC8-82BC-D6E6C1DD98DE}" destId="{EDFDE935-BFCE-4424-AB93-AA691740BB95}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
-    <dgm:cxn modelId="{566CFE44-0D2A-466D-8FD0-F55FCA5C923F}" type="presOf" srcId="{7F1F80C3-D6A0-4E23-854A-0AED3AFE2338}" destId="{F5F7CDA6-8199-4DE5-9A64-4B4E2B197201}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
-    <dgm:cxn modelId="{ABF4B8AE-9BF3-4942-84F9-0C221DE42682}" type="presOf" srcId="{89C294FD-9D1C-44AE-B4CC-FCB48A67C5E0}" destId="{DB1231E3-4B3A-43E1-A60A-E362EA672D1D}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{8F95B8B7-CA4C-4E1D-900A-8B4B405B303F}" type="presOf" srcId="{A48183FA-0C1F-44D5-AF2C-D8790C37E447}" destId="{78FEBAC8-A0C0-42CE-8B00-A4BEFED78D1A}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{F44C88AA-FEC1-472C-9EDA-A3D76D62F4A7}" type="presOf" srcId="{8EA272DD-2EBF-4EBB-943D-F53C51381DBA}" destId="{9FFDCA42-22D2-4A50-BF6F-47A44B7D806D}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{91815D98-5C97-4417-BD10-812B29840701}" type="presOf" srcId="{900F308B-402F-4EF5-BD06-56306AA84F2A}" destId="{C40A0F12-8707-4462-A273-77E543D6FDD9}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{08DAD7E9-801C-4082-A52C-86F5D02094B1}" type="presOf" srcId="{DE6FC9B6-8CE9-4C51-B5E4-C3A507DC6867}" destId="{DDDB1552-31E1-447E-8029-97E98501487D}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{A040FCE0-8984-4C52-8FF7-30D06C3D4D11}" type="presOf" srcId="{C0925ED0-72CC-4809-9A63-09DDB0FD787F}" destId="{4E80D0D3-480C-4184-B75F-AEBEA07ED8E5}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{3FDA58D4-A6DE-4625-80C3-9300E198878A}" srcId="{3DF97E63-9293-4318-AE64-2FC9B1B99207}" destId="{B91C8629-C61F-4DEB-AF21-BD96B1F903FE}" srcOrd="0" destOrd="0" parTransId="{4633A2FD-D89E-43CD-AE40-08FA515A5FCA}" sibTransId="{B86D1368-8007-4F64-B092-7FC0B4F0C858}"/>
     <dgm:cxn modelId="{706E6AB8-A775-4638-9FCE-80B033F10578}" srcId="{776D0BEC-47DE-4E6B-ADE1-7FE8B40E2E09}" destId="{134B85BD-3620-48EB-B95B-84B5AF5ACB30}" srcOrd="0" destOrd="0" parTransId="{8EA272DD-2EBF-4EBB-943D-F53C51381DBA}" sibTransId="{53B6C978-0244-4642-8D2B-14C7DF6A4737}"/>
-    <dgm:cxn modelId="{6948D17F-2163-4D93-8D44-C62B345056A0}" type="presOf" srcId="{44B93ED7-AF09-4CBA-8E44-6247F41AE32A}" destId="{D6A70E11-5D25-443F-9694-1E5BFDA45171}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
-    <dgm:cxn modelId="{EDB60A21-3DEA-42A4-BA0B-556B0A075C6D}" srcId="{B77806E4-5E41-4C6F-9442-D215D10C42E9}" destId="{F602673A-62DA-438F-8B6A-1C63CCD94BDF}" srcOrd="0" destOrd="0" parTransId="{89C294FD-9D1C-44AE-B4CC-FCB48A67C5E0}" sibTransId="{7E337E4E-122A-4555-B7F7-736DF73CDA71}"/>
-    <dgm:cxn modelId="{4CB1984C-411D-4A2B-9932-80F12CBE0726}" srcId="{29A52D27-0C72-4B86-BDF6-8986BD27A627}" destId="{0EC93BCF-0FDE-4D2D-B892-4C27022C6195}" srcOrd="0" destOrd="0" parTransId="{A5AB1326-B9F0-4261-891C-6A2BF0703C26}" sibTransId="{B5AAA810-4CCB-4B6D-A409-A8C566D49893}"/>
-    <dgm:cxn modelId="{C3FD3619-4515-4D7C-BF63-1AC1C3CE63C3}" type="presOf" srcId="{8EA272DD-2EBF-4EBB-943D-F53C51381DBA}" destId="{6B88C7CC-3ACA-4195-BB54-4D493131B3BA}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
-    <dgm:cxn modelId="{4A6DC297-BD50-48FA-8166-18562263F25C}" type="presOf" srcId="{607ACB9E-75FC-4DC8-82BC-D6E6C1DD98DE}" destId="{DA8672FA-9F10-4934-92F4-9B0E03E504AC}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
-    <dgm:cxn modelId="{D11E984C-431D-4E38-8635-FF48A01A4DCD}" type="presOf" srcId="{4161B1B0-37CD-4FB0-A1E4-AB964CEC2D39}" destId="{3FE4E342-1165-4DB5-8749-DBAD9C170248}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
-    <dgm:cxn modelId="{2BD0B6B1-8E8B-40FA-B6E8-8B9EAD30A1AB}" type="presOf" srcId="{566746CA-63BA-4C9B-A67F-EC9E3216E435}" destId="{81ABC927-9622-442A-B8AD-72EB91444905}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
-    <dgm:cxn modelId="{A1FA5596-814A-448B-B3AB-0F69CF3B7FBE}" type="presOf" srcId="{18EBF0C1-73A1-45C7-ACD3-AF8F69B97D3D}" destId="{1507B06C-5D98-48B4-BA05-490C7F303DEC}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
-    <dgm:cxn modelId="{3C4AA3EA-F898-4B66-A9E7-1864B1BCF2E4}" type="presOf" srcId="{854B2F6E-D979-4631-B36A-EB876E169C2A}" destId="{A1B406B5-8911-4317-AC33-8C3B0CE5E3B9}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
-    <dgm:cxn modelId="{B36C02EC-9ADF-4E2A-862C-91A02423CC96}" type="presOf" srcId="{89C294FD-9D1C-44AE-B4CC-FCB48A67C5E0}" destId="{25A47253-B623-4CF0-9753-CA45DCB14863}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
-    <dgm:cxn modelId="{510FED6C-2204-4C82-925B-3E29338C2714}" type="presOf" srcId="{B77806E4-5E41-4C6F-9442-D215D10C42E9}" destId="{A98771A6-1065-426D-AB17-244C08354536}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{C4C20C62-B4B1-45B9-BDC4-C352B88A964A}" type="presOf" srcId="{F1A57523-45CA-4602-95AA-DFF7597A4BA4}" destId="{194D1AF4-BC77-4835-A7CF-9D75DD8D4C8E}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{81AA2E4D-E7C2-4C2F-9966-4D20CDAFFE9F}" type="presOf" srcId="{DE1979B4-6F02-47D2-89C1-89A41E6F6333}" destId="{BB59A16F-0BF1-4BFC-83F4-A1584E3EA5BB}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{EDB60A21-3DEA-42A4-BA0B-556B0A075C6D}" srcId="{B77806E4-5E41-4C6F-9442-D215D10C42E9}" destId="{F602673A-62DA-438F-8B6A-1C63CCD94BDF}" srcOrd="1" destOrd="0" parTransId="{89C294FD-9D1C-44AE-B4CC-FCB48A67C5E0}" sibTransId="{7E337E4E-122A-4555-B7F7-736DF73CDA71}"/>
+    <dgm:cxn modelId="{A60B9B45-79C5-4704-902A-B0310C1F9ACA}" type="presOf" srcId="{D4D903E2-06E1-4B32-BB71-12B1DCFCEFAA}" destId="{B998B3DF-C3A4-49F5-AD4E-914F87E1B887}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{24221E86-2DF9-4903-BB28-6F89311707DF}" type="presOf" srcId="{607ACB9E-75FC-4DC8-82BC-D6E6C1DD98DE}" destId="{DA8672FA-9F10-4934-92F4-9B0E03E504AC}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{63409AFA-E4D6-4473-A12B-A9F7D9B3FE06}" type="presOf" srcId="{F602673A-62DA-438F-8B6A-1C63CCD94BDF}" destId="{63F1F962-4995-42B6-8526-0700788F3DE4}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{292157CD-5809-49E7-801F-103F8A43E8EF}" type="presOf" srcId="{776D0BEC-47DE-4E6B-ADE1-7FE8B40E2E09}" destId="{637FBC33-6F9D-4F81-9272-11AD1DDE6A69}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
     <dgm:cxn modelId="{D09D1F45-4F3A-428B-BBFC-5F0232C389B1}" srcId="{F602673A-62DA-438F-8B6A-1C63CCD94BDF}" destId="{29A52D27-0C72-4B86-BDF6-8986BD27A627}" srcOrd="0" destOrd="0" parTransId="{7F1F80C3-D6A0-4E23-854A-0AED3AFE2338}" sibTransId="{3493E9FE-BE95-4960-8C53-3186FB69163E}"/>
     <dgm:cxn modelId="{979651A1-4273-4E7E-B0DC-BE96918F65C6}" srcId="{134B85BD-3620-48EB-B95B-84B5AF5ACB30}" destId="{B77806E4-5E41-4C6F-9442-D215D10C42E9}" srcOrd="0" destOrd="0" parTransId="{607ACB9E-75FC-4DC8-82BC-D6E6C1DD98DE}" sibTransId="{EBF090A8-395D-4D3F-8705-5004916A400A}"/>
-    <dgm:cxn modelId="{55C278B3-0AD4-45BA-A0B7-7AABAE6943D5}" type="presOf" srcId="{566746CA-63BA-4C9B-A67F-EC9E3216E435}" destId="{CA44C3B6-CE4C-47B0-9AFB-82116F5BD2A6}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
-    <dgm:cxn modelId="{1B6038FB-1047-45C1-AB5F-5EA24F03E059}" type="presOf" srcId="{A5AB1326-B9F0-4261-891C-6A2BF0703C26}" destId="{013CDCB5-C919-4FE7-A85C-50BF29CDF56C}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
-    <dgm:cxn modelId="{5D04529A-368C-45C0-B804-702F36411C68}" srcId="{0FB7C147-80F0-40B6-BCF8-0234456366D0}" destId="{768E160C-522E-4B89-92F7-715AE39400B5}" srcOrd="0" destOrd="0" parTransId="{B5ADEC2E-D8CE-4A44-A59A-3B7CE8BCCAE9}" sibTransId="{BD8B459B-6D9D-4C6B-820C-8BC1D5EC314F}"/>
-    <dgm:cxn modelId="{35FCCA8C-6E0B-4B74-BB9C-8CB22085B9B2}" type="presOf" srcId="{5C7ED44A-FEB0-4B16-A584-289B57C52515}" destId="{1751D3B1-A05B-4672-8F9C-80DA03C9B1D9}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
-    <dgm:cxn modelId="{D4C71C4B-EC75-49D9-8C7C-ED3BE8506B82}" type="presOf" srcId="{1411A133-F459-42AB-BA96-8F674F6348E3}" destId="{F18C07D0-924F-4EE6-826F-DEBEEE5D176D}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
-    <dgm:cxn modelId="{24FAD884-5624-481B-8A74-79942BC2FEA7}" type="presOf" srcId="{9E3D3546-BC47-44E3-9D79-E89C9B97704A}" destId="{DB95C6B5-8400-472C-A9DC-CF2D409C7D4A}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
-    <dgm:cxn modelId="{D4F6C9F3-8DE9-4DDB-B996-4FFDDC08B720}" type="presOf" srcId="{CE019054-3759-40ED-8E26-F0A61CEC1E08}" destId="{5613D056-022B-4A6C-A781-177D3B75F647}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
-    <dgm:cxn modelId="{60DB5E6B-5F74-49FB-8616-59A2A40312E4}" type="presOf" srcId="{134B85BD-3620-48EB-B95B-84B5AF5ACB30}" destId="{3255085A-EA4C-464E-A12B-E265EAA6B927}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
-    <dgm:cxn modelId="{7407B198-4A00-48FD-84F7-6C7C5CD3FB5A}" type="presOf" srcId="{0EC93BCF-0FDE-4D2D-B892-4C27022C6195}" destId="{3AB530FA-7695-47C2-849F-535E3DAEAE59}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
-    <dgm:cxn modelId="{A79A2128-9CDE-495A-B9BD-A8CFDD2A1774}" type="presOf" srcId="{DCFD2C52-897E-4D3F-AACC-77B80F8F0AD2}" destId="{304959C4-0F8C-455C-915A-8C9D5D24FD99}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
-    <dgm:cxn modelId="{475F03D8-79E4-495D-B29E-35CABDCE9103}" type="presOf" srcId="{768E160C-522E-4B89-92F7-715AE39400B5}" destId="{89789CDF-20CF-4BBB-BBDF-CA9AFF58C425}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
-    <dgm:cxn modelId="{BE8F3C66-0397-4E5B-9A95-E63E14B83748}" type="presOf" srcId="{B5ADEC2E-D8CE-4A44-A59A-3B7CE8BCCAE9}" destId="{4B8C6EFF-8551-43DF-81E3-B6C157C2AC20}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
-    <dgm:cxn modelId="{4209FBA6-3DDD-4030-AA7E-E478E38301EA}" srcId="{3B511561-540D-4D60-9012-6B5F66859F0A}" destId="{18EBF0C1-73A1-45C7-ACD3-AF8F69B97D3D}" srcOrd="0" destOrd="0" parTransId="{44B93ED7-AF09-4CBA-8E44-6247F41AE32A}" sibTransId="{CFE38D19-4777-45E4-8E4E-EF735968B8A6}"/>
-    <dgm:cxn modelId="{71C1613B-0841-4D23-9154-FFE286901B7B}" type="presOf" srcId="{0E8035DB-CE5A-4BB8-ADBD-069EA0ED8D0B}" destId="{BFE8769B-98C6-47D5-97B8-2BB5A4A4702B}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
-    <dgm:cxn modelId="{28287890-02EE-403C-B101-2AAF106B28BF}" srcId="{0E8035DB-CE5A-4BB8-ADBD-069EA0ED8D0B}" destId="{3BE0EFDE-10D7-4D14-8542-603E1813DCBE}" srcOrd="0" destOrd="0" parTransId="{CE019054-3759-40ED-8E26-F0A61CEC1E08}" sibTransId="{F0EC321D-12B2-4E4C-8D3C-EE75D20E209F}"/>
-    <dgm:cxn modelId="{6D10DED6-69F2-484C-8EE9-85BE7CB2237F}" type="presOf" srcId="{A5AB1326-B9F0-4261-891C-6A2BF0703C26}" destId="{C7C260BE-DF41-4A4D-B509-3ACB58286E66}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
-    <dgm:cxn modelId="{210227EB-D0A5-4A0A-A175-10AA1EA2C8CC}" srcId="{B1A1975D-F6EE-4F6A-B0B9-A84F8E4437BA}" destId="{3B511561-540D-4D60-9012-6B5F66859F0A}" srcOrd="0" destOrd="0" parTransId="{F1CD7E7E-13BB-49DA-9082-073E3A45CC40}" sibTransId="{4002C46B-D68C-41CA-BFBF-E13B957324C3}"/>
-    <dgm:cxn modelId="{0F231AB9-72F0-497F-98D0-7054457EF219}" srcId="{29A52D27-0C72-4B86-BDF6-8986BD27A627}" destId="{0FB7C147-80F0-40B6-BCF8-0234456366D0}" srcOrd="1" destOrd="0" parTransId="{854B2F6E-D979-4631-B36A-EB876E169C2A}" sibTransId="{4CC8D2B3-8806-459D-B3F2-24B8007022DF}"/>
+    <dgm:cxn modelId="{788DD8DE-6403-4056-B176-B9749A1C0E43}" type="presOf" srcId="{995A764C-4ED4-4A5F-8606-353224B7E370}" destId="{2140AD49-6339-43DF-B2A4-5DCD5E6A45DC}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{67AACC15-452B-4767-AD62-228325C1B0CE}" type="presOf" srcId="{B91C8629-C61F-4DEB-AF21-BD96B1F903FE}" destId="{D9D4D45F-8405-47B2-A9EE-57E6910111EA}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{E1CCE85C-22CC-4FE4-9440-E1F6F1EB1E0A}" srcId="{B1A1975D-F6EE-4F6A-B0B9-A84F8E4437BA}" destId="{D4D903E2-06E1-4B32-BB71-12B1DCFCEFAA}" srcOrd="0" destOrd="0" parTransId="{EFFC68CB-0D54-4816-8177-DF837000B223}" sibTransId="{4C86B8BB-3B6E-4347-B03F-A260AD6208E8}"/>
+    <dgm:cxn modelId="{023A8842-0804-48CC-8B38-CA125565246A}" type="presOf" srcId="{607ACB9E-75FC-4DC8-82BC-D6E6C1DD98DE}" destId="{EDFDE935-BFCE-4424-AB93-AA691740BB95}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{F73E80BA-50CA-4813-B3CD-E5A57AF44DEA}" type="presOf" srcId="{134B85BD-3620-48EB-B95B-84B5AF5ACB30}" destId="{3255085A-EA4C-464E-A12B-E265EAA6B927}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{4AA14552-6A64-43B4-85D7-1BBD2DD9E52E}" type="presOf" srcId="{89C294FD-9D1C-44AE-B4CC-FCB48A67C5E0}" destId="{25A47253-B623-4CF0-9753-CA45DCB14863}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{B1A0A849-CC78-4C6E-8114-BACCB169641B}" type="presOf" srcId="{C69F52B9-BD0A-44F6-8891-09BC83EFFE66}" destId="{3500E9F6-A140-4DF3-A77F-117317BB878A}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{51FDE408-8A1C-43F6-8D9D-AA11583F28AF}" srcId="{B91C8629-C61F-4DEB-AF21-BD96B1F903FE}" destId="{A48183FA-0C1F-44D5-AF2C-D8790C37E447}" srcOrd="0" destOrd="0" parTransId="{C0925ED0-72CC-4809-9A63-09DDB0FD787F}" sibTransId="{FC4A260F-2507-443C-A236-A2BA26CDE42E}"/>
+    <dgm:cxn modelId="{A28566F4-172A-461E-BFF9-B2E6FDC7F9F3}" type="presOf" srcId="{995A764C-4ED4-4A5F-8606-353224B7E370}" destId="{D08E52E4-0732-455B-8EF1-5A8E53C0F9C7}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{61D454E2-09CA-41BD-A67D-1193328089D4}" type="presOf" srcId="{3DF97E63-9293-4318-AE64-2FC9B1B99207}" destId="{D09B0EF9-7C4F-4DBD-8C24-6856B794700D}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{7ABDBBDB-DD8D-4CBB-8506-36ED3F82734E}" type="presOf" srcId="{29A52D27-0C72-4B86-BDF6-8986BD27A627}" destId="{FF14BC1C-2E81-4272-8241-CAA23949FBF6}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{6F991856-396C-47CF-A749-C3971D13685F}" type="presOf" srcId="{7F1F80C3-D6A0-4E23-854A-0AED3AFE2338}" destId="{7700C75A-0051-40BB-899E-A0D0389B2DCF}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
     <dgm:cxn modelId="{4A89E3A6-8F81-4AC3-9748-32A83BA8E7F0}" type="presOf" srcId="{B1A1975D-F6EE-4F6A-B0B9-A84F8E4437BA}" destId="{D37BF067-FA63-40C9-A96C-A1D0BF8BA2EB}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
-    <dgm:cxn modelId="{2625C793-695D-4D60-9F39-478B954D36F3}" type="presOf" srcId="{7F1F80C3-D6A0-4E23-854A-0AED3AFE2338}" destId="{7700C75A-0051-40BB-899E-A0D0389B2DCF}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
-    <dgm:cxn modelId="{BCF2FC7E-42F3-4922-842B-85D062856188}" type="presOf" srcId="{3BE0EFDE-10D7-4D14-8542-603E1813DCBE}" destId="{D107B190-A7EE-4946-86FF-406679EC3865}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
-    <dgm:cxn modelId="{3C0F2CE5-F5EA-4B23-A704-93D9A0D0C5D4}" type="presOf" srcId="{B5ADEC2E-D8CE-4A44-A59A-3B7CE8BCCAE9}" destId="{494CF6FE-2591-4415-857B-F52A0F60951A}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
-    <dgm:cxn modelId="{6E4677AF-AE2E-439F-8DFB-C0945FDB1EE3}" type="presOf" srcId="{8EA272DD-2EBF-4EBB-943D-F53C51381DBA}" destId="{9FFDCA42-22D2-4A50-BF6F-47A44B7D806D}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
-    <dgm:cxn modelId="{75A107A9-AA02-44AC-B77E-EFEB95AD7BCF}" srcId="{B1A1975D-F6EE-4F6A-B0B9-A84F8E4437BA}" destId="{776D0BEC-47DE-4E6B-ADE1-7FE8B40E2E09}" srcOrd="1" destOrd="0" parTransId="{995A764C-4ED4-4A5F-8606-353224B7E370}" sibTransId="{A47A1ADE-BF3F-45B8-B55F-6650BDBA2419}"/>
-    <dgm:cxn modelId="{B6233A8C-3693-42FE-8C21-6BE05EB43163}" type="presOf" srcId="{776D0BEC-47DE-4E6B-ADE1-7FE8B40E2E09}" destId="{523484C6-151E-4DF4-9AFB-1C19DFC859D2}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
-    <dgm:cxn modelId="{5AD26A1E-880A-4735-A1CE-E24216B7BB7E}" type="presOf" srcId="{F602673A-62DA-438F-8B6A-1C63CCD94BDF}" destId="{63F1F962-4995-42B6-8526-0700788F3DE4}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
-    <dgm:cxn modelId="{26AA50AD-5C6E-4EB9-A870-02F900FD946F}" srcId="{5531E4BA-D402-4979-B681-83057DF50F65}" destId="{9E3D3546-BC47-44E3-9D79-E89C9B97704A}" srcOrd="0" destOrd="0" parTransId="{DCFD2C52-897E-4D3F-AACC-77B80F8F0AD2}" sibTransId="{7F41C496-6DE7-4D2D-9C0B-99188FE5D559}"/>
-    <dgm:cxn modelId="{82EEAD5F-B713-4125-8EA8-56DD9B8E5D55}" type="presOf" srcId="{1411A133-F459-42AB-BA96-8F674F6348E3}" destId="{B5F3DAA7-BFDA-4D58-B990-89950E30F0A8}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
-    <dgm:cxn modelId="{23743614-0D31-4D20-B7A8-CDA984ACCE4C}" type="presOf" srcId="{CE019054-3759-40ED-8E26-F0A61CEC1E08}" destId="{B157A907-D573-427B-97FC-769E6E03B167}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
-    <dgm:cxn modelId="{1A68E0F1-86EC-4481-8A9B-C2C986734974}" type="presOf" srcId="{DCFD2C52-897E-4D3F-AACC-77B80F8F0AD2}" destId="{4281BE41-C03A-4CFC-B1DA-BE515A1BDD7F}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
-    <dgm:cxn modelId="{C2DECB9A-2015-472A-9219-7A0657EAB874}" type="presOf" srcId="{3B511561-540D-4D60-9012-6B5F66859F0A}" destId="{80BA89DD-5EE5-44E2-A103-0E52084D4145}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
-    <dgm:cxn modelId="{833BC888-BE05-489C-80F9-89627779B178}" type="presOf" srcId="{44B93ED7-AF09-4CBA-8E44-6247F41AE32A}" destId="{1A256CA1-F071-49F1-963C-5372D2A06396}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
-    <dgm:cxn modelId="{55147E83-528C-44E6-A11B-CB5DE98CE715}" type="presOf" srcId="{4161B1B0-37CD-4FB0-A1E4-AB964CEC2D39}" destId="{BAE746DB-C2F5-4E82-9CBF-90193F3B2091}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
-    <dgm:cxn modelId="{1A926BE1-627E-4296-9AB1-DE8AB3ED360F}" type="presOf" srcId="{29A52D27-0C72-4B86-BDF6-8986BD27A627}" destId="{FF14BC1C-2E81-4272-8241-CAA23949FBF6}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
-    <dgm:cxn modelId="{D8A3EB9B-E261-442E-AB63-DCE8C7730BB4}" srcId="{B77806E4-5E41-4C6F-9442-D215D10C42E9}" destId="{0E8035DB-CE5A-4BB8-ADBD-069EA0ED8D0B}" srcOrd="1" destOrd="0" parTransId="{566746CA-63BA-4C9B-A67F-EC9E3216E435}" sibTransId="{28A9D3BA-DCAD-4EAB-A1F9-2374F6109AC8}"/>
-    <dgm:cxn modelId="{C16079E3-9B4F-4F71-B8B6-C56A2E6CF0F2}" type="presParOf" srcId="{D37BF067-FA63-40C9-A96C-A1D0BF8BA2EB}" destId="{83E255F8-7C36-4FB5-8AE6-6E4CF3F0B89D}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
-    <dgm:cxn modelId="{4541FDB2-9099-4564-93F8-825021B24552}" type="presParOf" srcId="{83E255F8-7C36-4FB5-8AE6-6E4CF3F0B89D}" destId="{80BA89DD-5EE5-44E2-A103-0E52084D4145}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
-    <dgm:cxn modelId="{46B625D3-20C3-487A-BB2A-3440D7E4DCE9}" type="presParOf" srcId="{83E255F8-7C36-4FB5-8AE6-6E4CF3F0B89D}" destId="{B681C0BC-5BEF-4DB8-BF50-3B081297BB68}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
-    <dgm:cxn modelId="{0A31174A-C211-4EA1-B0BC-2314CC8ADF05}" type="presParOf" srcId="{B681C0BC-5BEF-4DB8-BF50-3B081297BB68}" destId="{D6A70E11-5D25-443F-9694-1E5BFDA45171}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
-    <dgm:cxn modelId="{ACED2183-E568-4489-B79B-D10F351EECBA}" type="presParOf" srcId="{D6A70E11-5D25-443F-9694-1E5BFDA45171}" destId="{1A256CA1-F071-49F1-963C-5372D2A06396}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
-    <dgm:cxn modelId="{C94585E1-371B-43CE-A981-35403BED8910}" type="presParOf" srcId="{B681C0BC-5BEF-4DB8-BF50-3B081297BB68}" destId="{D0AC582E-B979-4B25-80A7-E099CC928076}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
-    <dgm:cxn modelId="{A5DF43EC-AD6B-4157-858A-D58CA1DF3BF4}" type="presParOf" srcId="{D0AC582E-B979-4B25-80A7-E099CC928076}" destId="{1507B06C-5D98-48B4-BA05-490C7F303DEC}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
-    <dgm:cxn modelId="{F94CFD44-F928-4C2C-B47D-9B8A5AE924BB}" type="presParOf" srcId="{D0AC582E-B979-4B25-80A7-E099CC928076}" destId="{F7871F3F-76A0-44A8-BB5D-1E5EEBC9ADD0}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
-    <dgm:cxn modelId="{7C524415-E21E-4877-9096-2BC82D68AD49}" type="presParOf" srcId="{D37BF067-FA63-40C9-A96C-A1D0BF8BA2EB}" destId="{4DE61D29-26D4-4F75-A52E-8A64166CB565}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
-    <dgm:cxn modelId="{832AEA80-02F6-4358-B29F-213946D458F6}" type="presParOf" srcId="{4DE61D29-26D4-4F75-A52E-8A64166CB565}" destId="{523484C6-151E-4DF4-9AFB-1C19DFC859D2}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
-    <dgm:cxn modelId="{F5D56AE1-3BCC-40C8-9150-2246F9CC0D67}" type="presParOf" srcId="{4DE61D29-26D4-4F75-A52E-8A64166CB565}" destId="{E02B2B7C-181F-4B3A-AE58-6B63EF7EF768}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
-    <dgm:cxn modelId="{C4A5EF63-607F-4D3D-AC02-25E510BE3904}" type="presParOf" srcId="{E02B2B7C-181F-4B3A-AE58-6B63EF7EF768}" destId="{9FFDCA42-22D2-4A50-BF6F-47A44B7D806D}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
-    <dgm:cxn modelId="{892EF663-EF33-427F-A20A-9E5F0C66F750}" type="presParOf" srcId="{9FFDCA42-22D2-4A50-BF6F-47A44B7D806D}" destId="{6B88C7CC-3ACA-4195-BB54-4D493131B3BA}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
-    <dgm:cxn modelId="{86B29DFC-6CD2-4583-BFD9-BC2768C5BB59}" type="presParOf" srcId="{E02B2B7C-181F-4B3A-AE58-6B63EF7EF768}" destId="{5D5F162A-F0F6-48B1-BCF1-F84A13273B56}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
-    <dgm:cxn modelId="{95774EF1-5393-4703-B975-0351A9243ACB}" type="presParOf" srcId="{5D5F162A-F0F6-48B1-BCF1-F84A13273B56}" destId="{3255085A-EA4C-464E-A12B-E265EAA6B927}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
-    <dgm:cxn modelId="{6A956A80-94A1-47E9-8DA0-ED48EE0B5A7D}" type="presParOf" srcId="{5D5F162A-F0F6-48B1-BCF1-F84A13273B56}" destId="{59169C00-3143-4A51-918E-F58600B214B4}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
-    <dgm:cxn modelId="{11CE78D0-E3BF-47FB-A48A-903C3ABF2FEE}" type="presParOf" srcId="{59169C00-3143-4A51-918E-F58600B214B4}" destId="{DA8672FA-9F10-4934-92F4-9B0E03E504AC}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
-    <dgm:cxn modelId="{57F82EC4-8BB5-4466-9EC0-325A1AC02B82}" type="presParOf" srcId="{DA8672FA-9F10-4934-92F4-9B0E03E504AC}" destId="{EDFDE935-BFCE-4424-AB93-AA691740BB95}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
-    <dgm:cxn modelId="{BAE0A6AF-6715-44B7-A92F-395A7D74BEDF}" type="presParOf" srcId="{59169C00-3143-4A51-918E-F58600B214B4}" destId="{15217014-ADB2-4539-A3A9-8C048104CD65}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
-    <dgm:cxn modelId="{99A00AF6-4AF4-4CDC-A119-AC8E32549BCE}" type="presParOf" srcId="{15217014-ADB2-4539-A3A9-8C048104CD65}" destId="{A98771A6-1065-426D-AB17-244C08354536}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
-    <dgm:cxn modelId="{6825D0BE-5935-4A48-8A1A-12B3C223B579}" type="presParOf" srcId="{15217014-ADB2-4539-A3A9-8C048104CD65}" destId="{11FFBD11-4BEC-4B06-928B-8BD352E6B1F2}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
-    <dgm:cxn modelId="{3A4E82A0-7BAF-47E8-A0BD-B955FBFF5BE8}" type="presParOf" srcId="{11FFBD11-4BEC-4B06-928B-8BD352E6B1F2}" destId="{DB1231E3-4B3A-43E1-A60A-E362EA672D1D}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
-    <dgm:cxn modelId="{4CBF2050-B2B1-483F-A2B4-BCDDC8F2DA85}" type="presParOf" srcId="{DB1231E3-4B3A-43E1-A60A-E362EA672D1D}" destId="{25A47253-B623-4CF0-9753-CA45DCB14863}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
-    <dgm:cxn modelId="{E19F1A90-462D-49C3-96D2-CE5F1F81A8F2}" type="presParOf" srcId="{11FFBD11-4BEC-4B06-928B-8BD352E6B1F2}" destId="{1F149E23-F7C7-47CE-9A69-1F93DFC3E2B8}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
-    <dgm:cxn modelId="{540392AB-D7AD-42F4-A0C3-FA9FB61F3F3D}" type="presParOf" srcId="{1F149E23-F7C7-47CE-9A69-1F93DFC3E2B8}" destId="{63F1F962-4995-42B6-8526-0700788F3DE4}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
-    <dgm:cxn modelId="{6F64AADE-362F-46F7-AA19-E4793FB54B47}" type="presParOf" srcId="{1F149E23-F7C7-47CE-9A69-1F93DFC3E2B8}" destId="{CB6FC48F-9DE9-490E-BEAC-13B47672CB2E}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
-    <dgm:cxn modelId="{D5A5FC3D-0F7C-4D3C-9638-3EB2D040174C}" type="presParOf" srcId="{CB6FC48F-9DE9-490E-BEAC-13B47672CB2E}" destId="{F5F7CDA6-8199-4DE5-9A64-4B4E2B197201}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
-    <dgm:cxn modelId="{93C65C34-27E9-4900-80A0-F2B710A232CC}" type="presParOf" srcId="{F5F7CDA6-8199-4DE5-9A64-4B4E2B197201}" destId="{7700C75A-0051-40BB-899E-A0D0389B2DCF}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
-    <dgm:cxn modelId="{8B5D9BD7-60A6-4F8C-82E1-7CD4A6B53FD1}" type="presParOf" srcId="{CB6FC48F-9DE9-490E-BEAC-13B47672CB2E}" destId="{D3D9F1B4-7206-4DD1-8DAF-67450FECBA9F}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
-    <dgm:cxn modelId="{B4EF6957-2D8D-4437-95D5-E0A3784191BA}" type="presParOf" srcId="{D3D9F1B4-7206-4DD1-8DAF-67450FECBA9F}" destId="{FF14BC1C-2E81-4272-8241-CAA23949FBF6}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
-    <dgm:cxn modelId="{58FA98E9-D767-4CD1-9DD9-581D2DFF38E2}" type="presParOf" srcId="{D3D9F1B4-7206-4DD1-8DAF-67450FECBA9F}" destId="{86018107-B67A-4E7A-9BC4-4E56347FDC2B}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
-    <dgm:cxn modelId="{56CDF64C-C874-4CBC-A136-06CCA3DC6B6B}" type="presParOf" srcId="{86018107-B67A-4E7A-9BC4-4E56347FDC2B}" destId="{C7C260BE-DF41-4A4D-B509-3ACB58286E66}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
-    <dgm:cxn modelId="{14B30F23-40B5-4F84-BF27-969398B2DDF1}" type="presParOf" srcId="{C7C260BE-DF41-4A4D-B509-3ACB58286E66}" destId="{013CDCB5-C919-4FE7-A85C-50BF29CDF56C}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
-    <dgm:cxn modelId="{F8DD21D4-DC70-4D0A-A6AA-839A3A006F0F}" type="presParOf" srcId="{86018107-B67A-4E7A-9BC4-4E56347FDC2B}" destId="{FC811636-E055-4494-B81E-E746C1609497}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
-    <dgm:cxn modelId="{599CB167-9753-4058-97F3-75122A68D053}" type="presParOf" srcId="{FC811636-E055-4494-B81E-E746C1609497}" destId="{3AB530FA-7695-47C2-849F-535E3DAEAE59}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
-    <dgm:cxn modelId="{A0EB748B-8E2A-4620-B8D7-23395C350C37}" type="presParOf" srcId="{FC811636-E055-4494-B81E-E746C1609497}" destId="{423B3D2E-2063-4D8F-9822-9F52BBA36011}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
-    <dgm:cxn modelId="{0BD8C321-2956-4590-ADD1-265A2712FA6F}" type="presParOf" srcId="{423B3D2E-2063-4D8F-9822-9F52BBA36011}" destId="{3FE4E342-1165-4DB5-8749-DBAD9C170248}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
-    <dgm:cxn modelId="{C18620A3-1379-4B8C-83F2-696C786A22AA}" type="presParOf" srcId="{3FE4E342-1165-4DB5-8749-DBAD9C170248}" destId="{BAE746DB-C2F5-4E82-9CBF-90193F3B2091}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
-    <dgm:cxn modelId="{8B8E939F-5A1B-404B-9496-A008B9B0FA1D}" type="presParOf" srcId="{423B3D2E-2063-4D8F-9822-9F52BBA36011}" destId="{5561D9C3-5EB9-4C41-AB15-00C8B5AACA58}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
-    <dgm:cxn modelId="{73CF3FDB-687A-4ECC-A727-06F1616D6BF6}" type="presParOf" srcId="{5561D9C3-5EB9-4C41-AB15-00C8B5AACA58}" destId="{1751D3B1-A05B-4672-8F9C-80DA03C9B1D9}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
-    <dgm:cxn modelId="{69C6622E-FF12-4DD5-A666-6D954F100B36}" type="presParOf" srcId="{5561D9C3-5EB9-4C41-AB15-00C8B5AACA58}" destId="{044916E5-8D4A-4349-BDB5-F78877F72797}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
-    <dgm:cxn modelId="{4BCA5D2B-5E6D-4C75-A11E-3F42F0CE23C3}" type="presParOf" srcId="{86018107-B67A-4E7A-9BC4-4E56347FDC2B}" destId="{A1B406B5-8911-4317-AC33-8C3B0CE5E3B9}" srcOrd="2" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
-    <dgm:cxn modelId="{96D169A5-C0A3-4579-8188-681C04D0D1B7}" type="presParOf" srcId="{A1B406B5-8911-4317-AC33-8C3B0CE5E3B9}" destId="{09F54421-16F3-4413-ABD8-386DC3A85404}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
-    <dgm:cxn modelId="{8D998E4F-5FE5-4B56-AF88-3DACB15CE8B5}" type="presParOf" srcId="{86018107-B67A-4E7A-9BC4-4E56347FDC2B}" destId="{5601AD14-1281-4268-B1B0-55DEB42FC01D}" srcOrd="3" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
-    <dgm:cxn modelId="{90F83C6C-42D3-4FFC-85A5-716A28E2B2F5}" type="presParOf" srcId="{5601AD14-1281-4268-B1B0-55DEB42FC01D}" destId="{6C40B4ED-7BA3-445A-869A-110831F15CAE}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
-    <dgm:cxn modelId="{95FD2A32-67DF-402A-9233-2CDBEC158808}" type="presParOf" srcId="{5601AD14-1281-4268-B1B0-55DEB42FC01D}" destId="{709B0276-1C4E-4540-A922-9510D33F129C}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
-    <dgm:cxn modelId="{E51F41C4-84BD-47F4-A685-B783B388CA00}" type="presParOf" srcId="{709B0276-1C4E-4540-A922-9510D33F129C}" destId="{494CF6FE-2591-4415-857B-F52A0F60951A}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
-    <dgm:cxn modelId="{F23BCC38-C9D7-4DF2-8127-B9A79A2D1C8E}" type="presParOf" srcId="{494CF6FE-2591-4415-857B-F52A0F60951A}" destId="{4B8C6EFF-8551-43DF-81E3-B6C157C2AC20}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
-    <dgm:cxn modelId="{84F34EEF-631E-40D8-9D9D-53F3BAA89D15}" type="presParOf" srcId="{709B0276-1C4E-4540-A922-9510D33F129C}" destId="{3CB0C17B-3361-415E-A8A2-1078EB680775}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
-    <dgm:cxn modelId="{71B19092-4302-4C92-915E-929DB1D0709F}" type="presParOf" srcId="{3CB0C17B-3361-415E-A8A2-1078EB680775}" destId="{89789CDF-20CF-4BBB-BBDF-CA9AFF58C425}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
-    <dgm:cxn modelId="{E41763EA-3596-4C65-BD94-1D1986DD082D}" type="presParOf" srcId="{3CB0C17B-3361-415E-A8A2-1078EB680775}" destId="{5E1F8CD0-9508-4427-A520-DB6B13D23D01}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
-    <dgm:cxn modelId="{E31DB206-9679-47B0-96C6-3DC86B7A4806}" type="presParOf" srcId="{5E1F8CD0-9508-4427-A520-DB6B13D23D01}" destId="{B5F3DAA7-BFDA-4D58-B990-89950E30F0A8}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
-    <dgm:cxn modelId="{DEEFE4E1-F9CA-4BE3-8FBF-A8416993BFB8}" type="presParOf" srcId="{B5F3DAA7-BFDA-4D58-B990-89950E30F0A8}" destId="{F18C07D0-924F-4EE6-826F-DEBEEE5D176D}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
-    <dgm:cxn modelId="{B7DE9C7A-2E92-4291-A809-CBDC1D7A1706}" type="presParOf" srcId="{5E1F8CD0-9508-4427-A520-DB6B13D23D01}" destId="{1310692E-32FD-4631-8F10-301E4F71A2E8}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
-    <dgm:cxn modelId="{523605CC-72E9-46E5-9851-AE22C6EE1F95}" type="presParOf" srcId="{1310692E-32FD-4631-8F10-301E4F71A2E8}" destId="{28AE2CA2-293C-45A3-86F4-307002D9B041}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
-    <dgm:cxn modelId="{46118FB9-C11D-4333-947C-086DC20AE41C}" type="presParOf" srcId="{1310692E-32FD-4631-8F10-301E4F71A2E8}" destId="{91FF2BED-5CE7-4ADA-AEBD-5A6C714B82F1}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
-    <dgm:cxn modelId="{0E87B899-FFFF-4455-BF62-A68D3E2B674B}" type="presParOf" srcId="{91FF2BED-5CE7-4ADA-AEBD-5A6C714B82F1}" destId="{304959C4-0F8C-455C-915A-8C9D5D24FD99}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
-    <dgm:cxn modelId="{4F7C47FF-4384-4BE8-AAF2-62AED8A03B26}" type="presParOf" srcId="{304959C4-0F8C-455C-915A-8C9D5D24FD99}" destId="{4281BE41-C03A-4CFC-B1DA-BE515A1BDD7F}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
-    <dgm:cxn modelId="{0CFB61C4-EAA8-4223-A34E-520D7F4D24AF}" type="presParOf" srcId="{91FF2BED-5CE7-4ADA-AEBD-5A6C714B82F1}" destId="{F8A165AA-1874-4360-B912-DA7F7616F9E7}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
-    <dgm:cxn modelId="{A7A43C36-1223-4F8F-9153-13DC00640794}" type="presParOf" srcId="{F8A165AA-1874-4360-B912-DA7F7616F9E7}" destId="{DB95C6B5-8400-472C-A9DC-CF2D409C7D4A}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
-    <dgm:cxn modelId="{26ABA44B-7EAF-40C5-94FB-38C23466932E}" type="presParOf" srcId="{F8A165AA-1874-4360-B912-DA7F7616F9E7}" destId="{9EB93D29-D462-41A1-9125-6632C6D18110}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
-    <dgm:cxn modelId="{1B3A76C3-E456-47C0-ADAE-C8BB4C038140}" type="presParOf" srcId="{11FFBD11-4BEC-4B06-928B-8BD352E6B1F2}" destId="{81ABC927-9622-442A-B8AD-72EB91444905}" srcOrd="2" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
-    <dgm:cxn modelId="{F0EC310C-91AA-4AB5-9849-C4D69042F2EA}" type="presParOf" srcId="{81ABC927-9622-442A-B8AD-72EB91444905}" destId="{CA44C3B6-CE4C-47B0-9AFB-82116F5BD2A6}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
-    <dgm:cxn modelId="{33E5BFF8-3267-4AA0-AC74-5A5718F47905}" type="presParOf" srcId="{11FFBD11-4BEC-4B06-928B-8BD352E6B1F2}" destId="{FE0029FB-20F3-4429-AF3C-5578CBD77AB5}" srcOrd="3" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
-    <dgm:cxn modelId="{0B5C38F0-11B0-42AE-8C6E-026E0166E0A6}" type="presParOf" srcId="{FE0029FB-20F3-4429-AF3C-5578CBD77AB5}" destId="{BFE8769B-98C6-47D5-97B8-2BB5A4A4702B}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
-    <dgm:cxn modelId="{B0B0BF11-1678-4F77-8BFD-133605C15812}" type="presParOf" srcId="{FE0029FB-20F3-4429-AF3C-5578CBD77AB5}" destId="{BF2A2A67-D5FE-407C-8143-271B06C62922}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
-    <dgm:cxn modelId="{B0480368-350F-424C-BBE8-1CCEB9DE09F7}" type="presParOf" srcId="{BF2A2A67-D5FE-407C-8143-271B06C62922}" destId="{5613D056-022B-4A6C-A781-177D3B75F647}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
-    <dgm:cxn modelId="{B4EF4436-ECAD-4AE7-A50E-A2F95A24FA2F}" type="presParOf" srcId="{5613D056-022B-4A6C-A781-177D3B75F647}" destId="{B157A907-D573-427B-97FC-769E6E03B167}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
-    <dgm:cxn modelId="{C806C2EF-ED98-4100-970D-327B357E19C7}" type="presParOf" srcId="{BF2A2A67-D5FE-407C-8143-271B06C62922}" destId="{9BEF525F-A846-48BB-9D84-B936A84A7605}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
-    <dgm:cxn modelId="{8BB15557-9F2F-4F3B-95FE-4F7BF27882F7}" type="presParOf" srcId="{9BEF525F-A846-48BB-9D84-B936A84A7605}" destId="{D107B190-A7EE-4946-86FF-406679EC3865}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
-    <dgm:cxn modelId="{AD828A9D-4400-43B7-9721-49748D05B21E}" type="presParOf" srcId="{9BEF525F-A846-48BB-9D84-B936A84A7605}" destId="{C81ACA67-D4E3-4C6B-A90E-59CD8E8B39BA}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{65F5E733-029B-4707-B9C9-4D76F9F93CB7}" type="presOf" srcId="{F1A57523-45CA-4602-95AA-DFF7597A4BA4}" destId="{1F35D507-9907-4824-8495-257F556B7340}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{B86520B5-07FC-4F97-B2CE-11E09C670393}" type="presOf" srcId="{B77806E4-5E41-4C6F-9442-D215D10C42E9}" destId="{A98771A6-1065-426D-AB17-244C08354536}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{A96E1C6E-0376-4273-BDDB-DC682F8BE31F}" type="presOf" srcId="{4633A2FD-D89E-43CD-AE40-08FA515A5FCA}" destId="{02FD09EE-6FC2-44AE-8349-4FF332E83FCB}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{976F9F67-6F09-4E24-8841-CE086BC82EF6}" type="presOf" srcId="{7F1F80C3-D6A0-4E23-854A-0AED3AFE2338}" destId="{F5F7CDA6-8199-4DE5-9A64-4B4E2B197201}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{F02496B0-D4E7-4CF7-A33A-EFD552F2DCD3}" type="presOf" srcId="{A817198D-8D7E-473B-85A4-F850C69D01F3}" destId="{49E73D38-A471-4F90-9EEA-CCBF50BEBA21}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{81FD78EC-1598-42A5-B8A5-D3C47B94879B}" srcId="{B77806E4-5E41-4C6F-9442-D215D10C42E9}" destId="{C69F52B9-BD0A-44F6-8891-09BC83EFFE66}" srcOrd="2" destOrd="0" parTransId="{A817198D-8D7E-473B-85A4-F850C69D01F3}" sibTransId="{2EEDFAB7-752B-4BD8-9C16-C36FB5A79EC2}"/>
+    <dgm:cxn modelId="{4AADD5DB-B356-46BE-A6F0-0ACE1D74FDD5}" srcId="{B77806E4-5E41-4C6F-9442-D215D10C42E9}" destId="{900F308B-402F-4EF5-BD06-56306AA84F2A}" srcOrd="0" destOrd="0" parTransId="{F1A57523-45CA-4602-95AA-DFF7597A4BA4}" sibTransId="{6B5F69E7-6B22-467C-BD09-FD6EA5C0FFD9}"/>
+    <dgm:cxn modelId="{140E6E31-BE26-459F-9971-428F139220E6}" srcId="{900F308B-402F-4EF5-BD06-56306AA84F2A}" destId="{3DF97E63-9293-4318-AE64-2FC9B1B99207}" srcOrd="0" destOrd="0" parTransId="{DE6FC9B6-8CE9-4C51-B5E4-C3A507DC6867}" sibTransId="{D196ED65-5CF4-433B-96E7-3C12F8B6F913}"/>
+    <dgm:cxn modelId="{75A107A9-AA02-44AC-B77E-EFEB95AD7BCF}" srcId="{D4D903E2-06E1-4B32-BB71-12B1DCFCEFAA}" destId="{776D0BEC-47DE-4E6B-ADE1-7FE8B40E2E09}" srcOrd="0" destOrd="0" parTransId="{995A764C-4ED4-4A5F-8606-353224B7E370}" sibTransId="{A47A1ADE-BF3F-45B8-B55F-6650BDBA2419}"/>
+    <dgm:cxn modelId="{3EF013B9-5A51-4302-9C71-2E314DD2EE98}" type="presOf" srcId="{8EA272DD-2EBF-4EBB-943D-F53C51381DBA}" destId="{6B88C7CC-3ACA-4195-BB54-4D493131B3BA}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{2DDF6FB2-A8CE-4ED0-A26C-6C00747CEDCB}" srcId="{B1A1975D-F6EE-4F6A-B0B9-A84F8E4437BA}" destId="{DE1979B4-6F02-47D2-89C1-89A41E6F6333}" srcOrd="1" destOrd="0" parTransId="{D36542D5-D409-4B21-9BF0-5E55015D6D85}" sibTransId="{0688E162-C9C8-4AFF-BBEC-CD344EEA9D12}"/>
+    <dgm:cxn modelId="{3686DEFD-6F1E-40DD-A82A-2F0EAEB36305}" type="presOf" srcId="{89C294FD-9D1C-44AE-B4CC-FCB48A67C5E0}" destId="{DB1231E3-4B3A-43E1-A60A-E362EA672D1D}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{54F0C29E-937C-4AA6-8254-6B5BBAE57F21}" type="presOf" srcId="{4633A2FD-D89E-43CD-AE40-08FA515A5FCA}" destId="{D313BB73-5B43-4582-94A8-7C34526208F0}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{1DF741AF-1D57-4FC5-A9B9-83563F54ED26}" type="presOf" srcId="{C0925ED0-72CC-4809-9A63-09DDB0FD787F}" destId="{CA37292C-8D74-430A-A7B6-13C98C4BAE07}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{5E8624D9-882F-4755-845C-A4A0F129DF53}" type="presOf" srcId="{A817198D-8D7E-473B-85A4-F850C69D01F3}" destId="{A1F4F5A8-832B-46F2-8D46-C478BC2CB9D5}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{7EC317B3-19CA-45E5-91C1-9CBB5B204A73}" type="presOf" srcId="{DE6FC9B6-8CE9-4C51-B5E4-C3A507DC6867}" destId="{6C9543BE-BDBA-4FEC-924B-8083F6303B82}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{ABAEB0A1-C42F-44FD-9982-98D007C94F48}" type="presParOf" srcId="{D37BF067-FA63-40C9-A96C-A1D0BF8BA2EB}" destId="{707108AA-18B4-4099-A669-6BB1E39EEB5F}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{9A1CB08A-531E-4EBE-8627-61E0FB93545A}" type="presParOf" srcId="{707108AA-18B4-4099-A669-6BB1E39EEB5F}" destId="{B998B3DF-C3A4-49F5-AD4E-914F87E1B887}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{768C4A22-8022-40D4-8A78-B3D228ED8521}" type="presParOf" srcId="{707108AA-18B4-4099-A669-6BB1E39EEB5F}" destId="{55522141-06EB-41A6-BAED-7359973E7720}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{B76493E0-0746-4D22-8B15-628A88DB40C1}" type="presParOf" srcId="{55522141-06EB-41A6-BAED-7359973E7720}" destId="{2140AD49-6339-43DF-B2A4-5DCD5E6A45DC}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{C94D6D41-378F-468F-A3DD-FC44F3AFBC9D}" type="presParOf" srcId="{2140AD49-6339-43DF-B2A4-5DCD5E6A45DC}" destId="{D08E52E4-0732-455B-8EF1-5A8E53C0F9C7}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{9B1337B2-5978-4E25-A210-F0A14E2985F3}" type="presParOf" srcId="{55522141-06EB-41A6-BAED-7359973E7720}" destId="{3B3FC60E-F24F-4303-8D69-77FE9988B470}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{A7B5C2F2-61E9-4BDD-8C2D-6003676DC803}" type="presParOf" srcId="{3B3FC60E-F24F-4303-8D69-77FE9988B470}" destId="{637FBC33-6F9D-4F81-9272-11AD1DDE6A69}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{91F5988B-0046-482C-84ED-294F9FDF4BE1}" type="presParOf" srcId="{3B3FC60E-F24F-4303-8D69-77FE9988B470}" destId="{66A177E8-8696-45CF-A8D4-A04073C8E7AC}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{55AD1255-F7E8-4858-9197-DE5895950A9F}" type="presParOf" srcId="{66A177E8-8696-45CF-A8D4-A04073C8E7AC}" destId="{9FFDCA42-22D2-4A50-BF6F-47A44B7D806D}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{EB504362-366D-4621-B424-DF5935A78C84}" type="presParOf" srcId="{9FFDCA42-22D2-4A50-BF6F-47A44B7D806D}" destId="{6B88C7CC-3ACA-4195-BB54-4D493131B3BA}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{0A427A13-A948-47D6-A4A9-6CE49179008C}" type="presParOf" srcId="{66A177E8-8696-45CF-A8D4-A04073C8E7AC}" destId="{5D5F162A-F0F6-48B1-BCF1-F84A13273B56}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{F400BE56-5495-4359-9DF7-256D37A86D2A}" type="presParOf" srcId="{5D5F162A-F0F6-48B1-BCF1-F84A13273B56}" destId="{3255085A-EA4C-464E-A12B-E265EAA6B927}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{8CE2FAD9-4645-4C54-B4F3-F7409972759F}" type="presParOf" srcId="{5D5F162A-F0F6-48B1-BCF1-F84A13273B56}" destId="{59169C00-3143-4A51-918E-F58600B214B4}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{F1458182-AAE4-44DD-963B-FEA4C74D67BC}" type="presParOf" srcId="{59169C00-3143-4A51-918E-F58600B214B4}" destId="{DA8672FA-9F10-4934-92F4-9B0E03E504AC}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{2CA6F198-F42E-47E7-AC48-993E2A43AAB2}" type="presParOf" srcId="{DA8672FA-9F10-4934-92F4-9B0E03E504AC}" destId="{EDFDE935-BFCE-4424-AB93-AA691740BB95}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{0B076DF5-530E-479D-9389-B5E590163AE9}" type="presParOf" srcId="{59169C00-3143-4A51-918E-F58600B214B4}" destId="{15217014-ADB2-4539-A3A9-8C048104CD65}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{279DB543-B13E-4E4F-BB22-E9B404CA2CAA}" type="presParOf" srcId="{15217014-ADB2-4539-A3A9-8C048104CD65}" destId="{A98771A6-1065-426D-AB17-244C08354536}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{D9E23031-DAAD-4CBC-BF58-6E844FA6B43E}" type="presParOf" srcId="{15217014-ADB2-4539-A3A9-8C048104CD65}" destId="{11FFBD11-4BEC-4B06-928B-8BD352E6B1F2}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{7FDAFAFE-90F1-4BBC-8B29-0E141E481C22}" type="presParOf" srcId="{11FFBD11-4BEC-4B06-928B-8BD352E6B1F2}" destId="{194D1AF4-BC77-4835-A7CF-9D75DD8D4C8E}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{6785D115-8822-4AC5-95DF-A8AFE3172EF3}" type="presParOf" srcId="{194D1AF4-BC77-4835-A7CF-9D75DD8D4C8E}" destId="{1F35D507-9907-4824-8495-257F556B7340}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{384FA89A-EADE-4EFA-9BEA-A74E58147215}" type="presParOf" srcId="{11FFBD11-4BEC-4B06-928B-8BD352E6B1F2}" destId="{CFD50845-1129-4380-ABD4-AFEE06535CF2}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{50E8E38E-CB73-4408-AFB1-E03FB82570B5}" type="presParOf" srcId="{CFD50845-1129-4380-ABD4-AFEE06535CF2}" destId="{C40A0F12-8707-4462-A273-77E543D6FDD9}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{EB81DEE4-9898-4F9C-9391-492E54F59FED}" type="presParOf" srcId="{CFD50845-1129-4380-ABD4-AFEE06535CF2}" destId="{6EC3E51A-1194-4637-9056-7D07716410F0}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{1BC8B652-0BC2-45D4-8A36-CA85356E8D75}" type="presParOf" srcId="{6EC3E51A-1194-4637-9056-7D07716410F0}" destId="{6C9543BE-BDBA-4FEC-924B-8083F6303B82}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{1403C758-F76E-4463-BDFD-4DCE4131F350}" type="presParOf" srcId="{6C9543BE-BDBA-4FEC-924B-8083F6303B82}" destId="{DDDB1552-31E1-447E-8029-97E98501487D}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{C0654520-5460-4A4F-8C0A-7581AD398A9E}" type="presParOf" srcId="{6EC3E51A-1194-4637-9056-7D07716410F0}" destId="{63FF4A88-6DA6-43B2-B18A-7150D1DCF313}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{EC14FBD5-79A2-45C1-B3DF-DCB912790222}" type="presParOf" srcId="{63FF4A88-6DA6-43B2-B18A-7150D1DCF313}" destId="{D09B0EF9-7C4F-4DBD-8C24-6856B794700D}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{0D21F3DC-8C9E-4BE5-BBAA-91D8BFD089C3}" type="presParOf" srcId="{63FF4A88-6DA6-43B2-B18A-7150D1DCF313}" destId="{95EA30DE-C34F-46B5-90E1-11A06939B3D6}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{C18A55EB-7CE9-4AFE-941A-D0FC740122D5}" type="presParOf" srcId="{95EA30DE-C34F-46B5-90E1-11A06939B3D6}" destId="{D313BB73-5B43-4582-94A8-7C34526208F0}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{86375B10-FD28-4931-AF11-36FE0C3C7C84}" type="presParOf" srcId="{D313BB73-5B43-4582-94A8-7C34526208F0}" destId="{02FD09EE-6FC2-44AE-8349-4FF332E83FCB}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{4C503C11-1030-43FD-8EBD-DB709DCF213F}" type="presParOf" srcId="{95EA30DE-C34F-46B5-90E1-11A06939B3D6}" destId="{BA9A2F8D-3DDC-4655-B0C7-6198F31557DD}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{46C5536B-74AC-4E13-8D88-C8DEA6AF383D}" type="presParOf" srcId="{BA9A2F8D-3DDC-4655-B0C7-6198F31557DD}" destId="{D9D4D45F-8405-47B2-A9EE-57E6910111EA}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{626932B6-218C-4CE9-86F9-F275CE71FD66}" type="presParOf" srcId="{BA9A2F8D-3DDC-4655-B0C7-6198F31557DD}" destId="{CCFF7FFE-255B-46F2-9EAC-5361120A54C2}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{B6EFEAB7-C5D1-48F0-9115-1546B45A7332}" type="presParOf" srcId="{CCFF7FFE-255B-46F2-9EAC-5361120A54C2}" destId="{CA37292C-8D74-430A-A7B6-13C98C4BAE07}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{7D9F5E0A-7F14-45E2-8C15-E839378E5A61}" type="presParOf" srcId="{CA37292C-8D74-430A-A7B6-13C98C4BAE07}" destId="{4E80D0D3-480C-4184-B75F-AEBEA07ED8E5}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{EF25CAA1-3AE8-4630-B5D2-2E6EBBAD2ABD}" type="presParOf" srcId="{CCFF7FFE-255B-46F2-9EAC-5361120A54C2}" destId="{7A8A0389-79FD-4150-BD6A-3B5F5ECB76A3}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{EB743E97-37AC-4B43-A92E-5CA87E4411C7}" type="presParOf" srcId="{7A8A0389-79FD-4150-BD6A-3B5F5ECB76A3}" destId="{78FEBAC8-A0C0-42CE-8B00-A4BEFED78D1A}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{338C0A38-717C-454C-A9DD-3E19C82A70ED}" type="presParOf" srcId="{7A8A0389-79FD-4150-BD6A-3B5F5ECB76A3}" destId="{3E9C9F68-BC6C-47EC-9AFD-5B198947E5E8}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{D6F272EF-0534-4306-93AD-F40AD26C095D}" type="presParOf" srcId="{11FFBD11-4BEC-4B06-928B-8BD352E6B1F2}" destId="{DB1231E3-4B3A-43E1-A60A-E362EA672D1D}" srcOrd="2" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{0033DD7A-D478-4D6A-BA68-D7482905B295}" type="presParOf" srcId="{DB1231E3-4B3A-43E1-A60A-E362EA672D1D}" destId="{25A47253-B623-4CF0-9753-CA45DCB14863}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{6121CDFC-66E8-4EE1-A513-2E607A85DE8D}" type="presParOf" srcId="{11FFBD11-4BEC-4B06-928B-8BD352E6B1F2}" destId="{1F149E23-F7C7-47CE-9A69-1F93DFC3E2B8}" srcOrd="3" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{08DDCCB1-0D4F-4167-A474-A8CB0F420B72}" type="presParOf" srcId="{1F149E23-F7C7-47CE-9A69-1F93DFC3E2B8}" destId="{63F1F962-4995-42B6-8526-0700788F3DE4}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{4FF7BDB1-92AF-4D34-B267-8C728661843C}" type="presParOf" srcId="{1F149E23-F7C7-47CE-9A69-1F93DFC3E2B8}" destId="{CB6FC48F-9DE9-490E-BEAC-13B47672CB2E}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{D30BF20E-433E-4597-A381-A0C85B6E832B}" type="presParOf" srcId="{CB6FC48F-9DE9-490E-BEAC-13B47672CB2E}" destId="{F5F7CDA6-8199-4DE5-9A64-4B4E2B197201}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{663B9C0F-59AD-4908-BE84-D15E82D1CA45}" type="presParOf" srcId="{F5F7CDA6-8199-4DE5-9A64-4B4E2B197201}" destId="{7700C75A-0051-40BB-899E-A0D0389B2DCF}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{C669CF34-8E83-4A07-BBBB-7B0ED2AA6884}" type="presParOf" srcId="{CB6FC48F-9DE9-490E-BEAC-13B47672CB2E}" destId="{D3D9F1B4-7206-4DD1-8DAF-67450FECBA9F}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{2B5BDF95-3714-4758-B755-5A3486E95316}" type="presParOf" srcId="{D3D9F1B4-7206-4DD1-8DAF-67450FECBA9F}" destId="{FF14BC1C-2E81-4272-8241-CAA23949FBF6}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{F2C5F02A-4E8D-4BCA-8E10-232B668AEA63}" type="presParOf" srcId="{D3D9F1B4-7206-4DD1-8DAF-67450FECBA9F}" destId="{86018107-B67A-4E7A-9BC4-4E56347FDC2B}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{F45BBDAB-A7A9-4BC8-9FD7-21015A3752EB}" type="presParOf" srcId="{11FFBD11-4BEC-4B06-928B-8BD352E6B1F2}" destId="{49E73D38-A471-4F90-9EEA-CCBF50BEBA21}" srcOrd="4" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{983CED40-1AD0-4C1E-B781-3DB060D7CE01}" type="presParOf" srcId="{49E73D38-A471-4F90-9EEA-CCBF50BEBA21}" destId="{A1F4F5A8-832B-46F2-8D46-C478BC2CB9D5}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{C0B3BB53-C9FB-4610-B2CC-0F742CB1B4E4}" type="presParOf" srcId="{11FFBD11-4BEC-4B06-928B-8BD352E6B1F2}" destId="{4FBB9E2E-866E-40A7-9D99-FED3F460DC2C}" srcOrd="5" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{47867B30-5DEA-4E75-9583-726DADA63F28}" type="presParOf" srcId="{4FBB9E2E-866E-40A7-9D99-FED3F460DC2C}" destId="{3500E9F6-A140-4DF3-A77F-117317BB878A}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{A8FF4BB2-910A-42F5-B4A0-A2265118BB89}" type="presParOf" srcId="{4FBB9E2E-866E-40A7-9D99-FED3F460DC2C}" destId="{AC096CF5-9B01-41CB-A188-E992FF69B027}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{5AA57753-DB33-47B6-9BC8-0E0C6F64F3CA}" type="presParOf" srcId="{D37BF067-FA63-40C9-A96C-A1D0BF8BA2EB}" destId="{7EDC9638-71DB-4F92-90BD-7D0703941DF2}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{F7AE609C-90F1-4819-AE84-EC30CE71BCF3}" type="presParOf" srcId="{7EDC9638-71DB-4F92-90BD-7D0703941DF2}" destId="{BB59A16F-0BF1-4BFC-83F4-A1584E3EA5BB}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{24329FA4-39E7-49A0-800A-433CAD313523}" type="presParOf" srcId="{7EDC9638-71DB-4F92-90BD-7D0703941DF2}" destId="{003C76BF-245D-4E07-8729-E695269DCE8A}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
   </dgm:cxnLst>
   <dgm:bg>
     <a:solidFill>
@@ -5340,15 +4966,15 @@
       <dsp:cNvGrpSpPr/>
     </dsp:nvGrpSpPr>
     <dsp:grpSpPr/>
-    <dsp:sp modelId="{80BA89DD-5EE5-44E2-A103-0E52084D4145}">
+    <dsp:sp modelId="{B998B3DF-C3A4-49F5-AD4E-914F87E1B887}">
       <dsp:nvSpPr>
         <dsp:cNvPr id="0" name=""/>
         <dsp:cNvSpPr/>
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="4357" y="1755535"/>
-          <a:ext cx="982039" cy="491019"/>
+          <a:off x="6604" y="2429654"/>
+          <a:ext cx="1108924" cy="554462"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -5391,12 +5017,12 @@
         </a:fontRef>
       </dsp:style>
       <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="5080" tIns="5080" rIns="5080" bIns="5080" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="5715" tIns="5715" rIns="5715" bIns="5715" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
           <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr lvl="0" algn="ctr" defTabSz="355600">
+          <a:pPr lvl="0" algn="ctr" defTabSz="400050">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -5408,39 +5034,39 @@
             </a:spcAft>
           </a:pPr>
           <a:r>
-            <a:rPr lang="fr-FR" sz="800" kern="1200"/>
-            <a:t>Méthode rédaction rapport</a:t>
+            <a:rPr lang="fr-FR" sz="900" kern="1200"/>
+            <a:t>Préparation du BE</a:t>
           </a:r>
           <a:br>
-            <a:rPr lang="fr-FR" sz="800" kern="1200"/>
+            <a:rPr lang="fr-FR" sz="900" kern="1200"/>
           </a:br>
           <a:r>
-            <a:rPr lang="fr-FR" sz="800" kern="1200"/>
-            <a:t>Début : 14-janv</a:t>
+            <a:rPr lang="fr-FR" sz="900" kern="1200"/>
+            <a:t>Début : 19-janv</a:t>
           </a:r>
           <a:br>
-            <a:rPr lang="fr-FR" sz="800" kern="1200"/>
+            <a:rPr lang="fr-FR" sz="900" kern="1200"/>
           </a:br>
           <a:r>
-            <a:rPr lang="fr-FR" sz="800" kern="1200"/>
-            <a:t>Durée : 3</a:t>
+            <a:rPr lang="fr-FR" sz="900" kern="1200"/>
+            <a:t>Durée : 4</a:t>
           </a:r>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="18738" y="1769916"/>
-        <a:ext cx="953277" cy="462257"/>
+        <a:off x="22844" y="2445894"/>
+        <a:ext cx="1076444" cy="521982"/>
       </dsp:txXfrm>
     </dsp:sp>
-    <dsp:sp modelId="{D6A70E11-5D25-443F-9694-1E5BFDA45171}">
+    <dsp:sp modelId="{2140AD49-6339-43DF-B2A4-5DCD5E6A45DC}">
       <dsp:nvSpPr>
         <dsp:cNvPr id="0" name=""/>
         <dsp:cNvSpPr/>
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="986396" y="1992882"/>
-          <a:ext cx="1262185" cy="16325"/>
+          <a:off x="1115528" y="2697668"/>
+          <a:ext cx="443569" cy="18435"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -5451,10 +5077,10 @@
           <a:pathLst>
             <a:path>
               <a:moveTo>
-                <a:pt x="0" y="8162"/>
+                <a:pt x="0" y="9217"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="1262185" y="8162"/>
+                <a:pt x="443569" y="9217"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -5507,19 +5133,19 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="1585934" y="1969490"/>
-        <a:ext cx="63109" cy="63109"/>
+        <a:off x="1326224" y="2695796"/>
+        <a:ext cx="22178" cy="22178"/>
       </dsp:txXfrm>
     </dsp:sp>
-    <dsp:sp modelId="{1507B06C-5D98-48B4-BA05-490C7F303DEC}">
+    <dsp:sp modelId="{637FBC33-6F9D-4F81-9272-11AD1DDE6A69}">
       <dsp:nvSpPr>
         <dsp:cNvPr id="0" name=""/>
         <dsp:cNvSpPr/>
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="2248582" y="1755535"/>
-          <a:ext cx="982039" cy="491019"/>
+          <a:off x="1559098" y="2429654"/>
+          <a:ext cx="1108924" cy="554462"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -5562,12 +5188,12 @@
         </a:fontRef>
       </dsp:style>
       <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="5080" tIns="5080" rIns="5080" bIns="5080" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="5715" tIns="5715" rIns="5715" bIns="5715" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
           <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr lvl="0" algn="ctr" defTabSz="355600">
+          <a:pPr lvl="0" algn="ctr" defTabSz="400050">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -5579,39 +5205,118 @@
             </a:spcAft>
           </a:pPr>
           <a:r>
-            <a:rPr lang="fr-FR" sz="800" kern="1200"/>
-            <a:t>Rédaction rapport</a:t>
+            <a:rPr lang="fr-FR" sz="900" kern="1200"/>
+            <a:t>Choix du sujet</a:t>
           </a:r>
           <a:br>
-            <a:rPr lang="fr-FR" sz="800" kern="1200"/>
+            <a:rPr lang="fr-FR" sz="900" kern="1200"/>
           </a:br>
           <a:r>
-            <a:rPr lang="fr-FR" sz="800" kern="1200"/>
-            <a:t>Début : 21-janv</a:t>
+            <a:rPr lang="fr-FR" sz="900" kern="1200"/>
+            <a:t>Début : 29-janv</a:t>
           </a:r>
           <a:br>
-            <a:rPr lang="fr-FR" sz="800" kern="1200"/>
+            <a:rPr lang="fr-FR" sz="900" kern="1200"/>
           </a:br>
           <a:r>
-            <a:rPr lang="fr-FR" sz="800" kern="1200"/>
-            <a:t>Durée : 20</a:t>
+            <a:rPr lang="fr-FR" sz="900" kern="1200"/>
+            <a:t>Durée : 4</a:t>
           </a:r>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="2262963" y="1769916"/>
-        <a:ext cx="953277" cy="462257"/>
+        <a:off x="1575338" y="2445894"/>
+        <a:ext cx="1076444" cy="521982"/>
       </dsp:txXfrm>
     </dsp:sp>
-    <dsp:sp modelId="{523484C6-151E-4DF4-9AFB-1C19DFC859D2}">
+    <dsp:sp modelId="{9FFDCA42-22D2-4A50-BF6F-47A44B7D806D}">
       <dsp:nvSpPr>
         <dsp:cNvPr id="0" name=""/>
         <dsp:cNvSpPr/>
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="4357" y="2884880"/>
-          <a:ext cx="982039" cy="491019"/>
+          <a:off x="2668023" y="2697668"/>
+          <a:ext cx="443569" cy="18435"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst>
+            <a:path>
+              <a:moveTo>
+                <a:pt x="0" y="9217"/>
+              </a:moveTo>
+              <a:lnTo>
+                <a:pt x="443569" y="9217"/>
+              </a:lnTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:noFill/>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:shade val="80000"/>
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="12700" tIns="0" rIns="12700" bIns="0" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr lvl="0" algn="ctr" defTabSz="222250">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:endParaRPr lang="fr-FR" sz="500" kern="1200"/>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="2878718" y="2695796"/>
+        <a:ext cx="22178" cy="22178"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{3255085A-EA4C-464E-A12B-E265EAA6B927}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="3111592" y="2429654"/>
+          <a:ext cx="1108924" cy="554462"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -5654,12 +5359,12 @@
         </a:fontRef>
       </dsp:style>
       <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="5080" tIns="5080" rIns="5080" bIns="5080" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="5715" tIns="5715" rIns="5715" bIns="5715" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
           <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr lvl="0" algn="ctr" defTabSz="355600">
+          <a:pPr lvl="0" algn="ctr" defTabSz="400050">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -5671,39 +5376,39 @@
             </a:spcAft>
           </a:pPr>
           <a:r>
-            <a:rPr lang="fr-FR" sz="800" kern="1200"/>
-            <a:t>Choix du projet</a:t>
+            <a:rPr lang="fr-FR" sz="900" kern="1200"/>
+            <a:t>Collecte des données</a:t>
           </a:r>
           <a:br>
-            <a:rPr lang="fr-FR" sz="800" kern="1200"/>
+            <a:rPr lang="fr-FR" sz="900" kern="1200"/>
           </a:br>
           <a:r>
-            <a:rPr lang="fr-FR" sz="800" kern="1200"/>
-            <a:t>Début : 14-janv</a:t>
+            <a:rPr lang="fr-FR" sz="900" kern="1200"/>
+            <a:t>Début : 05-fev</a:t>
           </a:r>
           <a:br>
-            <a:rPr lang="fr-FR" sz="800" kern="1200"/>
+            <a:rPr lang="fr-FR" sz="900" kern="1200"/>
           </a:br>
           <a:r>
-            <a:rPr lang="fr-FR" sz="800" kern="1200"/>
-            <a:t>Durée : 1</a:t>
+            <a:rPr lang="fr-FR" sz="900" kern="1200"/>
+            <a:t>Durée : 4</a:t>
           </a:r>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="18738" y="2899261"/>
-        <a:ext cx="953277" cy="462257"/>
+        <a:off x="3127832" y="2445894"/>
+        <a:ext cx="1076444" cy="521982"/>
       </dsp:txXfrm>
     </dsp:sp>
-    <dsp:sp modelId="{9FFDCA42-22D2-4A50-BF6F-47A44B7D806D}">
+    <dsp:sp modelId="{DA8672FA-9F10-4934-92F4-9B0E03E504AC}">
       <dsp:nvSpPr>
         <dsp:cNvPr id="0" name=""/>
         <dsp:cNvSpPr/>
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="986396" y="3122227"/>
-          <a:ext cx="392815" cy="16325"/>
+          <a:off x="4220517" y="2697668"/>
+          <a:ext cx="443569" cy="18435"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -5714,10 +5419,10 @@
           <a:pathLst>
             <a:path>
               <a:moveTo>
-                <a:pt x="0" y="8162"/>
+                <a:pt x="0" y="9217"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="392815" y="8162"/>
+                <a:pt x="443569" y="9217"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -5726,7 +5431,7 @@
         <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="accent1">
-              <a:shade val="60000"/>
+              <a:shade val="80000"/>
               <a:hueOff val="0"/>
               <a:satOff val="0"/>
               <a:lumOff val="0"/>
@@ -5770,19 +5475,19 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="1172983" y="3120570"/>
-        <a:ext cx="19640" cy="19640"/>
+        <a:off x="4431212" y="2695796"/>
+        <a:ext cx="22178" cy="22178"/>
       </dsp:txXfrm>
     </dsp:sp>
-    <dsp:sp modelId="{3255085A-EA4C-464E-A12B-E265EAA6B927}">
+    <dsp:sp modelId="{A98771A6-1065-426D-AB17-244C08354536}">
       <dsp:nvSpPr>
         <dsp:cNvPr id="0" name=""/>
         <dsp:cNvSpPr/>
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="1379212" y="2884880"/>
-          <a:ext cx="982039" cy="491019"/>
+          <a:off x="4664087" y="2429654"/>
+          <a:ext cx="1108924" cy="554462"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -5825,12 +5530,12 @@
         </a:fontRef>
       </dsp:style>
       <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="5080" tIns="5080" rIns="5080" bIns="5080" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="5715" tIns="5715" rIns="5715" bIns="5715" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
           <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr lvl="0" algn="ctr" defTabSz="355600">
+          <a:pPr lvl="0" algn="ctr" defTabSz="400050">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -5842,39 +5547,39 @@
             </a:spcAft>
           </a:pPr>
           <a:r>
-            <a:rPr lang="fr-FR" sz="800" kern="1200"/>
-            <a:t>Réalisation schéma E/A</a:t>
+            <a:rPr lang="fr-FR" sz="900" kern="1200"/>
+            <a:t>Nettoyage des données</a:t>
           </a:r>
           <a:br>
-            <a:rPr lang="fr-FR" sz="800" kern="1200"/>
+            <a:rPr lang="fr-FR" sz="900" kern="1200"/>
           </a:br>
           <a:r>
-            <a:rPr lang="fr-FR" sz="800" kern="1200"/>
-            <a:t>Début : 16-janv</a:t>
+            <a:rPr lang="fr-FR" sz="900" kern="1200"/>
+            <a:t>Début : 09-fev</a:t>
           </a:r>
           <a:br>
-            <a:rPr lang="fr-FR" sz="800" kern="1200"/>
+            <a:rPr lang="fr-FR" sz="900" kern="1200"/>
           </a:br>
           <a:r>
-            <a:rPr lang="fr-FR" sz="800" kern="1200"/>
-            <a:t>Durée : 2</a:t>
+            <a:rPr lang="fr-FR" sz="900" kern="1200"/>
+            <a:t>Durée : 8</a:t>
           </a:r>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="1393593" y="2899261"/>
-        <a:ext cx="953277" cy="462257"/>
+        <a:off x="4680327" y="2445894"/>
+        <a:ext cx="1076444" cy="521982"/>
       </dsp:txXfrm>
     </dsp:sp>
-    <dsp:sp modelId="{DA8672FA-9F10-4934-92F4-9B0E03E504AC}">
+    <dsp:sp modelId="{194D1AF4-BC77-4835-A7CF-9D75DD8D4C8E}">
       <dsp:nvSpPr>
         <dsp:cNvPr id="0" name=""/>
         <dsp:cNvSpPr/>
       </dsp:nvSpPr>
       <dsp:spPr>
-        <a:xfrm>
-          <a:off x="2361251" y="3122227"/>
-          <a:ext cx="392815" cy="16325"/>
+        <a:xfrm rot="18067486">
+          <a:off x="5566462" y="2331665"/>
+          <a:ext cx="855104" cy="18435"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -5885,10 +5590,10 @@
           <a:pathLst>
             <a:path>
               <a:moveTo>
-                <a:pt x="0" y="8162"/>
+                <a:pt x="0" y="9217"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="392815" y="8162"/>
+                <a:pt x="855104" y="9217"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -5941,19 +5646,19 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="2547838" y="3120570"/>
-        <a:ext cx="19640" cy="19640"/>
+        <a:off x="5972637" y="2319505"/>
+        <a:ext cx="42755" cy="42755"/>
       </dsp:txXfrm>
     </dsp:sp>
-    <dsp:sp modelId="{A98771A6-1065-426D-AB17-244C08354536}">
+    <dsp:sp modelId="{C40A0F12-8707-4462-A273-77E543D6FDD9}">
       <dsp:nvSpPr>
         <dsp:cNvPr id="0" name=""/>
         <dsp:cNvSpPr/>
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="2754067" y="2884880"/>
-          <a:ext cx="982039" cy="491019"/>
+          <a:off x="6215017" y="1697648"/>
+          <a:ext cx="1108924" cy="554462"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -5996,12 +5701,12 @@
         </a:fontRef>
       </dsp:style>
       <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="5080" tIns="5080" rIns="5080" bIns="5080" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="5715" tIns="5715" rIns="5715" bIns="5715" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
           <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr lvl="0" algn="ctr" defTabSz="355600">
+          <a:pPr lvl="0" algn="ctr" defTabSz="400050">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -6013,39 +5718,39 @@
             </a:spcAft>
           </a:pPr>
           <a:r>
-            <a:rPr lang="fr-FR" sz="800" kern="1200"/>
-            <a:t>MCD</a:t>
+            <a:rPr lang="fr-FR" sz="900" kern="1200"/>
+            <a:t>Définition du schéma de la BD</a:t>
           </a:r>
           <a:br>
-            <a:rPr lang="fr-FR" sz="800" kern="1200"/>
+            <a:rPr lang="fr-FR" sz="900" kern="1200"/>
           </a:br>
           <a:r>
-            <a:rPr lang="fr-FR" sz="800" kern="1200"/>
-            <a:t>Début : 21-janv</a:t>
+            <a:rPr lang="fr-FR" sz="900" kern="1200"/>
+            <a:t>Début : 6-mars</a:t>
           </a:r>
           <a:br>
-            <a:rPr lang="fr-FR" sz="800" kern="1200"/>
+            <a:rPr lang="fr-FR" sz="900" kern="1200"/>
           </a:br>
           <a:r>
-            <a:rPr lang="fr-FR" sz="800" kern="1200"/>
+            <a:rPr lang="fr-FR" sz="900" kern="1200"/>
             <a:t>Durée : 4</a:t>
           </a:r>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="2768448" y="2899261"/>
-        <a:ext cx="953277" cy="462257"/>
+        <a:off x="6231257" y="1713888"/>
+        <a:ext cx="1076444" cy="521982"/>
       </dsp:txXfrm>
     </dsp:sp>
-    <dsp:sp modelId="{DB1231E3-4B3A-43E1-A60A-E362EA672D1D}">
+    <dsp:sp modelId="{6C9543BE-BDBA-4FEC-924B-8083F6303B82}">
       <dsp:nvSpPr>
         <dsp:cNvPr id="0" name=""/>
         <dsp:cNvSpPr/>
       </dsp:nvSpPr>
       <dsp:spPr>
-        <a:xfrm rot="18472001">
-          <a:off x="3608793" y="2861967"/>
-          <a:ext cx="659352" cy="16325"/>
+        <a:xfrm rot="21796">
+          <a:off x="7323937" y="1967072"/>
+          <a:ext cx="445142" cy="18435"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -6056,10 +5761,10 @@
           <a:pathLst>
             <a:path>
               <a:moveTo>
-                <a:pt x="0" y="8162"/>
+                <a:pt x="0" y="9217"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="659352" y="8162"/>
+                <a:pt x="445142" y="9217"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -6112,19 +5817,19 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="3921986" y="2853646"/>
-        <a:ext cx="32967" cy="32967"/>
+        <a:off x="7535380" y="1965161"/>
+        <a:ext cx="22257" cy="22257"/>
       </dsp:txXfrm>
     </dsp:sp>
-    <dsp:sp modelId="{63F1F962-4995-42B6-8526-0700788F3DE4}">
+    <dsp:sp modelId="{D09B0EF9-7C4F-4DBD-8C24-6856B794700D}">
       <dsp:nvSpPr>
         <dsp:cNvPr id="0" name=""/>
         <dsp:cNvSpPr/>
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="4140834" y="2364360"/>
-          <a:ext cx="982039" cy="491019"/>
+          <a:off x="7769075" y="1700470"/>
+          <a:ext cx="1108924" cy="554462"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -6167,12 +5872,12 @@
         </a:fontRef>
       </dsp:style>
       <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="5080" tIns="5080" rIns="5080" bIns="5080" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="5715" tIns="5715" rIns="5715" bIns="5715" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
           <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr lvl="0" algn="ctr" defTabSz="355600">
+          <a:pPr lvl="0" algn="ctr" defTabSz="400050">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -6184,39 +5889,39 @@
             </a:spcAft>
           </a:pPr>
           <a:r>
-            <a:rPr lang="fr-FR" sz="800" kern="1200"/>
-            <a:t>MLD</a:t>
+            <a:rPr lang="fr-FR" sz="900" kern="1200"/>
+            <a:t>Peuplement de la BD</a:t>
           </a:r>
           <a:br>
-            <a:rPr lang="fr-FR" sz="800" kern="1200"/>
+            <a:rPr lang="fr-FR" sz="900" kern="1200"/>
           </a:br>
           <a:r>
-            <a:rPr lang="fr-FR" sz="800" kern="1200"/>
-            <a:t>Début : 30-janv</a:t>
+            <a:rPr lang="fr-FR" sz="900" kern="1200"/>
+            <a:t>Début : 09-mars</a:t>
           </a:r>
           <a:br>
-            <a:rPr lang="fr-FR" sz="800" kern="1200"/>
+            <a:rPr lang="fr-FR" sz="900" kern="1200"/>
           </a:br>
           <a:r>
-            <a:rPr lang="fr-FR" sz="800" kern="1200"/>
-            <a:t>Durée : 2</a:t>
+            <a:rPr lang="fr-FR" sz="900" kern="1200"/>
+            <a:t>Durée : 4</a:t>
           </a:r>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="4155215" y="2378741"/>
-        <a:ext cx="953277" cy="462257"/>
+        <a:off x="7785315" y="1716710"/>
+        <a:ext cx="1076444" cy="521982"/>
       </dsp:txXfrm>
     </dsp:sp>
-    <dsp:sp modelId="{F5F7CDA6-8199-4DE5-9A64-4B4E2B197201}">
+    <dsp:sp modelId="{D313BB73-5B43-4582-94A8-7C34526208F0}">
       <dsp:nvSpPr>
         <dsp:cNvPr id="0" name=""/>
         <dsp:cNvSpPr/>
       </dsp:nvSpPr>
       <dsp:spPr>
-        <a:xfrm>
-          <a:off x="5122873" y="2601707"/>
-          <a:ext cx="368991" cy="16325"/>
+        <a:xfrm rot="21570600">
+          <a:off x="8877992" y="1966610"/>
+          <a:ext cx="438285" cy="18435"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -6227,10 +5932,10 @@
           <a:pathLst>
             <a:path>
               <a:moveTo>
-                <a:pt x="0" y="8162"/>
+                <a:pt x="0" y="9217"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="368991" y="8162"/>
+                <a:pt x="438285" y="9217"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -6283,19 +5988,19 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="5298144" y="2600645"/>
-        <a:ext cx="18449" cy="18449"/>
+        <a:off x="9086177" y="1964870"/>
+        <a:ext cx="21914" cy="21914"/>
       </dsp:txXfrm>
     </dsp:sp>
-    <dsp:sp modelId="{FF14BC1C-2E81-4272-8241-CAA23949FBF6}">
+    <dsp:sp modelId="{D9D4D45F-8405-47B2-A9EE-57E6910111EA}">
       <dsp:nvSpPr>
         <dsp:cNvPr id="0" name=""/>
         <dsp:cNvSpPr/>
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="5491864" y="2364360"/>
-          <a:ext cx="982039" cy="491019"/>
+          <a:off x="9316269" y="1696722"/>
+          <a:ext cx="1108924" cy="554462"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -6338,12 +6043,12 @@
         </a:fontRef>
       </dsp:style>
       <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="5080" tIns="5080" rIns="5080" bIns="5080" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="5715" tIns="5715" rIns="5715" bIns="5715" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
           <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr lvl="0" algn="ctr" defTabSz="355600">
+          <a:pPr lvl="0" algn="ctr" defTabSz="400050">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -6355,39 +6060,39 @@
             </a:spcAft>
           </a:pPr>
           <a:r>
-            <a:rPr lang="fr-FR" sz="800" kern="1200"/>
-            <a:t>MPD</a:t>
+            <a:rPr lang="fr-FR" sz="900" kern="1200"/>
+            <a:t>Requêtage</a:t>
           </a:r>
           <a:br>
-            <a:rPr lang="fr-FR" sz="800" kern="1200"/>
+            <a:rPr lang="fr-FR" sz="900" kern="1200"/>
           </a:br>
           <a:r>
-            <a:rPr lang="fr-FR" sz="800" kern="1200"/>
-            <a:t>Début : 30-janv</a:t>
+            <a:rPr lang="fr-FR" sz="900" kern="1200"/>
+            <a:t>Début : 13-mars</a:t>
           </a:r>
           <a:br>
-            <a:rPr lang="fr-FR" sz="800" kern="1200"/>
+            <a:rPr lang="fr-FR" sz="900" kern="1200"/>
           </a:br>
           <a:r>
-            <a:rPr lang="fr-FR" sz="800" kern="1200"/>
-            <a:t>Durée : 2</a:t>
+            <a:rPr lang="fr-FR" sz="900" kern="1200"/>
+            <a:t>Durée : 6</a:t>
           </a:r>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="5506245" y="2378741"/>
-        <a:ext cx="953277" cy="462257"/>
+        <a:off x="9332509" y="1712962"/>
+        <a:ext cx="1076444" cy="521982"/>
       </dsp:txXfrm>
     </dsp:sp>
-    <dsp:sp modelId="{C7C260BE-DF41-4A4D-B509-3ACB58286E66}">
+    <dsp:sp modelId="{CA37292C-8D74-430A-A7B6-13C98C4BAE07}">
       <dsp:nvSpPr>
         <dsp:cNvPr id="0" name=""/>
         <dsp:cNvSpPr/>
       </dsp:nvSpPr>
       <dsp:spPr>
-        <a:xfrm rot="18328103">
-          <a:off x="6327517" y="2317672"/>
-          <a:ext cx="697501" cy="16325"/>
+        <a:xfrm rot="4296225">
+          <a:off x="9957123" y="2613686"/>
+          <a:ext cx="1367800" cy="18435"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -6398,10 +6103,10 @@
           <a:pathLst>
             <a:path>
               <a:moveTo>
-                <a:pt x="0" y="8162"/>
+                <a:pt x="0" y="9217"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="697501" y="8162"/>
+                <a:pt x="1367800" y="9217"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -6454,19 +6159,19 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="6658830" y="2308397"/>
-        <a:ext cx="34875" cy="34875"/>
+        <a:off x="10606828" y="2588709"/>
+        <a:ext cx="68390" cy="68390"/>
       </dsp:txXfrm>
     </dsp:sp>
-    <dsp:sp modelId="{3AB530FA-7695-47C2-849F-535E3DAEAE59}">
+    <dsp:sp modelId="{78FEBAC8-A0C0-42CE-8B00-A4BEFED78D1A}">
       <dsp:nvSpPr>
         <dsp:cNvPr id="0" name=""/>
         <dsp:cNvSpPr/>
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="6878631" y="1796290"/>
-          <a:ext cx="982039" cy="491019"/>
+          <a:off x="10856853" y="2994624"/>
+          <a:ext cx="1108924" cy="554462"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -6509,12 +6214,12 @@
         </a:fontRef>
       </dsp:style>
       <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="5080" tIns="5080" rIns="5080" bIns="5080" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="5715" tIns="5715" rIns="5715" bIns="5715" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
           <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr lvl="0" algn="ctr" defTabSz="355600">
+          <a:pPr lvl="0" algn="ctr" defTabSz="400050">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -6526,39 +6231,40 @@
             </a:spcAft>
           </a:pPr>
           <a:r>
-            <a:rPr lang="fr-FR" sz="800" kern="1200"/>
-            <a:t>Insertion des contraintes</a:t>
+            <a:rPr lang="fr-FR" sz="900" kern="1200"/>
+            <a:t>Contrôle qualité</a:t>
           </a:r>
           <a:br>
-            <a:rPr lang="fr-FR" sz="800" kern="1200"/>
+            <a:rPr lang="fr-FR" sz="900" kern="1200"/>
           </a:br>
           <a:r>
-            <a:rPr lang="fr-FR" sz="800" kern="1200"/>
-            <a:t>Début : 4-fev</a:t>
+            <a:rPr lang="fr-FR" sz="900" kern="1200"/>
+            <a:t>Début : 09-fev</a:t>
           </a:r>
           <a:br>
-            <a:rPr lang="fr-FR" sz="800" kern="1200"/>
+            <a:rPr lang="fr-FR" sz="900" kern="1200"/>
           </a:br>
           <a:r>
-            <a:rPr lang="fr-FR" sz="800" kern="1200"/>
-            <a:t>Durée : 3</a:t>
+            <a:rPr lang="fr-FR" sz="900" kern="1200"/>
+            <a:t>Durée : 12</a:t>
           </a:r>
+          <a:endParaRPr lang="fr-FR" sz="900" kern="1200"/>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="6893012" y="1810671"/>
-        <a:ext cx="953277" cy="462257"/>
+        <a:off x="10873093" y="3010864"/>
+        <a:ext cx="1076444" cy="521982"/>
       </dsp:txXfrm>
     </dsp:sp>
-    <dsp:sp modelId="{3FE4E342-1165-4DB5-8749-DBAD9C170248}">
+    <dsp:sp modelId="{DB1231E3-4B3A-43E1-A60A-E362EA672D1D}">
       <dsp:nvSpPr>
         <dsp:cNvPr id="0" name=""/>
         <dsp:cNvSpPr/>
       </dsp:nvSpPr>
       <dsp:spPr>
-        <a:xfrm>
-          <a:off x="7860670" y="2033637"/>
-          <a:ext cx="392815" cy="16325"/>
+        <a:xfrm rot="35809">
+          <a:off x="5772998" y="2700110"/>
+          <a:ext cx="468956" cy="18435"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -6569,10 +6275,10 @@
           <a:pathLst>
             <a:path>
               <a:moveTo>
-                <a:pt x="0" y="8162"/>
+                <a:pt x="0" y="9217"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="392815" y="8162"/>
+                <a:pt x="468956" y="9217"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -6625,19 +6331,19 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="8047258" y="2031979"/>
-        <a:ext cx="19640" cy="19640"/>
+        <a:off x="5995753" y="2697604"/>
+        <a:ext cx="23447" cy="23447"/>
       </dsp:txXfrm>
     </dsp:sp>
-    <dsp:sp modelId="{1751D3B1-A05B-4672-8F9C-80DA03C9B1D9}">
+    <dsp:sp modelId="{63F1F962-4995-42B6-8526-0700788F3DE4}">
       <dsp:nvSpPr>
         <dsp:cNvPr id="0" name=""/>
         <dsp:cNvSpPr/>
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="8253486" y="1796290"/>
-          <a:ext cx="982039" cy="491019"/>
+          <a:off x="6241942" y="2434539"/>
+          <a:ext cx="1108924" cy="554462"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -6680,12 +6386,12 @@
         </a:fontRef>
       </dsp:style>
       <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="5080" tIns="5080" rIns="5080" bIns="5080" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="5715" tIns="5715" rIns="5715" bIns="5715" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
           <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr lvl="0" algn="ctr" defTabSz="355600">
+          <a:pPr lvl="0" algn="ctr" defTabSz="400050">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -6697,39 +6403,39 @@
             </a:spcAft>
           </a:pPr>
           <a:r>
-            <a:rPr lang="fr-FR" sz="800" kern="1200"/>
-            <a:t>Insertion des données</a:t>
+            <a:rPr lang="fr-FR" sz="900" kern="1200"/>
+            <a:t>Croisements sous Tétralogie</a:t>
           </a:r>
           <a:br>
-            <a:rPr lang="fr-FR" sz="800" kern="1200"/>
+            <a:rPr lang="fr-FR" sz="900" kern="1200"/>
           </a:br>
           <a:r>
-            <a:rPr lang="fr-FR" sz="800" kern="1200"/>
-            <a:t>Début : 4-fev</a:t>
+            <a:rPr lang="fr-FR" sz="900" kern="1200"/>
+            <a:t>Début : 27-fev</a:t>
           </a:r>
           <a:br>
-            <a:rPr lang="fr-FR" sz="800" kern="1200"/>
+            <a:rPr lang="fr-FR" sz="900" kern="1200"/>
           </a:br>
           <a:r>
-            <a:rPr lang="fr-FR" sz="800" kern="1200"/>
-            <a:t>Durée : 3</a:t>
+            <a:rPr lang="fr-FR" sz="900" kern="1200"/>
+            <a:t>Durée : 8</a:t>
           </a:r>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="8267867" y="1810671"/>
-        <a:ext cx="953277" cy="462257"/>
+        <a:off x="6258182" y="2450779"/>
+        <a:ext cx="1076444" cy="521982"/>
       </dsp:txXfrm>
     </dsp:sp>
-    <dsp:sp modelId="{A1B406B5-8911-4317-AC33-8C3B0CE5E3B9}">
+    <dsp:sp modelId="{F5F7CDA6-8199-4DE5-9A64-4B4E2B197201}">
       <dsp:nvSpPr>
         <dsp:cNvPr id="0" name=""/>
         <dsp:cNvSpPr/>
       </dsp:nvSpPr>
       <dsp:spPr>
-        <a:xfrm rot="3127999">
-          <a:off x="6346591" y="2861967"/>
-          <a:ext cx="659352" cy="16325"/>
+        <a:xfrm rot="50231">
+          <a:off x="7350844" y="2705586"/>
+          <a:ext cx="415148" cy="18435"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -6740,10 +6446,10 @@
           <a:pathLst>
             <a:path>
               <a:moveTo>
-                <a:pt x="0" y="8162"/>
+                <a:pt x="0" y="9217"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="659352" y="8162"/>
+                <a:pt x="415148" y="9217"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -6796,19 +6502,19 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="6659784" y="2853646"/>
-        <a:ext cx="32967" cy="32967"/>
+        <a:off x="7548040" y="2704425"/>
+        <a:ext cx="20757" cy="20757"/>
       </dsp:txXfrm>
     </dsp:sp>
-    <dsp:sp modelId="{6C40B4ED-7BA3-445A-869A-110831F15CAE}">
+    <dsp:sp modelId="{FF14BC1C-2E81-4272-8241-CAA23949FBF6}">
       <dsp:nvSpPr>
         <dsp:cNvPr id="0" name=""/>
         <dsp:cNvSpPr/>
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="6878631" y="2884880"/>
-          <a:ext cx="982039" cy="491019"/>
+          <a:off x="7765970" y="2440605"/>
+          <a:ext cx="1108924" cy="554462"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -6851,12 +6557,12 @@
         </a:fontRef>
       </dsp:style>
       <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="5080" tIns="5080" rIns="5080" bIns="5080" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="5715" tIns="5715" rIns="5715" bIns="5715" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
           <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr lvl="0" algn="ctr" defTabSz="355600">
+          <a:pPr lvl="0" algn="ctr" defTabSz="400050">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -6868,39 +6574,39 @@
             </a:spcAft>
           </a:pPr>
           <a:r>
-            <a:rPr lang="fr-FR" sz="800" kern="1200"/>
-            <a:t>MCT</a:t>
+            <a:rPr lang="fr-FR" sz="900" kern="1200"/>
+            <a:t>Analyses statistiques</a:t>
           </a:r>
           <a:br>
-            <a:rPr lang="fr-FR" sz="800" kern="1200"/>
+            <a:rPr lang="fr-FR" sz="900" kern="1200"/>
           </a:br>
           <a:r>
-            <a:rPr lang="fr-FR" sz="800" kern="1200"/>
-            <a:t>Début : 13-fev</a:t>
+            <a:rPr lang="fr-FR" sz="900" kern="1200"/>
+            <a:t>Début : 06-mars</a:t>
           </a:r>
           <a:br>
-            <a:rPr lang="fr-FR" sz="800" kern="1200"/>
+            <a:rPr lang="fr-FR" sz="900" kern="1200"/>
           </a:br>
           <a:r>
-            <a:rPr lang="fr-FR" sz="800" kern="1200"/>
-            <a:t>Durée : 2</a:t>
+            <a:rPr lang="fr-FR" sz="900" kern="1200"/>
+            <a:t>Durée : 16</a:t>
           </a:r>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="6893012" y="2899261"/>
-        <a:ext cx="953277" cy="462257"/>
+        <a:off x="7782210" y="2456845"/>
+        <a:ext cx="1076444" cy="521982"/>
       </dsp:txXfrm>
     </dsp:sp>
-    <dsp:sp modelId="{494CF6FE-2591-4415-857B-F52A0F60951A}">
+    <dsp:sp modelId="{49E73D38-A471-4F90-9EEA-CCBF50BEBA21}">
       <dsp:nvSpPr>
         <dsp:cNvPr id="0" name=""/>
         <dsp:cNvSpPr/>
       </dsp:nvSpPr>
       <dsp:spPr>
-        <a:xfrm>
-          <a:off x="7860670" y="3122227"/>
-          <a:ext cx="392815" cy="16325"/>
+        <a:xfrm rot="3577279">
+          <a:off x="5556237" y="3076014"/>
+          <a:ext cx="877117" cy="18435"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -6911,10 +6617,10 @@
           <a:pathLst>
             <a:path>
               <a:moveTo>
-                <a:pt x="0" y="8162"/>
+                <a:pt x="0" y="9217"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="392815" y="8162"/>
+                <a:pt x="877117" y="9217"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -6967,19 +6673,19 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="8047258" y="3120570"/>
-        <a:ext cx="19640" cy="19640"/>
+        <a:off x="5972868" y="3063303"/>
+        <a:ext cx="43855" cy="43855"/>
       </dsp:txXfrm>
     </dsp:sp>
-    <dsp:sp modelId="{89789CDF-20CF-4BBB-BBDF-CA9AFF58C425}">
+    <dsp:sp modelId="{3500E9F6-A140-4DF3-A77F-117317BB878A}">
       <dsp:nvSpPr>
         <dsp:cNvPr id="0" name=""/>
         <dsp:cNvSpPr/>
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="8253486" y="2884880"/>
-          <a:ext cx="982039" cy="491019"/>
+          <a:off x="6216581" y="3186346"/>
+          <a:ext cx="1108924" cy="554462"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -7022,12 +6728,12 @@
         </a:fontRef>
       </dsp:style>
       <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="5080" tIns="5080" rIns="5080" bIns="5080" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="5715" tIns="5715" rIns="5715" bIns="5715" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
           <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr lvl="0" algn="ctr" defTabSz="355600">
+          <a:pPr lvl="0" algn="ctr" defTabSz="400050">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -7039,118 +6745,39 @@
             </a:spcAft>
           </a:pPr>
           <a:r>
-            <a:rPr lang="fr-FR" sz="800" kern="1200"/>
-            <a:t>MLT</a:t>
+            <a:rPr lang="fr-FR" sz="900" kern="1200"/>
+            <a:t>Analyse semantique</a:t>
           </a:r>
           <a:br>
-            <a:rPr lang="fr-FR" sz="800" kern="1200"/>
+            <a:rPr lang="fr-FR" sz="900" kern="1200"/>
           </a:br>
           <a:r>
-            <a:rPr lang="fr-FR" sz="800" kern="1200"/>
-            <a:t>Début : 13-fev</a:t>
+            <a:rPr lang="fr-FR" sz="900" kern="1200"/>
+            <a:t>Début : 17-mars</a:t>
           </a:r>
           <a:br>
-            <a:rPr lang="fr-FR" sz="800" kern="1200"/>
+            <a:rPr lang="fr-FR" sz="900" kern="1200"/>
           </a:br>
           <a:r>
-            <a:rPr lang="fr-FR" sz="800" kern="1200"/>
-            <a:t>Durée : 2</a:t>
+            <a:rPr lang="fr-FR" sz="900" kern="1200"/>
+            <a:t>Durée : 7</a:t>
           </a:r>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="8267867" y="2899261"/>
-        <a:ext cx="953277" cy="462257"/>
+        <a:off x="6232821" y="3202586"/>
+        <a:ext cx="1076444" cy="521982"/>
       </dsp:txXfrm>
     </dsp:sp>
-    <dsp:sp modelId="{B5F3DAA7-BFDA-4D58-B990-89950E30F0A8}">
+    <dsp:sp modelId="{BB59A16F-0BF1-4BFC-83F4-A1584E3EA5BB}">
       <dsp:nvSpPr>
         <dsp:cNvPr id="0" name=""/>
         <dsp:cNvSpPr/>
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="9235525" y="3122227"/>
-          <a:ext cx="392815" cy="16325"/>
-        </a:xfrm>
-        <a:custGeom>
-          <a:avLst/>
-          <a:gdLst/>
-          <a:ahLst/>
-          <a:cxnLst/>
-          <a:rect l="0" t="0" r="0" b="0"/>
-          <a:pathLst>
-            <a:path>
-              <a:moveTo>
-                <a:pt x="0" y="8162"/>
-              </a:moveTo>
-              <a:lnTo>
-                <a:pt x="392815" y="8162"/>
-              </a:lnTo>
-            </a:path>
-          </a:pathLst>
-        </a:custGeom>
-        <a:noFill/>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="accent1">
-              <a:shade val="80000"/>
-              <a:hueOff val="0"/>
-              <a:satOff val="0"/>
-              <a:lumOff val="0"/>
-              <a:alphaOff val="0"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:effectLst/>
-      </dsp:spPr>
-      <dsp:style>
-        <a:lnRef idx="2">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor"/>
-      </dsp:style>
-      <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="12700" tIns="0" rIns="12700" bIns="0" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr lvl="0" algn="ctr" defTabSz="222250">
-            <a:lnSpc>
-              <a:spcPct val="90000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPct val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPct val="35000"/>
-            </a:spcAft>
-          </a:pPr>
-          <a:endParaRPr lang="fr-FR" sz="500" kern="1200"/>
-        </a:p>
-      </dsp:txBody>
-      <dsp:txXfrm>
-        <a:off x="9422113" y="3120570"/>
-        <a:ext cx="19640" cy="19640"/>
-      </dsp:txXfrm>
-    </dsp:sp>
-    <dsp:sp modelId="{28AE2CA2-293C-45A3-86F4-307002D9B041}">
-      <dsp:nvSpPr>
-        <dsp:cNvPr id="0" name=""/>
-        <dsp:cNvSpPr/>
-      </dsp:nvSpPr>
-      <dsp:spPr>
-        <a:xfrm>
-          <a:off x="9628341" y="2884880"/>
-          <a:ext cx="982039" cy="491019"/>
+          <a:off x="66131" y="3091100"/>
+          <a:ext cx="1108924" cy="554462"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -7193,12 +6820,12 @@
         </a:fontRef>
       </dsp:style>
       <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="5080" tIns="5080" rIns="5080" bIns="5080" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="5715" tIns="5715" rIns="5715" bIns="5715" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
           <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr lvl="0" algn="ctr" defTabSz="355600">
+          <a:pPr lvl="0" algn="ctr" defTabSz="400050">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -7210,541 +6837,28 @@
             </a:spcAft>
           </a:pPr>
           <a:r>
-            <a:rPr lang="fr-FR" sz="800" kern="1200"/>
-            <a:t>MPT</a:t>
+            <a:rPr lang="fr-FR" sz="900" kern="1200"/>
+            <a:t>Rédaction rapport</a:t>
           </a:r>
           <a:br>
-            <a:rPr lang="fr-FR" sz="800" kern="1200"/>
+            <a:rPr lang="fr-FR" sz="900" kern="1200"/>
           </a:br>
           <a:r>
-            <a:rPr lang="fr-FR" sz="800" kern="1200"/>
-            <a:t>Début : 14-fev</a:t>
+            <a:rPr lang="fr-FR" sz="900" kern="1200"/>
+            <a:t>Début : 02-fev</a:t>
           </a:r>
           <a:br>
-            <a:rPr lang="fr-FR" sz="800" kern="1200"/>
+            <a:rPr lang="fr-FR" sz="900" kern="1200"/>
           </a:br>
           <a:r>
-            <a:rPr lang="fr-FR" sz="800" kern="1200"/>
-            <a:t>Durée : 4</a:t>
+            <a:rPr lang="fr-FR" sz="900" kern="1200"/>
+            <a:t>Durée : 30</a:t>
           </a:r>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="9642722" y="2899261"/>
-        <a:ext cx="953277" cy="462257"/>
-      </dsp:txXfrm>
-    </dsp:sp>
-    <dsp:sp modelId="{304959C4-0F8C-455C-915A-8C9D5D24FD99}">
-      <dsp:nvSpPr>
-        <dsp:cNvPr id="0" name=""/>
-        <dsp:cNvSpPr/>
-      </dsp:nvSpPr>
-      <dsp:spPr>
-        <a:xfrm>
-          <a:off x="10610380" y="3122227"/>
-          <a:ext cx="392815" cy="16325"/>
-        </a:xfrm>
-        <a:custGeom>
-          <a:avLst/>
-          <a:gdLst/>
-          <a:ahLst/>
-          <a:cxnLst/>
-          <a:rect l="0" t="0" r="0" b="0"/>
-          <a:pathLst>
-            <a:path>
-              <a:moveTo>
-                <a:pt x="0" y="8162"/>
-              </a:moveTo>
-              <a:lnTo>
-                <a:pt x="392815" y="8162"/>
-              </a:lnTo>
-            </a:path>
-          </a:pathLst>
-        </a:custGeom>
-        <a:noFill/>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="accent1">
-              <a:shade val="80000"/>
-              <a:hueOff val="0"/>
-              <a:satOff val="0"/>
-              <a:lumOff val="0"/>
-              <a:alphaOff val="0"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:effectLst/>
-      </dsp:spPr>
-      <dsp:style>
-        <a:lnRef idx="2">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor"/>
-      </dsp:style>
-      <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="12700" tIns="0" rIns="12700" bIns="0" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr lvl="0" algn="ctr" defTabSz="222250">
-            <a:lnSpc>
-              <a:spcPct val="90000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPct val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPct val="35000"/>
-            </a:spcAft>
-          </a:pPr>
-          <a:endParaRPr lang="fr-FR" sz="500" kern="1200"/>
-        </a:p>
-      </dsp:txBody>
-      <dsp:txXfrm>
-        <a:off x="10796968" y="3120570"/>
-        <a:ext cx="19640" cy="19640"/>
-      </dsp:txXfrm>
-    </dsp:sp>
-    <dsp:sp modelId="{DB95C6B5-8400-472C-A9DC-CF2D409C7D4A}">
-      <dsp:nvSpPr>
-        <dsp:cNvPr id="0" name=""/>
-        <dsp:cNvSpPr/>
-      </dsp:nvSpPr>
-      <dsp:spPr>
-        <a:xfrm>
-          <a:off x="11003196" y="2884880"/>
-          <a:ext cx="982039" cy="491019"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst>
-            <a:gd name="adj" fmla="val 10000"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent1">
-            <a:hueOff val="0"/>
-            <a:satOff val="0"/>
-            <a:lumOff val="0"/>
-            <a:alphaOff val="0"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:hueOff val="0"/>
-              <a:satOff val="0"/>
-              <a:lumOff val="0"/>
-              <a:alphaOff val="0"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:effectLst/>
-      </dsp:spPr>
-      <dsp:style>
-        <a:lnRef idx="2">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </dsp:style>
-      <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="5080" tIns="5080" rIns="5080" bIns="5080" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr lvl="0" algn="ctr" defTabSz="355600">
-            <a:lnSpc>
-              <a:spcPct val="90000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPct val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPct val="35000"/>
-            </a:spcAft>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="fr-FR" sz="800" kern="1200"/>
-            <a:t>Application Web</a:t>
-          </a:r>
-          <a:br>
-            <a:rPr lang="fr-FR" sz="800" kern="1200"/>
-          </a:br>
-          <a:r>
-            <a:rPr lang="fr-FR" sz="800" kern="1200"/>
-            <a:t>Début : 25-fev</a:t>
-          </a:r>
-          <a:br>
-            <a:rPr lang="fr-FR" sz="800" kern="1200"/>
-          </a:br>
-          <a:r>
-            <a:rPr lang="fr-FR" sz="800" kern="1200"/>
-            <a:t>Durée : 2</a:t>
-          </a:r>
-        </a:p>
-      </dsp:txBody>
-      <dsp:txXfrm>
-        <a:off x="11017577" y="2899261"/>
-        <a:ext cx="953277" cy="462257"/>
-      </dsp:txXfrm>
-    </dsp:sp>
-    <dsp:sp modelId="{81ABC927-9622-442A-B8AD-72EB91444905}">
-      <dsp:nvSpPr>
-        <dsp:cNvPr id="0" name=""/>
-        <dsp:cNvSpPr/>
-      </dsp:nvSpPr>
-      <dsp:spPr>
-        <a:xfrm rot="3534808">
-          <a:off x="3552123" y="3447989"/>
-          <a:ext cx="760781" cy="16325"/>
-        </a:xfrm>
-        <a:custGeom>
-          <a:avLst/>
-          <a:gdLst/>
-          <a:ahLst/>
-          <a:cxnLst/>
-          <a:rect l="0" t="0" r="0" b="0"/>
-          <a:pathLst>
-            <a:path>
-              <a:moveTo>
-                <a:pt x="0" y="8162"/>
-              </a:moveTo>
-              <a:lnTo>
-                <a:pt x="760781" y="8162"/>
-              </a:lnTo>
-            </a:path>
-          </a:pathLst>
-        </a:custGeom>
-        <a:noFill/>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="accent1">
-              <a:shade val="80000"/>
-              <a:hueOff val="0"/>
-              <a:satOff val="0"/>
-              <a:lumOff val="0"/>
-              <a:alphaOff val="0"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:effectLst/>
-      </dsp:spPr>
-      <dsp:style>
-        <a:lnRef idx="2">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor"/>
-      </dsp:style>
-      <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="12700" tIns="0" rIns="12700" bIns="0" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr lvl="0" algn="ctr" defTabSz="222250">
-            <a:lnSpc>
-              <a:spcPct val="90000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPct val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPct val="35000"/>
-            </a:spcAft>
-          </a:pPr>
-          <a:endParaRPr lang="fr-FR" sz="500" kern="1200"/>
-        </a:p>
-      </dsp:txBody>
-      <dsp:txXfrm>
-        <a:off x="3913494" y="3437132"/>
-        <a:ext cx="38039" cy="38039"/>
-      </dsp:txXfrm>
-    </dsp:sp>
-    <dsp:sp modelId="{BFE8769B-98C6-47D5-97B8-2BB5A4A4702B}">
-      <dsp:nvSpPr>
-        <dsp:cNvPr id="0" name=""/>
-        <dsp:cNvSpPr/>
-      </dsp:nvSpPr>
-      <dsp:spPr>
-        <a:xfrm>
-          <a:off x="4128922" y="3536404"/>
-          <a:ext cx="982039" cy="491019"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst>
-            <a:gd name="adj" fmla="val 10000"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent1">
-            <a:hueOff val="0"/>
-            <a:satOff val="0"/>
-            <a:lumOff val="0"/>
-            <a:alphaOff val="0"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:hueOff val="0"/>
-              <a:satOff val="0"/>
-              <a:lumOff val="0"/>
-              <a:alphaOff val="0"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:effectLst/>
-      </dsp:spPr>
-      <dsp:style>
-        <a:lnRef idx="2">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </dsp:style>
-      <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="5080" tIns="5080" rIns="5080" bIns="5080" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr lvl="0" algn="ctr" defTabSz="355600">
-            <a:lnSpc>
-              <a:spcPct val="90000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPct val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPct val="35000"/>
-            </a:spcAft>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="fr-FR" sz="800" kern="1200"/>
-            <a:t>Réflexion procédures</a:t>
-          </a:r>
-          <a:br>
-            <a:rPr lang="fr-FR" sz="800" kern="1200"/>
-          </a:br>
-          <a:r>
-            <a:rPr lang="fr-FR" sz="800" kern="1200"/>
-            <a:t>Début : 6-fev</a:t>
-          </a:r>
-          <a:br>
-            <a:rPr lang="fr-FR" sz="800" kern="1200"/>
-          </a:br>
-          <a:r>
-            <a:rPr lang="fr-FR" sz="800" kern="1200"/>
-            <a:t>Durée : 1</a:t>
-          </a:r>
-        </a:p>
-      </dsp:txBody>
-      <dsp:txXfrm>
-        <a:off x="4143303" y="3550785"/>
-        <a:ext cx="953277" cy="462257"/>
-      </dsp:txXfrm>
-    </dsp:sp>
-    <dsp:sp modelId="{5613D056-022B-4A6C-A781-177D3B75F647}">
-      <dsp:nvSpPr>
-        <dsp:cNvPr id="0" name=""/>
-        <dsp:cNvSpPr/>
-      </dsp:nvSpPr>
-      <dsp:spPr>
-        <a:xfrm>
-          <a:off x="5110961" y="3773751"/>
-          <a:ext cx="416630" cy="16325"/>
-        </a:xfrm>
-        <a:custGeom>
-          <a:avLst/>
-          <a:gdLst/>
-          <a:ahLst/>
-          <a:cxnLst/>
-          <a:rect l="0" t="0" r="0" b="0"/>
-          <a:pathLst>
-            <a:path>
-              <a:moveTo>
-                <a:pt x="0" y="8162"/>
-              </a:moveTo>
-              <a:lnTo>
-                <a:pt x="416630" y="8162"/>
-              </a:lnTo>
-            </a:path>
-          </a:pathLst>
-        </a:custGeom>
-        <a:noFill/>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="accent1">
-              <a:shade val="80000"/>
-              <a:hueOff val="0"/>
-              <a:satOff val="0"/>
-              <a:lumOff val="0"/>
-              <a:alphaOff val="0"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:effectLst/>
-      </dsp:spPr>
-      <dsp:style>
-        <a:lnRef idx="2">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor"/>
-      </dsp:style>
-      <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="12700" tIns="0" rIns="12700" bIns="0" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr lvl="0" algn="ctr" defTabSz="222250">
-            <a:lnSpc>
-              <a:spcPct val="90000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPct val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPct val="35000"/>
-            </a:spcAft>
-          </a:pPr>
-          <a:endParaRPr lang="fr-FR" sz="500" kern="1200"/>
-        </a:p>
-      </dsp:txBody>
-      <dsp:txXfrm>
-        <a:off x="5308860" y="3771498"/>
-        <a:ext cx="20831" cy="20831"/>
-      </dsp:txXfrm>
-    </dsp:sp>
-    <dsp:sp modelId="{D107B190-A7EE-4946-86FF-406679EC3865}">
-      <dsp:nvSpPr>
-        <dsp:cNvPr id="0" name=""/>
-        <dsp:cNvSpPr/>
-      </dsp:nvSpPr>
-      <dsp:spPr>
-        <a:xfrm>
-          <a:off x="5527591" y="3536404"/>
-          <a:ext cx="982039" cy="491019"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst>
-            <a:gd name="adj" fmla="val 10000"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent1">
-            <a:hueOff val="0"/>
-            <a:satOff val="0"/>
-            <a:lumOff val="0"/>
-            <a:alphaOff val="0"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:hueOff val="0"/>
-              <a:satOff val="0"/>
-              <a:lumOff val="0"/>
-              <a:alphaOff val="0"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:effectLst/>
-      </dsp:spPr>
-      <dsp:style>
-        <a:lnRef idx="2">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </dsp:style>
-      <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="5080" tIns="5080" rIns="5080" bIns="5080" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr lvl="0" algn="ctr" defTabSz="355600">
-            <a:lnSpc>
-              <a:spcPct val="90000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPct val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPct val="35000"/>
-            </a:spcAft>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="fr-FR" sz="800" kern="1200"/>
-            <a:t>Coder procédures</a:t>
-          </a:r>
-          <a:br>
-            <a:rPr lang="fr-FR" sz="800" kern="1200"/>
-          </a:br>
-          <a:r>
-            <a:rPr lang="fr-FR" sz="800" kern="1200"/>
-            <a:t>Début : 11-fev</a:t>
-          </a:r>
-          <a:br>
-            <a:rPr lang="fr-FR" sz="800" kern="1200"/>
-          </a:br>
-          <a:r>
-            <a:rPr lang="fr-FR" sz="800" kern="1200"/>
-            <a:t>Durée : 2</a:t>
-          </a:r>
-        </a:p>
-      </dsp:txBody>
-      <dsp:txXfrm>
-        <a:off x="5541972" y="3550785"/>
-        <a:ext cx="953277" cy="462257"/>
+        <a:off x="82371" y="3107340"/>
+        <a:ext cx="1076444" cy="521982"/>
       </dsp:txXfrm>
     </dsp:sp>
   </dsp:spTree>
@@ -13065,94 +12179,6 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>7121</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>59518</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>2359</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>178581</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="48" name="Rectangle 1"/>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="2578871" y="1202518"/>
-          <a:ext cx="578644" cy="119063"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent5">
-            <a:lumMod val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:miter lim="800000"/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>4741</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>235730</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>581003</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>354793</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="49" name="Rectangle 1"/>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="2576491" y="1378730"/>
-          <a:ext cx="576262" cy="119063"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent5"/>
-        </a:solidFill>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:miter lim="800000"/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>4752</xdr:colOff>
       <xdr:row>14</xdr:row>
@@ -13417,27 +12443,246 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>578620</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>4715</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>47612</xdr:rowOff>
+      <xdr:rowOff>235730</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>573858</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>571488</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>166675</xdr:rowOff>
+      <xdr:rowOff>345281</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="33" name="Rectangle 1"/>
+        <xdr:cNvPr id="34" name="Rectangle 1"/>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="4221933" y="1583518"/>
+          <a:off x="5398246" y="1771636"/>
+          <a:ext cx="1733586" cy="109551"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent5"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>4715</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>59526</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>166687</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="35" name="Rectangle 1"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="6565059" y="1988339"/>
+          <a:ext cx="1745504" cy="107161"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent5">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>2334</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>211927</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>571501</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>321468</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="36" name="Rectangle 1"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="7146084" y="2140740"/>
+          <a:ext cx="2902792" cy="109541"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent5"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>578572</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>59517</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>273826</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>178594</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="37" name="Rectangle 1"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="8305728" y="2381236"/>
+          <a:ext cx="1445473" cy="119077"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent5">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>4717</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>223824</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>309538</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>333376</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="38" name="Rectangle 1"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="10065498" y="2545543"/>
+          <a:ext cx="888228" cy="109552"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent5"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>292864</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>47604</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>288102</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>166667</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="25" name="Rectangle 1"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="9770239" y="3155135"/>
           <a:ext cx="578644" cy="119063"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -13462,28 +12707,28 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>4739</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>223824</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>4711</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>211910</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>345282</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>580973</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>330973</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="34" name="Rectangle 1"/>
+        <xdr:cNvPr id="26" name="Rectangle 1"/>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="4231458" y="1759730"/>
-          <a:ext cx="1162073" cy="121458"/>
+          <a:off x="10065492" y="3319441"/>
+          <a:ext cx="576262" cy="119063"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -13505,27 +12750,205 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>4752</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>59526</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>314309</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>47620</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>-1</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>178593</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>583400</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>166687</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="35" name="Rectangle 1"/>
+        <xdr:cNvPr id="27" name="Rectangle 1"/>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="4814877" y="1988339"/>
+          <a:off x="10375090" y="3548058"/>
+          <a:ext cx="852498" cy="119067"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent5">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>2362</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>211926</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>271454</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>330993</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="29" name="Rectangle 1"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="10646550" y="3712364"/>
+          <a:ext cx="852498" cy="119067"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent5"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>278534</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>57136</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>178594</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="30" name="Rectangle 1"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="9755909" y="2771761"/>
+          <a:ext cx="2638497" cy="121458"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent5">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>2350</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>45233</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>271442</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>164300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="32" name="Rectangle 1"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="11229944" y="3938577"/>
+          <a:ext cx="852498" cy="119067"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent5">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>264303</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>45239</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>259550</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>164306</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="39" name="Rectangle 1"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="12075303" y="4331489"/>
           <a:ext cx="1162060" cy="119067"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -13550,71 +12973,28 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>2371</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>223833</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>4734</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>57129</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>571501</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>345281</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>583378</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>176192</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="36" name="Rectangle 1"/>
+        <xdr:cNvPr id="42" name="Rectangle 1"/>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="5395902" y="2152646"/>
-          <a:ext cx="3486162" cy="121448"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent5"/>
-        </a:solidFill>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:miter lim="800000"/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>578621</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>59517</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>583405</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="37" name="Rectangle 1"/>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="5972152" y="2381236"/>
-          <a:ext cx="1171597" cy="130983"/>
+          <a:off x="11232328" y="4736285"/>
+          <a:ext cx="578644" cy="119063"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -13638,34 +13018,472 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>4741</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>223823</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>2340</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>42841</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>581003</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>342886</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>580984</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>161904</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="38" name="Rectangle 1"/>
+        <xdr:cNvPr id="43" name="Rectangle 1"/>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="8898710" y="2545542"/>
-          <a:ext cx="576262" cy="119063"/>
+          <a:off x="8312903" y="4721997"/>
+          <a:ext cx="578644" cy="119063"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent5">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>4703</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>59528</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>583357</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>178595</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="45" name="Rectangle 1"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="6565047" y="4738684"/>
+          <a:ext cx="1162060" cy="119067"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent5">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>2325</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>223834</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>580979</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>342901</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="50" name="Rectangle 1"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="6562669" y="4902990"/>
+          <a:ext cx="1162060" cy="119067"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
           <a:schemeClr val="accent5"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>583369</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>219053</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>578606</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>338116</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="51" name="Rectangle 1"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="8310525" y="4898209"/>
+          <a:ext cx="578644" cy="119063"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent5"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>2356</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>209529</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>581000</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>328592</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="52" name="Rectangle 1"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="11229950" y="4888685"/>
+          <a:ext cx="578644" cy="119063"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent5"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>309527</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>209540</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>578619</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>328607</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="53" name="Rectangle 1"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="11537121" y="4102884"/>
+          <a:ext cx="852498" cy="119067"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent5"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>261921</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>209545</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>250026</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>333375</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="54" name="Rectangle 1"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="12072921" y="4495795"/>
+          <a:ext cx="1738324" cy="123830"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent5"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>297644</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>209545</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>571488</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>345281</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="56" name="Rectangle 1"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="11525238" y="2924170"/>
+          <a:ext cx="2607469" cy="135736"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent5"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>4753</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>47620</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>166687</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="57" name="Rectangle 1"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4231472" y="1190620"/>
+          <a:ext cx="1162060" cy="119067"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent5">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>2384</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>211927</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>2</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>333375</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="58" name="Rectangle 1"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4229103" y="1354927"/>
+          <a:ext cx="1164430" cy="121448"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent5"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>2372</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>57145</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>176212</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="59" name="Rectangle 1"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="5395903" y="1593051"/>
+          <a:ext cx="1162060" cy="119067"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent5">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
         </a:solidFill>
         <a:ln w="9525">
           <a:solidFill>
@@ -13697,155 +13515,201 @@
       <xdr:row>15</xdr:row>
       <xdr:rowOff>285751</xdr:rowOff>
     </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="2" name="Groupe 1"/>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Diagramme 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/diagram">
+          <dgm:relIds xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:dm="rId1" r:lo="rId2" r:qs="rId3" r:cs="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>357187</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>214313</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>690562</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>309563</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="17" name="Connecteur droit 16"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
         <a:xfrm>
-          <a:off x="5834062" y="586979"/>
-          <a:ext cx="11989593" cy="5413772"/>
-          <a:chOff x="3012282" y="706041"/>
-          <a:chExt cx="11989593" cy="4282678"/>
+          <a:off x="9441656" y="3571876"/>
+          <a:ext cx="333375" cy="1273968"/>
         </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:graphicFrame macro="">
-        <xdr:nvGraphicFramePr>
-          <xdr:cNvPr id="3" name="Diagramme 2"/>
-          <xdr:cNvGraphicFramePr/>
-        </xdr:nvGraphicFramePr>
-        <xdr:xfrm>
-          <a:off x="3012282" y="706041"/>
-          <a:ext cx="11989593" cy="4282678"/>
-        </xdr:xfrm>
-        <a:graphic>
-          <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/diagram">
-            <dgm:relIds xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:dm="rId1" r:lo="rId2" r:qs="rId3" r:cs="rId4"/>
-          </a:graphicData>
-        </a:graphic>
-      </xdr:graphicFrame>
-      <xdr:cxnSp macro="">
-        <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="4" name="Connecteur droit 3"/>
-          <xdr:cNvCxnSpPr/>
-        </xdr:nvCxnSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="12227719" y="2178844"/>
-            <a:ext cx="1250156" cy="0"/>
-          </a:xfrm>
-          <a:prstGeom prst="line">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:ln w="28575"/>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="tx1"/>
-          </a:fontRef>
-        </xdr:style>
-      </xdr:cxnSp>
-      <xdr:cxnSp macro="">
-        <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="5" name="Connecteur droit 4"/>
-          <xdr:cNvCxnSpPr/>
-        </xdr:nvCxnSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="9510713" y="3926682"/>
-            <a:ext cx="3943350" cy="2381"/>
-          </a:xfrm>
-          <a:prstGeom prst="line">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:ln w="28575"/>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="tx1"/>
-          </a:fontRef>
-        </xdr:style>
-      </xdr:cxnSp>
-      <xdr:cxnSp macro="">
-        <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="6" name="Connecteur droit 5"/>
-          <xdr:cNvCxnSpPr/>
-        </xdr:nvCxnSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="13477876" y="2182416"/>
-            <a:ext cx="535780" cy="1103709"/>
-          </a:xfrm>
-          <a:prstGeom prst="line">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:ln w="28575"/>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="tx1"/>
-          </a:fontRef>
-        </xdr:style>
-      </xdr:cxnSp>
-      <xdr:cxnSp macro="">
-        <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="7" name="Connecteur droit 6"/>
-          <xdr:cNvCxnSpPr/>
-        </xdr:nvCxnSpPr>
-        <xdr:spPr>
-          <a:xfrm flipV="1">
-            <a:off x="13454063" y="3262313"/>
-            <a:ext cx="559593" cy="670322"/>
-          </a:xfrm>
-          <a:prstGeom prst="line">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:ln w="28575"/>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="tx1"/>
-          </a:fontRef>
-        </xdr:style>
-      </xdr:cxnSp>
-    </xdr:grpSp>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>414337</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>211932</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>747712</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>307182</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="20" name="Connecteur droit 19"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11022806" y="3569495"/>
+          <a:ext cx="333375" cy="1273968"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>688181</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>295276</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>631031</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>321469</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="21" name="Connecteur droit 20"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9772650" y="4831557"/>
+          <a:ext cx="6038850" cy="26193"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>626268</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>750094</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>328613</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="23" name="Connecteur droit 22"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="15806737" y="3845719"/>
+          <a:ext cx="885826" cy="1019175"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -16026,10 +15890,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W16"/>
+  <dimension ref="A1:W15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16042,7 +15906,7 @@
   <sheetData>
     <row r="1" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:23" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="34"/>
+      <c r="B2" s="38"/>
       <c r="C2" s="26">
         <v>42023</v>
       </c>
@@ -16080,7 +15944,7 @@
         <v>42069</v>
       </c>
       <c r="O2" s="8">
-        <v>42044</v>
+        <v>42072</v>
       </c>
       <c r="P2" s="8">
         <v>42073</v>
@@ -16102,7 +15966,7 @@
       </c>
     </row>
     <row r="3" spans="1:23" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="35"/>
+      <c r="B3" s="39"/>
       <c r="C3" s="25" t="s">
         <v>50</v>
       </c>
@@ -16162,7 +16026,7 @@
       </c>
     </row>
     <row r="4" spans="1:23" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="36"/>
+      <c r="A4" s="34"/>
       <c r="B4" s="5" t="s">
         <v>53</v>
       </c>
@@ -16187,7 +16051,7 @@
       <c r="U4" s="30"/>
     </row>
     <row r="5" spans="1:23" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="36"/>
+      <c r="A5" s="34"/>
       <c r="B5" s="5" t="s">
         <v>52</v>
       </c>
@@ -16212,7 +16076,7 @@
       <c r="U5" s="30"/>
     </row>
     <row r="6" spans="1:23" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="36" t="s">
+      <c r="A6" s="34" t="s">
         <v>56</v>
       </c>
       <c r="B6" s="5" t="s">
@@ -16297,7 +16161,7 @@
       <c r="U8" s="2"/>
     </row>
     <row r="9" spans="1:23" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="36"/>
+      <c r="A9" s="34"/>
       <c r="B9" s="5" t="s">
         <v>61</v>
       </c>
@@ -16322,7 +16186,7 @@
       <c r="U9" s="2"/>
     </row>
     <row r="10" spans="1:23" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="36"/>
+      <c r="A10" s="34"/>
       <c r="B10" s="5" t="s">
         <v>64</v>
       </c>
@@ -16347,7 +16211,7 @@
       <c r="U10" s="2"/>
     </row>
     <row r="11" spans="1:23" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="36"/>
+      <c r="A11" s="34"/>
       <c r="B11" s="5" t="s">
         <v>55</v>
       </c>
@@ -16372,7 +16236,7 @@
       <c r="U11" s="2"/>
     </row>
     <row r="12" spans="1:23" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="36"/>
+      <c r="A12" s="34"/>
       <c r="B12" s="5" t="s">
         <v>62</v>
       </c>
@@ -16397,7 +16261,7 @@
       <c r="U12" s="2"/>
     </row>
     <row r="13" spans="1:23" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="36"/>
+      <c r="A13" s="34"/>
       <c r="B13" s="5" t="s">
         <v>54</v>
       </c>
@@ -16422,12 +16286,12 @@
       <c r="U13" s="2"/>
     </row>
     <row r="14" spans="1:23" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="36"/>
+      <c r="A14" s="34"/>
       <c r="B14" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="C14" s="37"/>
-      <c r="D14" s="37"/>
+      <c r="C14" s="35"/>
+      <c r="D14" s="35"/>
       <c r="E14" s="15"/>
       <c r="F14" s="15"/>
       <c r="G14" s="15"/>
@@ -16447,7 +16311,7 @@
       <c r="U14" s="16"/>
     </row>
     <row r="15" spans="1:23" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="36"/>
+      <c r="A15" s="34"/>
       <c r="B15" s="6" t="s">
         <v>14</v>
       </c>
@@ -16471,69 +16335,6 @@
       <c r="T15" s="3"/>
       <c r="U15" s="4"/>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="C16">
-        <v>2</v>
-      </c>
-      <c r="D16">
-        <v>2</v>
-      </c>
-      <c r="E16">
-        <v>2</v>
-      </c>
-      <c r="F16">
-        <v>2</v>
-      </c>
-      <c r="G16">
-        <v>2</v>
-      </c>
-      <c r="H16">
-        <v>2</v>
-      </c>
-      <c r="I16">
-        <v>2</v>
-      </c>
-      <c r="J16">
-        <v>4</v>
-      </c>
-      <c r="K16">
-        <v>2</v>
-      </c>
-      <c r="L16">
-        <v>2</v>
-      </c>
-      <c r="M16">
-        <v>4</v>
-      </c>
-      <c r="N16">
-        <v>4</v>
-      </c>
-      <c r="O16">
-        <v>4</v>
-      </c>
-      <c r="P16">
-        <v>2</v>
-      </c>
-      <c r="Q16">
-        <v>4</v>
-      </c>
-      <c r="R16">
-        <v>4</v>
-      </c>
-      <c r="S16">
-        <v>4</v>
-      </c>
-      <c r="T16">
-        <v>2</v>
-      </c>
-      <c r="U16">
-        <v>4</v>
-      </c>
-      <c r="V16">
-        <f>SUM(C16:U16)</f>
-        <v>54</v>
-      </c>
-    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B2:B3"/>
@@ -16547,8 +16348,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D16"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" topLeftCell="C2" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="U10" sqref="U10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16570,7 +16371,9 @@
       </c>
     </row>
     <row r="3" spans="1:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="38"/>
+      <c r="A3" s="40">
+        <v>42023</v>
+      </c>
       <c r="B3" s="5" t="s">
         <v>65</v>
       </c>
@@ -16582,127 +16385,149 @@
       </c>
     </row>
     <row r="4" spans="1:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="38"/>
+      <c r="A4" s="40">
+        <v>42033</v>
+      </c>
       <c r="B4" s="5" t="s">
         <v>66</v>
       </c>
       <c r="C4" s="18">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D4" s="19" t="s">
-        <v>23</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="38"/>
+      <c r="A5" s="40">
+        <v>42040</v>
+      </c>
       <c r="B5" s="5" t="s">
         <v>67</v>
       </c>
       <c r="C5" s="18">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D5" s="19" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="38"/>
+      <c r="A6" s="40">
+        <v>42044</v>
+      </c>
       <c r="B6" s="5" t="s">
         <v>68</v>
       </c>
       <c r="C6" s="18">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D6" s="19" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="38"/>
+      <c r="A7" s="40">
+        <v>42062</v>
+      </c>
       <c r="B7" s="5" t="s">
         <v>69</v>
       </c>
       <c r="C7" s="18">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="D7" s="19" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="38"/>
+      <c r="A8" s="40">
+        <v>42069</v>
+      </c>
       <c r="B8" s="5" t="s">
         <v>70</v>
       </c>
       <c r="C8" s="18">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="D8" s="19" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="38"/>
+      <c r="A9" s="40">
+        <v>42069</v>
+      </c>
       <c r="B9" s="5" t="s">
         <v>71</v>
       </c>
       <c r="C9" s="18">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D9" s="19" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="38"/>
+      <c r="A10" s="40">
+        <v>42072</v>
+      </c>
       <c r="B10" s="5" t="s">
         <v>72</v>
       </c>
       <c r="C10" s="18">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D10" s="19" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="38"/>
+      <c r="A11" s="40">
+        <v>42076</v>
+      </c>
       <c r="B11" s="5" t="s">
         <v>73</v>
       </c>
       <c r="C11" s="18">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D11" s="19" t="s">
-        <v>42</v>
+        <v>77</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="38"/>
+      <c r="A12" s="40">
+        <v>42080</v>
+      </c>
       <c r="B12" s="5" t="s">
         <v>74</v>
       </c>
       <c r="C12" s="18">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D12" s="19" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="38"/>
+      <c r="A13" s="40">
+        <v>42044</v>
+      </c>
       <c r="B13" s="5" t="s">
         <v>75</v>
       </c>
       <c r="C13" s="18">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D13" s="19" t="s">
-        <v>47</v>
+        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="38"/>
+      <c r="A14" s="40">
+        <v>42037</v>
+      </c>
       <c r="B14" s="6" t="s">
         <v>76</v>
       </c>
@@ -16710,18 +16535,18 @@
         <v>30</v>
       </c>
       <c r="D14" s="21" t="s">
-        <v>48</v>
+        <v>23</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="38"/>
-      <c r="C15" s="39"/>
-      <c r="D15" s="39"/>
+      <c r="B15" s="36"/>
+      <c r="C15" s="37"/>
+      <c r="D15" s="37"/>
     </row>
     <row r="16" spans="1:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="38"/>
-      <c r="C16" s="39"/>
-      <c r="D16" s="39"/>
+      <c r="B16" s="36"/>
+      <c r="C16" s="37"/>
+      <c r="D16" s="37"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -16733,7 +16558,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:Q18"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="K1" sqref="K1"/>
     </sheetView>
   </sheetViews>
@@ -16749,7 +16574,7 @@
   <sheetData>
     <row r="1" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B2" s="34"/>
+      <c r="B2" s="38"/>
       <c r="C2" s="7" t="s">
         <v>0</v>
       </c>
@@ -16791,7 +16616,7 @@
       </c>
     </row>
     <row r="3" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B3" s="35"/>
+      <c r="B3" s="39"/>
       <c r="C3" s="10" t="s">
         <v>1</v>
       </c>
@@ -17122,7 +16947,7 @@
   <dimension ref="B1:D17"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
